--- a/planilhaderotascc19.xlsx
+++ b/planilhaderotascc19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Lucas\Desktop\Robo-Baixa-Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0906BA22-2EB1-4C57-852D-B74B43A2B535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F5EE39-37AD-4711-B243-3E201BD04F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="336">
   <si>
     <t>Data</t>
   </si>
@@ -928,6 +928,111 @@
   </si>
   <si>
     <t>SALES OLIVEIRA</t>
+  </si>
+  <si>
+    <t>Mot.: ADRIANO MEDEIROS LUCENA</t>
+  </si>
+  <si>
+    <t>Placa: EZU-9C84</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/210.032</t>
+  </si>
+  <si>
+    <t>14.516.519/0001-31</t>
+  </si>
+  <si>
+    <t>JV COMERCIO DE ALIMENTOS LTDA ME</t>
+  </si>
+  <si>
+    <t>ARTUR NOGUEIRA</t>
+  </si>
+  <si>
+    <t>18.487.890/0001-73</t>
+  </si>
+  <si>
+    <t>BRD CHOCOLATES FINOS EIRELI - ME</t>
+  </si>
+  <si>
+    <t>PAULINIA</t>
+  </si>
+  <si>
+    <t>34.363.522/0001-70</t>
+  </si>
+  <si>
+    <t>R M L BERLATO COMERCIO DE DOCES</t>
+  </si>
+  <si>
+    <t>37.257.382/0001-43</t>
+  </si>
+  <si>
+    <t>GARCIA E RUDOF DOCES FINOS LDTA</t>
+  </si>
+  <si>
+    <t>COSMOPOLIS</t>
+  </si>
+  <si>
+    <t>42.313.802/0001-00</t>
+  </si>
+  <si>
+    <t>J V G COMERCIO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>43.824.439/0001-41</t>
+  </si>
+  <si>
+    <t>MOSTAZO POLETINI E CIA LTDA</t>
+  </si>
+  <si>
+    <t>HOLAMBRA</t>
+  </si>
+  <si>
+    <t>45.779.390/0001-88</t>
+  </si>
+  <si>
+    <t>BERLATO CHOCOLATES FINOS LTDA</t>
+  </si>
+  <si>
+    <t>51.232.337/0001-65</t>
+  </si>
+  <si>
+    <t>ASPEU CHOCO SHOW LTDA</t>
+  </si>
+  <si>
+    <t>52.265.193/0001-06</t>
+  </si>
+  <si>
+    <t>KCZ COMERCIO CHOCOLATES EMBALAGENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27/05/24</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/210.033</t>
+  </si>
+  <si>
+    <t>31.884.548/0001-75</t>
+  </si>
+  <si>
+    <t>CAMPIFOOD COMERCIO DE ALIMENTOS LTD</t>
+  </si>
+  <si>
+    <t>17.611.014/0163-00</t>
+  </si>
+  <si>
+    <t>17.611.014/0166-52</t>
+  </si>
+  <si>
+    <t>17.611.014/0228-90</t>
+  </si>
+  <si>
+    <t>ASB COMERCIO  VAREJISTA DE DOCES</t>
+  </si>
+  <si>
+    <t>37.437.732/0001-53</t>
+  </si>
+  <si>
+    <t>CARLOS R TARTARINI COM CHOCOLATES L</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1042,11 +1147,98 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1078,6 +1270,87 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1404,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T448"/>
+  <dimension ref="A1:T532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:O78"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508:R532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20451,45 +20724,3915 @@
       <c r="N448" s="6"/>
       <c r="O448" s="6"/>
     </row>
+    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A449" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D449" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E449" s="5"/>
+      <c r="F449" s="5"/>
+      <c r="G449" s="5"/>
+      <c r="H449" s="6"/>
+      <c r="I449" s="6"/>
+      <c r="J449" s="6"/>
+      <c r="K449" s="6"/>
+      <c r="L449" s="6"/>
+      <c r="M449" s="6"/>
+      <c r="N449" s="6"/>
+      <c r="O449" s="6"/>
+      <c r="P449" s="6"/>
+      <c r="Q449" s="6"/>
+      <c r="R449" s="6"/>
+    </row>
+    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A450" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D450" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E450" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F450" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G450" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H450" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I450" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J450" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K450" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L450" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M450" s="6"/>
+      <c r="N450" s="6"/>
+      <c r="O450" s="6"/>
+      <c r="P450" s="6"/>
+      <c r="Q450" s="6"/>
+      <c r="R450" s="6"/>
+    </row>
+    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A451" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D451" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E451" s="5">
+        <v>2</v>
+      </c>
+      <c r="F451" s="7">
+        <v>1453435</v>
+      </c>
+      <c r="G451" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H451" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I451" s="8">
+        <v>1602516</v>
+      </c>
+      <c r="J451" s="5">
+        <v>5</v>
+      </c>
+      <c r="K451" s="5">
+        <v>14.14</v>
+      </c>
+      <c r="L451" s="5">
+        <v>663.23</v>
+      </c>
+      <c r="M451" s="6"/>
+      <c r="N451" s="6"/>
+      <c r="O451" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P451" s="6"/>
+      <c r="Q451" s="6"/>
+      <c r="R451" s="6"/>
+    </row>
+    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A452" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D452" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E452" s="5">
+        <v>2</v>
+      </c>
+      <c r="F452" s="7">
+        <v>1453436</v>
+      </c>
+      <c r="G452" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H452" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I452" s="8">
+        <v>1602516</v>
+      </c>
+      <c r="J452" s="5">
+        <v>27</v>
+      </c>
+      <c r="K452" s="5">
+        <v>67.12</v>
+      </c>
+      <c r="L452" s="9">
+        <v>3763.15</v>
+      </c>
+      <c r="M452" s="6"/>
+      <c r="N452" s="6"/>
+      <c r="O452" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P452" s="6"/>
+      <c r="Q452" s="6"/>
+      <c r="R452" s="6"/>
+    </row>
+    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A453" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D453" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E453" s="5">
+        <v>2</v>
+      </c>
+      <c r="F453" s="7">
+        <v>1453450</v>
+      </c>
+      <c r="G453" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H453" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I453" s="8">
+        <v>1602535</v>
+      </c>
+      <c r="J453" s="5">
+        <v>5</v>
+      </c>
+      <c r="K453" s="5">
+        <v>14.14</v>
+      </c>
+      <c r="L453" s="5">
+        <v>663.23</v>
+      </c>
+      <c r="M453" s="6"/>
+      <c r="N453" s="6"/>
+      <c r="O453" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P453" s="6"/>
+      <c r="Q453" s="6"/>
+      <c r="R453" s="6"/>
+    </row>
+    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A454" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D454" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E454" s="5">
+        <v>2</v>
+      </c>
+      <c r="F454" s="7">
+        <v>1453451</v>
+      </c>
+      <c r="G454" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H454" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I454" s="8">
+        <v>1602535</v>
+      </c>
+      <c r="J454" s="5">
+        <v>27</v>
+      </c>
+      <c r="K454" s="5">
+        <v>67.12</v>
+      </c>
+      <c r="L454" s="9">
+        <v>3763.15</v>
+      </c>
+      <c r="M454" s="6"/>
+      <c r="N454" s="6"/>
+      <c r="O454" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P454" s="6"/>
+      <c r="Q454" s="6"/>
+      <c r="R454" s="6"/>
+    </row>
+    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A455" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B455" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D455" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E455" s="5">
+        <v>2</v>
+      </c>
+      <c r="F455" s="7">
+        <v>1453511</v>
+      </c>
+      <c r="G455" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H455" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I455" s="8">
+        <v>1602553</v>
+      </c>
+      <c r="J455" s="5">
+        <v>5</v>
+      </c>
+      <c r="K455" s="5">
+        <v>14.14</v>
+      </c>
+      <c r="L455" s="5">
+        <v>663.23</v>
+      </c>
+      <c r="M455" s="6"/>
+      <c r="N455" s="6"/>
+      <c r="O455" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P455" s="6"/>
+      <c r="Q455" s="6"/>
+      <c r="R455" s="6"/>
+    </row>
+    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A456" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D456" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E456" s="5">
+        <v>2</v>
+      </c>
+      <c r="F456" s="7">
+        <v>1453512</v>
+      </c>
+      <c r="G456" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H456" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I456" s="8">
+        <v>1602553</v>
+      </c>
+      <c r="J456" s="5">
+        <v>26</v>
+      </c>
+      <c r="K456" s="5">
+        <v>65.430000000000007</v>
+      </c>
+      <c r="L456" s="9">
+        <v>3676.47</v>
+      </c>
+      <c r="M456" s="6"/>
+      <c r="N456" s="6"/>
+      <c r="O456" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P456" s="6"/>
+      <c r="Q456" s="6"/>
+      <c r="R456" s="6"/>
+    </row>
+    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A457" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B457" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D457" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E457" s="5">
+        <v>2</v>
+      </c>
+      <c r="F457" s="7">
+        <v>1453526</v>
+      </c>
+      <c r="G457" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H457" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I457" s="8">
+        <v>1602560</v>
+      </c>
+      <c r="J457" s="5">
+        <v>2</v>
+      </c>
+      <c r="K457" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L457" s="5">
+        <v>281.14999999999998</v>
+      </c>
+      <c r="M457" s="6"/>
+      <c r="N457" s="6"/>
+      <c r="O457" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P457" s="6"/>
+      <c r="Q457" s="6"/>
+      <c r="R457" s="6"/>
+    </row>
+    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A458" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D458" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E458" s="5">
+        <v>2</v>
+      </c>
+      <c r="F458" s="7">
+        <v>1453527</v>
+      </c>
+      <c r="G458" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H458" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I458" s="8">
+        <v>1602560</v>
+      </c>
+      <c r="J458" s="5">
+        <v>25</v>
+      </c>
+      <c r="K458" s="5">
+        <v>62.03</v>
+      </c>
+      <c r="L458" s="9">
+        <v>3524.59</v>
+      </c>
+      <c r="M458" s="6"/>
+      <c r="N458" s="6"/>
+      <c r="O458" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P458" s="6"/>
+      <c r="Q458" s="6"/>
+      <c r="R458" s="6"/>
+    </row>
+    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A459" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D459" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E459" s="5">
+        <v>2</v>
+      </c>
+      <c r="F459" s="7">
+        <v>1453583</v>
+      </c>
+      <c r="G459" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H459" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I459" s="8">
+        <v>1602572</v>
+      </c>
+      <c r="J459" s="5">
+        <v>5</v>
+      </c>
+      <c r="K459" s="5">
+        <v>14.14</v>
+      </c>
+      <c r="L459" s="5">
+        <v>663.23</v>
+      </c>
+      <c r="M459" s="6"/>
+      <c r="N459" s="6"/>
+      <c r="O459" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P459" s="6"/>
+      <c r="Q459" s="6"/>
+      <c r="R459" s="6"/>
+    </row>
+    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A460" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D460" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E460" s="5">
+        <v>2</v>
+      </c>
+      <c r="F460" s="7">
+        <v>1453584</v>
+      </c>
+      <c r="G460" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H460" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I460" s="8">
+        <v>1602572</v>
+      </c>
+      <c r="J460" s="5">
+        <v>26</v>
+      </c>
+      <c r="K460" s="5">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="L460" s="9">
+        <v>3671.98</v>
+      </c>
+      <c r="M460" s="6"/>
+      <c r="N460" s="6"/>
+      <c r="O460" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P460" s="6"/>
+      <c r="Q460" s="6"/>
+      <c r="R460" s="6"/>
+    </row>
+    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A461" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B461" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D461" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E461" s="5">
+        <v>2</v>
+      </c>
+      <c r="F461" s="7">
+        <v>1453601</v>
+      </c>
+      <c r="G461" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H461" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I461" s="8">
+        <v>1602581</v>
+      </c>
+      <c r="J461" s="5">
+        <v>1</v>
+      </c>
+      <c r="K461" s="5">
+        <v>4.93</v>
+      </c>
+      <c r="L461" s="5">
+        <v>328.39</v>
+      </c>
+      <c r="M461" s="6"/>
+      <c r="N461" s="6"/>
+      <c r="O461" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P461" s="6"/>
+      <c r="Q461" s="6"/>
+      <c r="R461" s="6"/>
+    </row>
+    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A462" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B462" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D462" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E462" s="5">
+        <v>2</v>
+      </c>
+      <c r="F462" s="7">
+        <v>1453602</v>
+      </c>
+      <c r="G462" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H462" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I462" s="8">
+        <v>1602581</v>
+      </c>
+      <c r="J462" s="5">
+        <v>5</v>
+      </c>
+      <c r="K462" s="5">
+        <v>14.14</v>
+      </c>
+      <c r="L462" s="5">
+        <v>663.23</v>
+      </c>
+      <c r="M462" s="6"/>
+      <c r="N462" s="6"/>
+      <c r="O462" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P462" s="6"/>
+      <c r="Q462" s="6"/>
+      <c r="R462" s="6"/>
+    </row>
+    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A463" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B463" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D463" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E463" s="5">
+        <v>2</v>
+      </c>
+      <c r="F463" s="7">
+        <v>1453603</v>
+      </c>
+      <c r="G463" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H463" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I463" s="8">
+        <v>1602581</v>
+      </c>
+      <c r="J463" s="5">
+        <v>26</v>
+      </c>
+      <c r="K463" s="5">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="L463" s="9">
+        <v>3671.97</v>
+      </c>
+      <c r="M463" s="6"/>
+      <c r="N463" s="6"/>
+      <c r="O463" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P463" s="6"/>
+      <c r="Q463" s="6"/>
+      <c r="R463" s="6"/>
+    </row>
+    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A464" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D464" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E464" s="5">
+        <v>2</v>
+      </c>
+      <c r="F464" s="7">
+        <v>1453650</v>
+      </c>
+      <c r="G464" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H464" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I464" s="8">
+        <v>1602694</v>
+      </c>
+      <c r="J464" s="5">
+        <v>4</v>
+      </c>
+      <c r="K464" s="5">
+        <v>12.08</v>
+      </c>
+      <c r="L464" s="5">
+        <v>508.27</v>
+      </c>
+      <c r="M464" s="6"/>
+      <c r="N464" s="6"/>
+      <c r="O464" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P464" s="6"/>
+      <c r="Q464" s="6"/>
+      <c r="R464" s="6"/>
+    </row>
+    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A465" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B465" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D465" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E465" s="5">
+        <v>2</v>
+      </c>
+      <c r="F465" s="7">
+        <v>1453651</v>
+      </c>
+      <c r="G465" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H465" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I465" s="8">
+        <v>1602694</v>
+      </c>
+      <c r="J465" s="5">
+        <v>34</v>
+      </c>
+      <c r="K465" s="5">
+        <v>85.83</v>
+      </c>
+      <c r="L465" s="9">
+        <v>4673.93</v>
+      </c>
+      <c r="M465" s="6"/>
+      <c r="N465" s="6"/>
+      <c r="O465" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P465" s="6"/>
+      <c r="Q465" s="6"/>
+      <c r="R465" s="6"/>
+    </row>
+    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A466" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D466" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E466" s="5">
+        <v>2</v>
+      </c>
+      <c r="F466" s="7">
+        <v>1453717</v>
+      </c>
+      <c r="G466" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H466" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I466" s="8">
+        <v>1602632</v>
+      </c>
+      <c r="J466" s="5">
+        <v>1</v>
+      </c>
+      <c r="K466" s="5">
+        <v>3.04</v>
+      </c>
+      <c r="L466" s="5">
+        <v>126.19</v>
+      </c>
+      <c r="M466" s="6"/>
+      <c r="N466" s="6"/>
+      <c r="O466" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P466" s="6"/>
+      <c r="Q466" s="6"/>
+      <c r="R466" s="6"/>
+    </row>
+    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A467" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D467" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E467" s="5">
+        <v>2</v>
+      </c>
+      <c r="F467" s="7">
+        <v>1453718</v>
+      </c>
+      <c r="G467" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H467" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I467" s="8">
+        <v>1602632</v>
+      </c>
+      <c r="J467" s="5">
+        <v>22</v>
+      </c>
+      <c r="K467" s="5">
+        <v>56.98</v>
+      </c>
+      <c r="L467" s="9">
+        <v>3264.55</v>
+      </c>
+      <c r="M467" s="6"/>
+      <c r="N467" s="6"/>
+      <c r="O467" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P467" s="6"/>
+      <c r="Q467" s="6"/>
+      <c r="R467" s="6"/>
+    </row>
+    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A468" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D468" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E468" s="5">
+        <v>2</v>
+      </c>
+      <c r="F468" s="7">
+        <v>1453753</v>
+      </c>
+      <c r="G468" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H468" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I468" s="8">
+        <v>1602686</v>
+      </c>
+      <c r="J468" s="5">
+        <v>2</v>
+      </c>
+      <c r="K468" s="5">
+        <v>6.07</v>
+      </c>
+      <c r="L468" s="5">
+        <v>252.38</v>
+      </c>
+      <c r="M468" s="6"/>
+      <c r="N468" s="6"/>
+      <c r="O468" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P468" s="6"/>
+      <c r="Q468" s="6"/>
+      <c r="R468" s="6"/>
+    </row>
+    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A469" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B469" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C469" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D469" s="5">
+        <v>197305</v>
+      </c>
+      <c r="E469" s="5">
+        <v>2</v>
+      </c>
+      <c r="F469" s="7">
+        <v>1453754</v>
+      </c>
+      <c r="G469" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H469" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I469" s="8">
+        <v>1602686</v>
+      </c>
+      <c r="J469" s="5">
+        <v>22</v>
+      </c>
+      <c r="K469" s="5">
+        <v>56.98</v>
+      </c>
+      <c r="L469" s="9">
+        <v>3264.55</v>
+      </c>
+      <c r="M469" s="6"/>
+      <c r="N469" s="6"/>
+      <c r="O469" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P469" s="6"/>
+      <c r="Q469" s="6"/>
+      <c r="R469" s="6"/>
+    </row>
+    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A470" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D470" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E470" s="5">
+        <v>2</v>
+      </c>
+      <c r="F470" s="7">
+        <v>1460447</v>
+      </c>
+      <c r="G470" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H470" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I470" s="8">
+        <v>1603752</v>
+      </c>
+      <c r="J470" s="5">
+        <v>8</v>
+      </c>
+      <c r="K470" s="5">
+        <v>11.51</v>
+      </c>
+      <c r="L470" s="5">
+        <v>508.42</v>
+      </c>
+      <c r="M470" s="6"/>
+      <c r="N470" s="6"/>
+      <c r="O470" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P470" s="6"/>
+      <c r="Q470" s="6"/>
+      <c r="R470" s="6"/>
+    </row>
+    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A471" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B471" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C471" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D471" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E471" s="5">
+        <v>2</v>
+      </c>
+      <c r="F471" s="7">
+        <v>1460448</v>
+      </c>
+      <c r="G471" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H471" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I471" s="8">
+        <v>1603752</v>
+      </c>
+      <c r="J471" s="5">
+        <v>2</v>
+      </c>
+      <c r="K471" s="5">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="L471" s="5">
+        <v>625.87</v>
+      </c>
+      <c r="M471" s="6"/>
+      <c r="N471" s="6"/>
+      <c r="O471" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P471" s="6"/>
+      <c r="Q471" s="6"/>
+      <c r="R471" s="6"/>
+    </row>
+    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A472" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D472" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E472" s="5">
+        <v>2</v>
+      </c>
+      <c r="F472" s="7">
+        <v>1460449</v>
+      </c>
+      <c r="G472" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H472" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I472" s="8">
+        <v>1603752</v>
+      </c>
+      <c r="J472" s="5">
+        <v>1</v>
+      </c>
+      <c r="K472" s="5">
+        <v>2.97</v>
+      </c>
+      <c r="L472" s="5">
+        <v>157.28</v>
+      </c>
+      <c r="M472" s="6"/>
+      <c r="N472" s="6"/>
+      <c r="O472" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P472" s="6"/>
+      <c r="Q472" s="6"/>
+      <c r="R472" s="6"/>
+    </row>
+    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A473" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B473" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C473" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D473" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E473" s="5">
+        <v>2</v>
+      </c>
+      <c r="F473" s="7">
+        <v>1460469</v>
+      </c>
+      <c r="G473" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H473" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I473" s="8">
+        <v>1603771</v>
+      </c>
+      <c r="J473" s="5">
+        <v>11</v>
+      </c>
+      <c r="K473" s="5">
+        <v>15.71</v>
+      </c>
+      <c r="L473" s="5">
+        <v>699.09</v>
+      </c>
+      <c r="M473" s="6"/>
+      <c r="N473" s="6"/>
+      <c r="O473" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P473" s="6"/>
+      <c r="Q473" s="6"/>
+      <c r="R473" s="6"/>
+    </row>
+    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A474" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D474" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E474" s="5">
+        <v>2</v>
+      </c>
+      <c r="F474" s="7">
+        <v>1460470</v>
+      </c>
+      <c r="G474" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H474" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I474" s="8">
+        <v>1603771</v>
+      </c>
+      <c r="J474" s="5">
+        <v>2</v>
+      </c>
+      <c r="K474" s="5">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="L474" s="5">
+        <v>625.87</v>
+      </c>
+      <c r="M474" s="6"/>
+      <c r="N474" s="6"/>
+      <c r="O474" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P474" s="6"/>
+      <c r="Q474" s="6"/>
+      <c r="R474" s="6"/>
+    </row>
+    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A475" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C475" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D475" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E475" s="5">
+        <v>2</v>
+      </c>
+      <c r="F475" s="7">
+        <v>1460471</v>
+      </c>
+      <c r="G475" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H475" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I475" s="8">
+        <v>1603771</v>
+      </c>
+      <c r="J475" s="5">
+        <v>1</v>
+      </c>
+      <c r="K475" s="5">
+        <v>2.97</v>
+      </c>
+      <c r="L475" s="5">
+        <v>157.28</v>
+      </c>
+      <c r="M475" s="6"/>
+      <c r="N475" s="6"/>
+      <c r="O475" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P475" s="6"/>
+      <c r="Q475" s="6"/>
+      <c r="R475" s="6"/>
+    </row>
+    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A476" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D476" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E476" s="5">
+        <v>2</v>
+      </c>
+      <c r="F476" s="7">
+        <v>1460626</v>
+      </c>
+      <c r="G476" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H476" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I476" s="8">
+        <v>1603788</v>
+      </c>
+      <c r="J476" s="5">
+        <v>11</v>
+      </c>
+      <c r="K476" s="5">
+        <v>15.71</v>
+      </c>
+      <c r="L476" s="5">
+        <v>699.09</v>
+      </c>
+      <c r="M476" s="6"/>
+      <c r="N476" s="6"/>
+      <c r="O476" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P476" s="6"/>
+      <c r="Q476" s="6"/>
+      <c r="R476" s="6"/>
+    </row>
+    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A477" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B477" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D477" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E477" s="5">
+        <v>2</v>
+      </c>
+      <c r="F477" s="7">
+        <v>1460627</v>
+      </c>
+      <c r="G477" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H477" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I477" s="8">
+        <v>1603788</v>
+      </c>
+      <c r="J477" s="5">
+        <v>1</v>
+      </c>
+      <c r="K477" s="5">
+        <v>2.97</v>
+      </c>
+      <c r="L477" s="5">
+        <v>157.28</v>
+      </c>
+      <c r="M477" s="6"/>
+      <c r="N477" s="6"/>
+      <c r="O477" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P477" s="6"/>
+      <c r="Q477" s="6"/>
+      <c r="R477" s="6"/>
+    </row>
+    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A478" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D478" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E478" s="5">
+        <v>2</v>
+      </c>
+      <c r="F478" s="7">
+        <v>1460646</v>
+      </c>
+      <c r="G478" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H478" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I478" s="8">
+        <v>1603796</v>
+      </c>
+      <c r="J478" s="5">
+        <v>3</v>
+      </c>
+      <c r="K478" s="5">
+        <v>4.43</v>
+      </c>
+      <c r="L478" s="5">
+        <v>190.65</v>
+      </c>
+      <c r="M478" s="6"/>
+      <c r="N478" s="6"/>
+      <c r="O478" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P478" s="6"/>
+      <c r="Q478" s="6"/>
+      <c r="R478" s="6"/>
+    </row>
+    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A479" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D479" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E479" s="5">
+        <v>2</v>
+      </c>
+      <c r="F479" s="7">
+        <v>1460647</v>
+      </c>
+      <c r="G479" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H479" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I479" s="8">
+        <v>1603796</v>
+      </c>
+      <c r="J479" s="5">
+        <v>1</v>
+      </c>
+      <c r="K479" s="5">
+        <v>2.97</v>
+      </c>
+      <c r="L479" s="5">
+        <v>157.28</v>
+      </c>
+      <c r="M479" s="6"/>
+      <c r="N479" s="6"/>
+      <c r="O479" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P479" s="6"/>
+      <c r="Q479" s="6"/>
+      <c r="R479" s="6"/>
+    </row>
+    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A480" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D480" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E480" s="5">
+        <v>2</v>
+      </c>
+      <c r="F480" s="7">
+        <v>1460739</v>
+      </c>
+      <c r="G480" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H480" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I480" s="8">
+        <v>1603809</v>
+      </c>
+      <c r="J480" s="5">
+        <v>7</v>
+      </c>
+      <c r="K480" s="5">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="L480" s="5">
+        <v>444.87</v>
+      </c>
+      <c r="M480" s="6"/>
+      <c r="N480" s="6"/>
+      <c r="O480" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P480" s="6"/>
+      <c r="Q480" s="6"/>
+      <c r="R480" s="6"/>
+    </row>
+    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A481" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D481" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E481" s="5">
+        <v>2</v>
+      </c>
+      <c r="F481" s="7">
+        <v>1460740</v>
+      </c>
+      <c r="G481" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H481" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I481" s="8">
+        <v>1603809</v>
+      </c>
+      <c r="J481" s="5">
+        <v>1</v>
+      </c>
+      <c r="K481" s="5">
+        <v>2.97</v>
+      </c>
+      <c r="L481" s="5">
+        <v>157.28</v>
+      </c>
+      <c r="M481" s="6"/>
+      <c r="N481" s="6"/>
+      <c r="O481" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P481" s="6"/>
+      <c r="Q481" s="6"/>
+      <c r="R481" s="6"/>
+    </row>
+    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A482" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D482" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E482" s="5">
+        <v>2</v>
+      </c>
+      <c r="F482" s="7">
+        <v>1460765</v>
+      </c>
+      <c r="G482" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H482" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I482" s="8">
+        <v>1603819</v>
+      </c>
+      <c r="J482" s="5">
+        <v>5</v>
+      </c>
+      <c r="K482" s="5">
+        <v>7.31</v>
+      </c>
+      <c r="L482" s="5">
+        <v>317.77</v>
+      </c>
+      <c r="M482" s="6"/>
+      <c r="N482" s="6"/>
+      <c r="O482" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P482" s="6"/>
+      <c r="Q482" s="6"/>
+      <c r="R482" s="6"/>
+    </row>
+    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A483" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C483" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D483" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E483" s="5">
+        <v>2</v>
+      </c>
+      <c r="F483" s="7">
+        <v>1460766</v>
+      </c>
+      <c r="G483" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H483" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I483" s="8">
+        <v>1603819</v>
+      </c>
+      <c r="J483" s="5">
+        <v>1</v>
+      </c>
+      <c r="K483" s="5">
+        <v>2</v>
+      </c>
+      <c r="L483" s="5">
+        <v>94.62</v>
+      </c>
+      <c r="M483" s="6"/>
+      <c r="N483" s="6"/>
+      <c r="O483" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P483" s="6"/>
+      <c r="Q483" s="6"/>
+      <c r="R483" s="6"/>
+    </row>
+    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A484" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D484" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E484" s="5">
+        <v>2</v>
+      </c>
+      <c r="F484" s="7">
+        <v>1460767</v>
+      </c>
+      <c r="G484" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H484" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I484" s="8">
+        <v>1603819</v>
+      </c>
+      <c r="J484" s="5">
+        <v>1</v>
+      </c>
+      <c r="K484" s="5">
+        <v>2.37</v>
+      </c>
+      <c r="L484" s="5">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="M484" s="6"/>
+      <c r="N484" s="6"/>
+      <c r="O484" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P484" s="6"/>
+      <c r="Q484" s="6"/>
+      <c r="R484" s="6"/>
+    </row>
+    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A485" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D485" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E485" s="5">
+        <v>2</v>
+      </c>
+      <c r="F485" s="7">
+        <v>1460768</v>
+      </c>
+      <c r="G485" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H485" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I485" s="8">
+        <v>1603819</v>
+      </c>
+      <c r="J485" s="5">
+        <v>1</v>
+      </c>
+      <c r="K485" s="5">
+        <v>2.97</v>
+      </c>
+      <c r="L485" s="5">
+        <v>157.28</v>
+      </c>
+      <c r="M485" s="6"/>
+      <c r="N485" s="6"/>
+      <c r="O485" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P485" s="6"/>
+      <c r="Q485" s="6"/>
+      <c r="R485" s="6"/>
+    </row>
+    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A486" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D486" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E486" s="5">
+        <v>2</v>
+      </c>
+      <c r="F486" s="7">
+        <v>1460837</v>
+      </c>
+      <c r="G486" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H486" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I486" s="8">
+        <v>1603971</v>
+      </c>
+      <c r="J486" s="5">
+        <v>16</v>
+      </c>
+      <c r="K486" s="5">
+        <v>22.78</v>
+      </c>
+      <c r="L486" s="9">
+        <v>1016.83</v>
+      </c>
+      <c r="M486" s="6"/>
+      <c r="N486" s="6"/>
+      <c r="O486" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P486" s="6"/>
+      <c r="Q486" s="6"/>
+      <c r="R486" s="6"/>
+    </row>
+    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A487" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D487" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E487" s="5">
+        <v>2</v>
+      </c>
+      <c r="F487" s="7">
+        <v>1460838</v>
+      </c>
+      <c r="G487" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H487" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I487" s="8">
+        <v>1603971</v>
+      </c>
+      <c r="J487" s="5">
+        <v>2</v>
+      </c>
+      <c r="K487" s="5">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="L487" s="5">
+        <v>298.44</v>
+      </c>
+      <c r="M487" s="6"/>
+      <c r="N487" s="6"/>
+      <c r="O487" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P487" s="6"/>
+      <c r="Q487" s="6"/>
+      <c r="R487" s="6"/>
+    </row>
+    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A488" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D488" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E488" s="5">
+        <v>2</v>
+      </c>
+      <c r="F488" s="7">
+        <v>1460839</v>
+      </c>
+      <c r="G488" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H488" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I488" s="8">
+        <v>1603971</v>
+      </c>
+      <c r="J488" s="5">
+        <v>4</v>
+      </c>
+      <c r="K488" s="5">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="L488" s="5">
+        <v>493.72</v>
+      </c>
+      <c r="M488" s="6"/>
+      <c r="N488" s="6"/>
+      <c r="O488" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P488" s="6"/>
+      <c r="Q488" s="6"/>
+      <c r="R488" s="6"/>
+    </row>
+    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A489" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D489" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E489" s="5">
+        <v>2</v>
+      </c>
+      <c r="F489" s="7">
+        <v>1460965</v>
+      </c>
+      <c r="G489" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H489" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I489" s="8">
+        <v>1603875</v>
+      </c>
+      <c r="J489" s="5">
+        <v>3</v>
+      </c>
+      <c r="K489" s="5">
+        <v>4.43</v>
+      </c>
+      <c r="L489" s="5">
+        <v>190.65</v>
+      </c>
+      <c r="M489" s="6"/>
+      <c r="N489" s="6"/>
+      <c r="O489" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P489" s="6"/>
+      <c r="Q489" s="6"/>
+      <c r="R489" s="6"/>
+    </row>
+    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A490" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D490" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E490" s="5">
+        <v>2</v>
+      </c>
+      <c r="F490" s="7">
+        <v>1460966</v>
+      </c>
+      <c r="G490" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H490" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I490" s="8">
+        <v>1603875</v>
+      </c>
+      <c r="J490" s="5">
+        <v>1</v>
+      </c>
+      <c r="K490" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L490" s="5">
+        <v>154.96</v>
+      </c>
+      <c r="M490" s="6"/>
+      <c r="N490" s="6"/>
+      <c r="O490" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P490" s="6"/>
+      <c r="Q490" s="6"/>
+      <c r="R490" s="6"/>
+    </row>
+    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A491" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D491" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E491" s="5">
+        <v>2</v>
+      </c>
+      <c r="F491" s="7">
+        <v>1460967</v>
+      </c>
+      <c r="G491" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H491" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I491" s="8">
+        <v>1603875</v>
+      </c>
+      <c r="J491" s="5">
+        <v>1</v>
+      </c>
+      <c r="K491" s="5">
+        <v>2.97</v>
+      </c>
+      <c r="L491" s="5">
+        <v>157.28</v>
+      </c>
+      <c r="M491" s="6"/>
+      <c r="N491" s="6"/>
+      <c r="O491" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P491" s="6"/>
+      <c r="Q491" s="6"/>
+      <c r="R491" s="6"/>
+    </row>
+    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A492" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D492" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E492" s="5">
+        <v>2</v>
+      </c>
+      <c r="F492" s="7">
+        <v>1461026</v>
+      </c>
+      <c r="G492" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H492" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I492" s="8">
+        <v>1603959</v>
+      </c>
+      <c r="J492" s="5">
+        <v>4</v>
+      </c>
+      <c r="K492" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="L492" s="5">
+        <v>254.21</v>
+      </c>
+      <c r="M492" s="6"/>
+      <c r="N492" s="6"/>
+      <c r="O492" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P492" s="6"/>
+      <c r="Q492" s="6"/>
+      <c r="R492" s="6"/>
+    </row>
+    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A493" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D493" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E493" s="5">
+        <v>2</v>
+      </c>
+      <c r="F493" s="7">
+        <v>1461027</v>
+      </c>
+      <c r="G493" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H493" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I493" s="8">
+        <v>1603959</v>
+      </c>
+      <c r="J493" s="5">
+        <v>1</v>
+      </c>
+      <c r="K493" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L493" s="5">
+        <v>154.96</v>
+      </c>
+      <c r="M493" s="6"/>
+      <c r="N493" s="6"/>
+      <c r="O493" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P493" s="6"/>
+      <c r="Q493" s="6"/>
+      <c r="R493" s="6"/>
+    </row>
+    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A494" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D494" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E494" s="5">
+        <v>2</v>
+      </c>
+      <c r="F494" s="7">
+        <v>1461028</v>
+      </c>
+      <c r="G494" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H494" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I494" s="8">
+        <v>1603959</v>
+      </c>
+      <c r="J494" s="5">
+        <v>1</v>
+      </c>
+      <c r="K494" s="5">
+        <v>2.97</v>
+      </c>
+      <c r="L494" s="5">
+        <v>157.28</v>
+      </c>
+      <c r="M494" s="6"/>
+      <c r="N494" s="6"/>
+      <c r="O494" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P494" s="6"/>
+      <c r="Q494" s="6"/>
+      <c r="R494" s="6"/>
+    </row>
+    <row r="495" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A495" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D495" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E495" s="5">
+        <v>2</v>
+      </c>
+      <c r="F495" s="7">
+        <v>1468991</v>
+      </c>
+      <c r="G495" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H495" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I495" s="8">
+        <v>1605392</v>
+      </c>
+      <c r="J495" s="5">
+        <v>3</v>
+      </c>
+      <c r="K495" s="5">
+        <v>5.61</v>
+      </c>
+      <c r="L495" s="5">
+        <v>501.79</v>
+      </c>
+      <c r="M495" s="6"/>
+      <c r="N495" s="6"/>
+      <c r="O495" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P495" s="6"/>
+      <c r="Q495" s="6"/>
+      <c r="R495" s="6"/>
+    </row>
+    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A496" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D496" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E496" s="5">
+        <v>2</v>
+      </c>
+      <c r="F496" s="7">
+        <v>1468992</v>
+      </c>
+      <c r="G496" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H496" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I496" s="8">
+        <v>1605392</v>
+      </c>
+      <c r="J496" s="5">
+        <v>1</v>
+      </c>
+      <c r="K496" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="L496" s="5">
+        <v>208.31</v>
+      </c>
+      <c r="M496" s="6"/>
+      <c r="N496" s="6"/>
+      <c r="O496" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P496" s="6"/>
+      <c r="Q496" s="6"/>
+      <c r="R496" s="6"/>
+    </row>
+    <row r="497" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A497" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D497" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E497" s="5">
+        <v>2</v>
+      </c>
+      <c r="F497" s="7">
+        <v>1469014</v>
+      </c>
+      <c r="G497" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H497" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I497" s="8">
+        <v>1605401</v>
+      </c>
+      <c r="J497" s="5">
+        <v>3</v>
+      </c>
+      <c r="K497" s="5">
+        <v>5.61</v>
+      </c>
+      <c r="L497" s="5">
+        <v>501.79</v>
+      </c>
+      <c r="M497" s="6"/>
+      <c r="N497" s="6"/>
+      <c r="O497" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P497" s="6"/>
+      <c r="Q497" s="6"/>
+      <c r="R497" s="6"/>
+    </row>
+    <row r="498" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A498" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D498" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E498" s="5">
+        <v>2</v>
+      </c>
+      <c r="F498" s="7">
+        <v>1469015</v>
+      </c>
+      <c r="G498" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H498" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I498" s="8">
+        <v>1605401</v>
+      </c>
+      <c r="J498" s="5">
+        <v>1</v>
+      </c>
+      <c r="K498" s="5">
+        <v>3.04</v>
+      </c>
+      <c r="L498" s="5">
+        <v>125.57</v>
+      </c>
+      <c r="M498" s="6"/>
+      <c r="N498" s="6"/>
+      <c r="O498" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P498" s="6"/>
+      <c r="Q498" s="6"/>
+      <c r="R498" s="6"/>
+    </row>
+    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A499" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B499" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D499" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E499" s="5">
+        <v>2</v>
+      </c>
+      <c r="F499" s="7">
+        <v>1469016</v>
+      </c>
+      <c r="G499" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H499" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I499" s="8">
+        <v>1605401</v>
+      </c>
+      <c r="J499" s="5">
+        <v>1</v>
+      </c>
+      <c r="K499" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="L499" s="5">
+        <v>208.31</v>
+      </c>
+      <c r="M499" s="6"/>
+      <c r="N499" s="6"/>
+      <c r="O499" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P499" s="6"/>
+      <c r="Q499" s="6"/>
+      <c r="R499" s="6"/>
+    </row>
+    <row r="500" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A500" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D500" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E500" s="5">
+        <v>2</v>
+      </c>
+      <c r="F500" s="7">
+        <v>1469064</v>
+      </c>
+      <c r="G500" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H500" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I500" s="8">
+        <v>1605558</v>
+      </c>
+      <c r="J500" s="5">
+        <v>3</v>
+      </c>
+      <c r="K500" s="5">
+        <v>5.61</v>
+      </c>
+      <c r="L500" s="5">
+        <v>501.79</v>
+      </c>
+      <c r="M500" s="6"/>
+      <c r="N500" s="6"/>
+      <c r="O500" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P500" s="6"/>
+      <c r="Q500" s="6"/>
+      <c r="R500" s="6"/>
+    </row>
+    <row r="501" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A501" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D501" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E501" s="5">
+        <v>2</v>
+      </c>
+      <c r="F501" s="7">
+        <v>1469065</v>
+      </c>
+      <c r="G501" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H501" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I501" s="8">
+        <v>1605558</v>
+      </c>
+      <c r="J501" s="5">
+        <v>1</v>
+      </c>
+      <c r="K501" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="L501" s="5">
+        <v>208.31</v>
+      </c>
+      <c r="M501" s="6"/>
+      <c r="N501" s="6"/>
+      <c r="O501" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P501" s="6"/>
+      <c r="Q501" s="6"/>
+      <c r="R501" s="6"/>
+    </row>
+    <row r="502" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A502" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D502" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E502" s="5">
+        <v>2</v>
+      </c>
+      <c r="F502" s="7">
+        <v>1469160</v>
+      </c>
+      <c r="G502" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H502" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I502" s="8">
+        <v>1605461</v>
+      </c>
+      <c r="J502" s="5">
+        <v>3</v>
+      </c>
+      <c r="K502" s="5">
+        <v>5.61</v>
+      </c>
+      <c r="L502" s="5">
+        <v>501.79</v>
+      </c>
+      <c r="M502" s="6"/>
+      <c r="N502" s="6"/>
+      <c r="O502" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P502" s="6"/>
+      <c r="Q502" s="6"/>
+      <c r="R502" s="6"/>
+    </row>
+    <row r="503" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A503" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D503" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E503" s="5">
+        <v>2</v>
+      </c>
+      <c r="F503" s="7">
+        <v>1469161</v>
+      </c>
+      <c r="G503" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H503" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I503" s="8">
+        <v>1605461</v>
+      </c>
+      <c r="J503" s="5">
+        <v>1</v>
+      </c>
+      <c r="K503" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="L503" s="5">
+        <v>208.31</v>
+      </c>
+      <c r="M503" s="6"/>
+      <c r="N503" s="6"/>
+      <c r="O503" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P503" s="6"/>
+      <c r="Q503" s="6"/>
+      <c r="R503" s="6"/>
+    </row>
+    <row r="504" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A504" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D504" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E504" s="5">
+        <v>2</v>
+      </c>
+      <c r="F504" s="7">
+        <v>1469208</v>
+      </c>
+      <c r="G504" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H504" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I504" s="8">
+        <v>1605546</v>
+      </c>
+      <c r="J504" s="5">
+        <v>3</v>
+      </c>
+      <c r="K504" s="5">
+        <v>7.25</v>
+      </c>
+      <c r="L504" s="5">
+        <v>525.79</v>
+      </c>
+      <c r="M504" s="6"/>
+      <c r="N504" s="6"/>
+      <c r="O504" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P504" s="6"/>
+      <c r="Q504" s="6"/>
+      <c r="R504" s="6"/>
+    </row>
+    <row r="505" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A505" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B505" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D505" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E505" s="5">
+        <v>2</v>
+      </c>
+      <c r="F505" s="7">
+        <v>1469209</v>
+      </c>
+      <c r="G505" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H505" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I505" s="8">
+        <v>1605546</v>
+      </c>
+      <c r="J505" s="5">
+        <v>1</v>
+      </c>
+      <c r="K505" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="L505" s="5">
+        <v>208.31</v>
+      </c>
+      <c r="M505" s="6"/>
+      <c r="N505" s="6"/>
+      <c r="O505" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P505" s="6"/>
+      <c r="Q505" s="6"/>
+      <c r="R505" s="6"/>
+    </row>
+    <row r="506" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A506" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D506" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E506" s="5">
+        <v>2</v>
+      </c>
+      <c r="F506" s="7">
+        <v>1469210</v>
+      </c>
+      <c r="G506" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H506" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I506" s="8">
+        <v>1605546</v>
+      </c>
+      <c r="J506" s="5">
+        <v>1</v>
+      </c>
+      <c r="K506" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="L506" s="5">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="M506" s="6"/>
+      <c r="N506" s="6"/>
+      <c r="O506" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P506" s="6"/>
+      <c r="Q506" s="6"/>
+      <c r="R506" s="6"/>
+    </row>
+    <row r="507" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A507" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B507" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D507" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E507" s="5">
+        <v>2</v>
+      </c>
+      <c r="F507" s="7">
+        <v>1469346</v>
+      </c>
+      <c r="G507" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H507" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I507" s="8">
+        <v>1605333</v>
+      </c>
+      <c r="J507" s="5">
+        <v>3</v>
+      </c>
+      <c r="K507" s="5">
+        <v>5.61</v>
+      </c>
+      <c r="L507" s="5">
+        <v>501.79</v>
+      </c>
+      <c r="M507" s="6"/>
+      <c r="N507" s="6"/>
+      <c r="O507" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P507" s="6"/>
+      <c r="Q507" s="6"/>
+      <c r="R507" s="6"/>
+    </row>
+    <row r="508" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A508" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D508" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E508" s="5">
+        <v>2</v>
+      </c>
+      <c r="F508" s="7">
+        <v>1469347</v>
+      </c>
+      <c r="G508" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H508" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I508" s="8">
+        <v>1605333</v>
+      </c>
+      <c r="J508" s="5">
+        <v>1</v>
+      </c>
+      <c r="K508" s="5">
+        <v>3.51</v>
+      </c>
+      <c r="L508" s="5">
+        <v>200.27</v>
+      </c>
+      <c r="M508" s="6"/>
+      <c r="N508" s="6"/>
+      <c r="O508" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P508" s="6"/>
+      <c r="Q508" s="6"/>
+      <c r="R508" s="6"/>
+    </row>
+    <row r="509" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A509" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B509" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D509" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E509" s="5">
+        <v>2</v>
+      </c>
+      <c r="F509" s="7">
+        <v>1469348</v>
+      </c>
+      <c r="G509" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H509" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I509" s="8">
+        <v>1605333</v>
+      </c>
+      <c r="J509" s="5">
+        <v>3</v>
+      </c>
+      <c r="K509" s="5">
+        <v>5.78</v>
+      </c>
+      <c r="L509" s="5">
+        <v>384.57</v>
+      </c>
+      <c r="M509" s="6"/>
+      <c r="N509" s="6"/>
+      <c r="O509" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P509" s="6"/>
+      <c r="Q509" s="6"/>
+      <c r="R509" s="6"/>
+    </row>
+    <row r="510" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A510" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D510" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E510" s="5">
+        <v>2</v>
+      </c>
+      <c r="F510" s="7">
+        <v>1469367</v>
+      </c>
+      <c r="G510" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H510" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I510" s="8">
+        <v>1605352</v>
+      </c>
+      <c r="J510" s="5">
+        <v>4</v>
+      </c>
+      <c r="K510" s="5">
+        <v>7.49</v>
+      </c>
+      <c r="L510" s="5">
+        <v>566.35</v>
+      </c>
+      <c r="M510" s="6"/>
+      <c r="N510" s="6"/>
+      <c r="O510" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P510" s="6"/>
+      <c r="Q510" s="6"/>
+      <c r="R510" s="6"/>
+    </row>
+    <row r="511" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A511" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D511" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E511" s="5">
+        <v>2</v>
+      </c>
+      <c r="F511" s="7">
+        <v>1469368</v>
+      </c>
+      <c r="G511" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H511" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I511" s="8">
+        <v>1605352</v>
+      </c>
+      <c r="J511" s="5">
+        <v>1</v>
+      </c>
+      <c r="K511" s="5">
+        <v>3.51</v>
+      </c>
+      <c r="L511" s="5">
+        <v>200.27</v>
+      </c>
+      <c r="M511" s="6"/>
+      <c r="N511" s="6"/>
+      <c r="O511" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P511" s="6"/>
+      <c r="Q511" s="6"/>
+      <c r="R511" s="6"/>
+    </row>
+    <row r="512" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A512" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D512" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E512" s="5">
+        <v>2</v>
+      </c>
+      <c r="F512" s="7">
+        <v>1469369</v>
+      </c>
+      <c r="G512" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H512" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I512" s="8">
+        <v>1605352</v>
+      </c>
+      <c r="J512" s="5">
+        <v>3</v>
+      </c>
+      <c r="K512" s="5">
+        <v>5.78</v>
+      </c>
+      <c r="L512" s="5">
+        <v>384.57</v>
+      </c>
+      <c r="M512" s="6"/>
+      <c r="N512" s="6"/>
+      <c r="O512" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P512" s="6"/>
+      <c r="Q512" s="6"/>
+      <c r="R512" s="6"/>
+    </row>
+    <row r="513" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A513" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B513" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C513" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D513" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E513" s="5">
+        <v>2</v>
+      </c>
+      <c r="F513" s="7">
+        <v>1469500</v>
+      </c>
+      <c r="G513" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H513" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I513" s="8">
+        <v>1605370</v>
+      </c>
+      <c r="J513" s="5">
+        <v>3</v>
+      </c>
+      <c r="K513" s="5">
+        <v>5.61</v>
+      </c>
+      <c r="L513" s="5">
+        <v>501.79</v>
+      </c>
+      <c r="M513" s="6"/>
+      <c r="N513" s="6"/>
+      <c r="O513" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P513" s="6"/>
+      <c r="Q513" s="6"/>
+      <c r="R513" s="6"/>
+    </row>
+    <row r="514" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A514" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C514" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D514" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E514" s="5">
+        <v>2</v>
+      </c>
+      <c r="F514" s="7">
+        <v>1469501</v>
+      </c>
+      <c r="G514" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H514" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I514" s="8">
+        <v>1605370</v>
+      </c>
+      <c r="J514" s="5">
+        <v>1</v>
+      </c>
+      <c r="K514" s="5">
+        <v>3.51</v>
+      </c>
+      <c r="L514" s="5">
+        <v>200.27</v>
+      </c>
+      <c r="M514" s="6"/>
+      <c r="N514" s="6"/>
+      <c r="O514" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P514" s="6"/>
+      <c r="Q514" s="6"/>
+      <c r="R514" s="6"/>
+    </row>
+    <row r="515" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A515" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B515" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C515" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D515" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E515" s="5">
+        <v>2</v>
+      </c>
+      <c r="F515" s="7">
+        <v>1469502</v>
+      </c>
+      <c r="G515" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H515" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I515" s="8">
+        <v>1605370</v>
+      </c>
+      <c r="J515" s="5">
+        <v>1</v>
+      </c>
+      <c r="K515" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="L515" s="5">
+        <v>208.31</v>
+      </c>
+      <c r="M515" s="6"/>
+      <c r="N515" s="6"/>
+      <c r="O515" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P515" s="6"/>
+      <c r="Q515" s="6"/>
+      <c r="R515" s="6"/>
+    </row>
+    <row r="516" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A516" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B516" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C516" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D516" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E516" s="5">
+        <v>2</v>
+      </c>
+      <c r="F516" s="7">
+        <v>1469524</v>
+      </c>
+      <c r="G516" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H516" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I516" s="8">
+        <v>1605378</v>
+      </c>
+      <c r="J516" s="5">
+        <v>4</v>
+      </c>
+      <c r="K516" s="5">
+        <v>7.48</v>
+      </c>
+      <c r="L516" s="5">
+        <v>720.4</v>
+      </c>
+      <c r="M516" s="6"/>
+      <c r="N516" s="6"/>
+      <c r="O516" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P516" s="6"/>
+      <c r="Q516" s="6"/>
+      <c r="R516" s="6"/>
+    </row>
+    <row r="517" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A517" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B517" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C517" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D517" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E517" s="5">
+        <v>2</v>
+      </c>
+      <c r="F517" s="7">
+        <v>1469525</v>
+      </c>
+      <c r="G517" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H517" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I517" s="8">
+        <v>1605378</v>
+      </c>
+      <c r="J517" s="5">
+        <v>1</v>
+      </c>
+      <c r="K517" s="5">
+        <v>3.51</v>
+      </c>
+      <c r="L517" s="5">
+        <v>200.27</v>
+      </c>
+      <c r="M517" s="6"/>
+      <c r="N517" s="6"/>
+      <c r="O517" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P517" s="6"/>
+      <c r="Q517" s="6"/>
+      <c r="R517" s="6"/>
+    </row>
+    <row r="518" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A518" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B518" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D518" s="5">
+        <v>197570</v>
+      </c>
+      <c r="E518" s="5">
+        <v>2</v>
+      </c>
+      <c r="F518" s="7">
+        <v>1469526</v>
+      </c>
+      <c r="G518" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H518" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I518" s="8">
+        <v>1605378</v>
+      </c>
+      <c r="J518" s="5">
+        <v>1</v>
+      </c>
+      <c r="K518" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="L518" s="5">
+        <v>208.31</v>
+      </c>
+      <c r="M518" s="6"/>
+      <c r="N518" s="6"/>
+      <c r="O518" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P518" s="6"/>
+      <c r="Q518" s="6"/>
+      <c r="R518" s="6"/>
+    </row>
+    <row r="519" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A519" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B519" s="5">
+        <v>68</v>
+      </c>
+      <c r="C519" s="5">
+        <v>957.55</v>
+      </c>
+      <c r="D519" s="9">
+        <v>54300.42</v>
+      </c>
+      <c r="E519" s="5"/>
+      <c r="F519" s="5"/>
+      <c r="G519" s="5"/>
+      <c r="H519" s="5"/>
+      <c r="I519" s="5"/>
+      <c r="J519" s="5"/>
+      <c r="K519" s="5"/>
+      <c r="L519" s="5"/>
+      <c r="M519" s="6"/>
+      <c r="N519" s="6"/>
+      <c r="O519" s="6"/>
+      <c r="P519" s="6"/>
+      <c r="Q519" s="6"/>
+      <c r="R519" s="6"/>
+    </row>
+    <row r="520" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A520" s="12">
+        <v>45447</v>
+      </c>
+      <c r="B520" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C520" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D520" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E520" s="7"/>
+      <c r="F520" s="7"/>
+      <c r="G520" s="7"/>
+      <c r="H520" s="7"/>
+      <c r="I520" s="7"/>
+      <c r="J520" s="7"/>
+      <c r="K520" s="7"/>
+      <c r="L520" s="7"/>
+      <c r="M520" s="13"/>
+      <c r="N520" s="13"/>
+      <c r="O520" s="13"/>
+      <c r="P520" s="13"/>
+      <c r="Q520" s="13"/>
+      <c r="R520" s="13"/>
+    </row>
+    <row r="521" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A521" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B521" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C521" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D521" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E521" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F521" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G521" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H521" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I521" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J521" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K521" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L521" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M521" s="6"/>
+      <c r="N521" s="6"/>
+      <c r="O521" s="6"/>
+      <c r="P521" s="6"/>
+      <c r="Q521" s="6"/>
+      <c r="R521" s="6"/>
+    </row>
+    <row r="522" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A522" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D522" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E522" s="5">
+        <v>2</v>
+      </c>
+      <c r="F522" s="7">
+        <v>1460453</v>
+      </c>
+      <c r="G522" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H522" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I522" s="8">
+        <v>1603750</v>
+      </c>
+      <c r="J522" s="5">
+        <v>11</v>
+      </c>
+      <c r="K522" s="5">
+        <v>15.47</v>
+      </c>
+      <c r="L522" s="5">
+        <v>699.08</v>
+      </c>
+      <c r="M522" s="6"/>
+      <c r="N522" s="6"/>
+      <c r="O522" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P522" s="6"/>
+      <c r="Q522" s="6"/>
+      <c r="R522" s="6"/>
+    </row>
+    <row r="523" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A523" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C523" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D523" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E523" s="5">
+        <v>2</v>
+      </c>
+      <c r="F523" s="7">
+        <v>1460454</v>
+      </c>
+      <c r="G523" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H523" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I523" s="8">
+        <v>1603750</v>
+      </c>
+      <c r="J523" s="5">
+        <v>2</v>
+      </c>
+      <c r="K523" s="5">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="L523" s="5">
+        <v>625.87</v>
+      </c>
+      <c r="M523" s="6"/>
+      <c r="N523" s="6"/>
+      <c r="O523" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P523" s="6"/>
+      <c r="Q523" s="6"/>
+      <c r="R523" s="6"/>
+    </row>
+    <row r="524" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A524" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C524" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D524" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E524" s="5">
+        <v>2</v>
+      </c>
+      <c r="F524" s="7">
+        <v>1460455</v>
+      </c>
+      <c r="G524" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H524" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I524" s="8">
+        <v>1603750</v>
+      </c>
+      <c r="J524" s="5">
+        <v>2</v>
+      </c>
+      <c r="K524" s="5">
+        <v>5.94</v>
+      </c>
+      <c r="L524" s="5">
+        <v>314.55</v>
+      </c>
+      <c r="M524" s="6"/>
+      <c r="N524" s="6"/>
+      <c r="O524" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P524" s="6"/>
+      <c r="Q524" s="6"/>
+      <c r="R524" s="6"/>
+    </row>
+    <row r="525" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A525" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B525" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C525" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D525" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E525" s="5">
+        <v>2</v>
+      </c>
+      <c r="F525" s="7">
+        <v>1460571</v>
+      </c>
+      <c r="G525" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H525" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I525" s="8">
+        <v>1603774</v>
+      </c>
+      <c r="J525" s="5">
+        <v>11</v>
+      </c>
+      <c r="K525" s="5">
+        <v>15.94</v>
+      </c>
+      <c r="L525" s="5">
+        <v>699.08</v>
+      </c>
+      <c r="M525" s="6"/>
+      <c r="N525" s="6"/>
+      <c r="O525" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P525" s="6"/>
+      <c r="Q525" s="6"/>
+      <c r="R525" s="6"/>
+    </row>
+    <row r="526" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A526" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C526" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D526" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E526" s="5">
+        <v>2</v>
+      </c>
+      <c r="F526" s="7">
+        <v>1460572</v>
+      </c>
+      <c r="G526" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H526" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I526" s="8">
+        <v>1603774</v>
+      </c>
+      <c r="J526" s="5">
+        <v>3</v>
+      </c>
+      <c r="K526" s="5">
+        <v>13.44</v>
+      </c>
+      <c r="L526" s="5">
+        <v>938.8</v>
+      </c>
+      <c r="M526" s="6"/>
+      <c r="N526" s="6"/>
+      <c r="O526" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P526" s="6"/>
+      <c r="Q526" s="6"/>
+      <c r="R526" s="6"/>
+    </row>
+    <row r="527" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A527" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B527" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C527" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D527" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E527" s="5">
+        <v>2</v>
+      </c>
+      <c r="F527" s="7">
+        <v>1460573</v>
+      </c>
+      <c r="G527" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H527" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I527" s="8">
+        <v>1603774</v>
+      </c>
+      <c r="J527" s="5">
+        <v>2</v>
+      </c>
+      <c r="K527" s="5">
+        <v>4.82</v>
+      </c>
+      <c r="L527" s="5">
+        <v>246.86</v>
+      </c>
+      <c r="M527" s="6"/>
+      <c r="N527" s="6"/>
+      <c r="O527" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P527" s="6"/>
+      <c r="Q527" s="6"/>
+      <c r="R527" s="6"/>
+    </row>
+    <row r="528" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A528" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B528" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C528" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D528" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E528" s="5">
+        <v>2</v>
+      </c>
+      <c r="F528" s="7">
+        <v>1460617</v>
+      </c>
+      <c r="G528" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H528" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I528" s="8">
+        <v>1603975</v>
+      </c>
+      <c r="J528" s="5">
+        <v>52</v>
+      </c>
+      <c r="K528" s="5">
+        <v>105.2</v>
+      </c>
+      <c r="L528" s="9">
+        <v>5563.85</v>
+      </c>
+      <c r="M528" s="6"/>
+      <c r="N528" s="6"/>
+      <c r="O528" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P528" s="6"/>
+      <c r="Q528" s="6"/>
+      <c r="R528" s="6"/>
+    </row>
+    <row r="529" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A529" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B529" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C529" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D529" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E529" s="5">
+        <v>2</v>
+      </c>
+      <c r="F529" s="7">
+        <v>1460622</v>
+      </c>
+      <c r="G529" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H529" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I529" s="8">
+        <v>1603808</v>
+      </c>
+      <c r="J529" s="5">
+        <v>83</v>
+      </c>
+      <c r="K529" s="5">
+        <v>144.72999999999999</v>
+      </c>
+      <c r="L529" s="9">
+        <v>6952.01</v>
+      </c>
+      <c r="M529" s="6"/>
+      <c r="N529" s="6"/>
+      <c r="O529" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P529" s="6"/>
+      <c r="Q529" s="6"/>
+      <c r="R529" s="6"/>
+    </row>
+    <row r="530" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A530" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B530" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C530" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D530" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E530" s="5">
+        <v>2</v>
+      </c>
+      <c r="F530" s="11">
+        <v>1460640</v>
+      </c>
+      <c r="G530" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H530" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I530" s="8">
+        <v>1603795</v>
+      </c>
+      <c r="J530" s="5">
+        <v>28</v>
+      </c>
+      <c r="K530" s="5">
+        <v>49.61</v>
+      </c>
+      <c r="L530" s="9">
+        <v>2392.3200000000002</v>
+      </c>
+      <c r="M530" s="6"/>
+      <c r="N530" s="6"/>
+      <c r="O530" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P530" s="6"/>
+      <c r="Q530" s="6"/>
+      <c r="R530" s="6"/>
+    </row>
+    <row r="531" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A531" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B531" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C531" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D531" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E531" s="5">
+        <v>2</v>
+      </c>
+      <c r="F531" s="7">
+        <v>1460652</v>
+      </c>
+      <c r="G531" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="H531" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I531" s="8">
+        <v>1603798</v>
+      </c>
+      <c r="J531" s="5">
+        <v>9</v>
+      </c>
+      <c r="K531" s="5">
+        <v>12.83</v>
+      </c>
+      <c r="L531" s="5">
+        <v>571.98</v>
+      </c>
+      <c r="M531" s="6"/>
+      <c r="N531" s="6"/>
+      <c r="O531" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P531" s="6"/>
+      <c r="Q531" s="6"/>
+      <c r="R531" s="6"/>
+    </row>
+    <row r="532" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A532" s="4">
+        <v>45447</v>
+      </c>
+      <c r="B532" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C532" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D532" s="5">
+        <v>197402</v>
+      </c>
+      <c r="E532" s="5">
+        <v>2</v>
+      </c>
+      <c r="F532" s="7">
+        <v>1460653</v>
+      </c>
+      <c r="G532" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="H532" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I532" s="8">
+        <v>1603798</v>
+      </c>
+      <c r="J532" s="5">
+        <v>3</v>
+      </c>
+      <c r="K532" s="5">
+        <v>7.79</v>
+      </c>
+      <c r="L532" s="5">
+        <v>404.13</v>
+      </c>
+      <c r="M532" s="6"/>
+      <c r="N532" s="6"/>
+      <c r="O532" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P532" s="6"/>
+      <c r="Q532" s="6"/>
+      <c r="R532" s="6"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="O81:O204 O206:O448 O2:O29 O31:O79">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+  <conditionalFormatting sqref="O2:O29 O31:O79 O81:O204">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>"Não carregou no veículo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>"Reentrega"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
       <formula>"Devolução parcial"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
       <formula>"Devolução total"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
+      <formula>"Entregue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O206:O507">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+      <formula>"Não carregou no veículo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+      <formula>"Reentrega"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+      <formula>"Devolução parcial"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+      <formula>"Devolução total"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>"Entregue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P53">
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="39" operator="equal">
       <formula>"Ok-Adm"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P53">
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="40" operator="equal">
       <formula>"Imagem com erro"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="41" operator="equal">
       <formula>"Falta baixar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="42" operator="equal">
+      <formula>"Ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P449:P507">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"Ok-Adm"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+      <formula>"Imagem com erro"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+      <formula>"Falta baixar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+      <formula>"Ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O508:O532">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"Não carregou no veículo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"Reentrega"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"Devolução parcial"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Devolução total"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Entregue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P508:P532">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Ok-Adm"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P508:P532">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"Imagem com erro"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>"Falta baixar"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"Ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P53" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P53 P449:P532" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Ok,Ok-Adm,Falta baixar,Imagem com erro"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O81:O204 O206:O448 O2:O29 O31:O79" xr:uid="{306F1030-5C8C-436F-B6E1-5F05B2515C3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O81:O204 O206:O532 O2:O29 O31:O79" xr:uid="{306F1030-5C8C-436F-B6E1-5F05B2515C3D}">
       <formula1>"Entregue,Devolução total,Devolução parcial,Reentrega,Não carregou no veículo"</formula1>
     </dataValidation>
   </dataValidations>

--- a/planilhaderotascc19.xlsx
+++ b/planilhaderotascc19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Robo-Baixa-Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_A83E597D702693C2E552E180EFAE55EF9C0ADDBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C5B7A75-64B7-46AD-AD7C-9C7F20C73913}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_A83E597D702693C2E552E180EFAE55EF9C0ADDBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B51CC87-04CB-43CE-BDC8-50BD778569F9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4624" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="484">
   <si>
     <t>Data</t>
   </si>
@@ -1383,6 +1383,111 @@
   </si>
   <si>
     <t>SONHO EM CHOCOLATES E CAFE COMERCIO</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/210.042</t>
+  </si>
+  <si>
+    <t>14.404.158/0001-31</t>
+  </si>
+  <si>
+    <t>SHOWCOLEN COMERCIO CHOCOLATES LTDA</t>
+  </si>
+  <si>
+    <t>SANTA BARBARA DOESTE</t>
+  </si>
+  <si>
+    <t>43.944.233/0001-55</t>
+  </si>
+  <si>
+    <t>CANTINHO DOCE COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>48.044.329/0001-80</t>
+  </si>
+  <si>
+    <t>M CAMPANA &amp; R SILLMANN CHOCOLATES L</t>
+  </si>
+  <si>
+    <t>17.611.014/0420-68</t>
+  </si>
+  <si>
+    <t>52.656.812/0001-93</t>
+  </si>
+  <si>
+    <t>LIPE CHOCOLATES LTDA</t>
+  </si>
+  <si>
+    <t>52.384.061/0001-01</t>
+  </si>
+  <si>
+    <t>FALG COMERCIO DE CHOCOLATES LTDA</t>
+  </si>
+  <si>
+    <t>17.611.014/0465-60</t>
+  </si>
+  <si>
+    <t>ASSB COMERCIO VAREJISTA DE DOCES</t>
+  </si>
+  <si>
+    <t>10.965.717/0001-21</t>
+  </si>
+  <si>
+    <t>CSA CHOCOLATES LTDA EPP</t>
+  </si>
+  <si>
+    <t>47.441.732/0001-80</t>
+  </si>
+  <si>
+    <t>DOCE CACAU COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>48.036.709/0001-73</t>
+  </si>
+  <si>
+    <t>LOLA CHOCOLATES LTDA</t>
+  </si>
+  <si>
+    <t>51.060.049/0001-70</t>
+  </si>
+  <si>
+    <t>RAUTUR DOCES E PRESENTES LTDA</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/210.043</t>
+  </si>
+  <si>
+    <t>46.905.916/0001-91</t>
+  </si>
+  <si>
+    <t>RIO DAS PEDRAS CHOCOLATERIA LTDA</t>
+  </si>
+  <si>
+    <t>RIO DAS PEDRAS</t>
+  </si>
+  <si>
+    <t>11.984.773/0001-76</t>
+  </si>
+  <si>
+    <t>TRES MARIA S COM DE PRODUTO ALIM LT</t>
+  </si>
+  <si>
+    <t>SAO PEDRO</t>
+  </si>
+  <si>
+    <t>28.561.965/0001-72</t>
+  </si>
+  <si>
+    <t>FMS COMERCIO DE CHOCOLATES LTDA ME</t>
+  </si>
+  <si>
+    <t>PIRACICABA</t>
+  </si>
+  <si>
+    <t>32.722.919/0001-85</t>
+  </si>
+  <si>
+    <t>LUCIO &amp; SCIGLIANO COM DE CHOCOLATES</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1542,10 +1647,17 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -2558,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T892"/>
+  <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A836" workbookViewId="0">
-      <selection activeCell="H847" sqref="H847"/>
+    <sheetView tabSelected="1" topLeftCell="A929" workbookViewId="0">
+      <selection activeCell="A942" sqref="A942"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42074,6 +42186,4672 @@
       <c r="P892" s="19"/>
       <c r="Q892" s="19"/>
       <c r="R892" s="19"/>
+    </row>
+    <row r="893" spans="1:18">
+      <c r="A893" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B893" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C893" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D893" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E893" s="19">
+        <v>2</v>
+      </c>
+      <c r="F893" s="21">
+        <v>1469483</v>
+      </c>
+      <c r="G893" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H893" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I893" s="22">
+        <v>1605364</v>
+      </c>
+      <c r="J893" s="19">
+        <v>3</v>
+      </c>
+      <c r="K893" s="19">
+        <v>5.61</v>
+      </c>
+      <c r="L893" s="19">
+        <v>501.79</v>
+      </c>
+      <c r="M893" s="19"/>
+      <c r="N893" s="19"/>
+      <c r="O893" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P893" s="19"/>
+      <c r="Q893" s="19"/>
+      <c r="R893" s="19"/>
+    </row>
+    <row r="894" spans="1:18">
+      <c r="A894" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B894" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C894" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D894" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E894" s="19">
+        <v>2</v>
+      </c>
+      <c r="F894" s="21">
+        <v>1469484</v>
+      </c>
+      <c r="G894" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H894" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I894" s="22">
+        <v>1605364</v>
+      </c>
+      <c r="J894" s="19">
+        <v>1</v>
+      </c>
+      <c r="K894" s="19">
+        <v>3.51</v>
+      </c>
+      <c r="L894" s="19">
+        <v>200.27</v>
+      </c>
+      <c r="M894" s="19"/>
+      <c r="N894" s="19"/>
+      <c r="O894" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P894" s="19"/>
+      <c r="Q894" s="19"/>
+      <c r="R894" s="19"/>
+    </row>
+    <row r="895" spans="1:18">
+      <c r="A895" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B895" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C895" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D895" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E895" s="19">
+        <v>2</v>
+      </c>
+      <c r="F895" s="21">
+        <v>1469485</v>
+      </c>
+      <c r="G895" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H895" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I895" s="22">
+        <v>1605364</v>
+      </c>
+      <c r="J895" s="19">
+        <v>2</v>
+      </c>
+      <c r="K895" s="19">
+        <v>4.09</v>
+      </c>
+      <c r="L895" s="19">
+        <v>297.89</v>
+      </c>
+      <c r="M895" s="19"/>
+      <c r="N895" s="19"/>
+      <c r="O895" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P895" s="19"/>
+      <c r="Q895" s="19"/>
+      <c r="R895" s="19"/>
+    </row>
+    <row r="896" spans="1:18">
+      <c r="A896" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B896" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C896" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D896" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E896" s="19">
+        <v>2</v>
+      </c>
+      <c r="F896" s="21">
+        <v>1469486</v>
+      </c>
+      <c r="G896" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H896" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I896" s="22">
+        <v>1605367</v>
+      </c>
+      <c r="J896" s="19">
+        <v>3</v>
+      </c>
+      <c r="K896" s="19">
+        <v>5.61</v>
+      </c>
+      <c r="L896" s="19">
+        <v>501.79</v>
+      </c>
+      <c r="M896" s="19"/>
+      <c r="N896" s="19"/>
+      <c r="O896" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P896" s="19"/>
+      <c r="Q896" s="19"/>
+      <c r="R896" s="19"/>
+    </row>
+    <row r="897" spans="1:18">
+      <c r="A897" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B897" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C897" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D897" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E897" s="19">
+        <v>2</v>
+      </c>
+      <c r="F897" s="21">
+        <v>1469487</v>
+      </c>
+      <c r="G897" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H897" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I897" s="22">
+        <v>1605367</v>
+      </c>
+      <c r="J897" s="19">
+        <v>1</v>
+      </c>
+      <c r="K897" s="19">
+        <v>3.51</v>
+      </c>
+      <c r="L897" s="19">
+        <v>200.27</v>
+      </c>
+      <c r="M897" s="19"/>
+      <c r="N897" s="19"/>
+      <c r="O897" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P897" s="19"/>
+      <c r="Q897" s="19"/>
+      <c r="R897" s="19"/>
+    </row>
+    <row r="898" spans="1:18">
+      <c r="A898" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B898" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C898" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D898" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E898" s="19">
+        <v>2</v>
+      </c>
+      <c r="F898" s="21">
+        <v>1469488</v>
+      </c>
+      <c r="G898" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H898" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I898" s="22">
+        <v>1605367</v>
+      </c>
+      <c r="J898" s="19">
+        <v>2</v>
+      </c>
+      <c r="K898" s="19">
+        <v>4.09</v>
+      </c>
+      <c r="L898" s="19">
+        <v>297.89</v>
+      </c>
+      <c r="M898" s="19"/>
+      <c r="N898" s="19"/>
+      <c r="O898" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P898" s="19"/>
+      <c r="Q898" s="19"/>
+      <c r="R898" s="19"/>
+    </row>
+    <row r="899" spans="1:18">
+      <c r="A899" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B899" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C899" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D899" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E899" s="19">
+        <v>2</v>
+      </c>
+      <c r="F899" s="21">
+        <v>1469497</v>
+      </c>
+      <c r="G899" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="H899" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I899" s="22">
+        <v>1605432</v>
+      </c>
+      <c r="J899" s="19">
+        <v>6</v>
+      </c>
+      <c r="K899" s="19">
+        <v>11.21</v>
+      </c>
+      <c r="L899" s="24">
+        <v>1157.6300000000001</v>
+      </c>
+      <c r="M899" s="19"/>
+      <c r="N899" s="19"/>
+      <c r="O899" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P899" s="19"/>
+      <c r="Q899" s="19"/>
+      <c r="R899" s="19"/>
+    </row>
+    <row r="900" spans="1:18">
+      <c r="A900" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B900" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C900" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D900" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E900" s="19">
+        <v>2</v>
+      </c>
+      <c r="F900" s="21">
+        <v>1469498</v>
+      </c>
+      <c r="G900" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="H900" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I900" s="22">
+        <v>1605432</v>
+      </c>
+      <c r="J900" s="19">
+        <v>1</v>
+      </c>
+      <c r="K900" s="19">
+        <v>3.51</v>
+      </c>
+      <c r="L900" s="19">
+        <v>200.27</v>
+      </c>
+      <c r="M900" s="19"/>
+      <c r="N900" s="19"/>
+      <c r="O900" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P900" s="19"/>
+      <c r="Q900" s="19"/>
+      <c r="R900" s="19"/>
+    </row>
+    <row r="901" spans="1:18">
+      <c r="A901" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B901" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C901" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D901" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E901" s="19">
+        <v>2</v>
+      </c>
+      <c r="F901" s="21">
+        <v>1469499</v>
+      </c>
+      <c r="G901" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="H901" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I901" s="22">
+        <v>1605432</v>
+      </c>
+      <c r="J901" s="19">
+        <v>1</v>
+      </c>
+      <c r="K901" s="19">
+        <v>2.25</v>
+      </c>
+      <c r="L901" s="19">
+        <v>208.31</v>
+      </c>
+      <c r="M901" s="19"/>
+      <c r="N901" s="19"/>
+      <c r="O901" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P901" s="19"/>
+      <c r="Q901" s="19"/>
+      <c r="R901" s="19"/>
+    </row>
+    <row r="902" spans="1:18">
+      <c r="A902" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B902" s="19">
+        <v>83</v>
+      </c>
+      <c r="C902" s="19">
+        <v>717.33</v>
+      </c>
+      <c r="D902" s="24">
+        <v>40670.89</v>
+      </c>
+      <c r="E902" s="19"/>
+      <c r="F902" s="19"/>
+      <c r="G902" s="19"/>
+      <c r="H902" s="19"/>
+      <c r="I902" s="19"/>
+      <c r="J902" s="19"/>
+      <c r="K902" s="19"/>
+      <c r="L902" s="19"/>
+      <c r="M902" s="19"/>
+      <c r="N902" s="19"/>
+      <c r="O902" s="19"/>
+      <c r="P902" s="19"/>
+      <c r="Q902" s="19"/>
+      <c r="R902" s="19"/>
+    </row>
+    <row r="903" spans="1:18">
+      <c r="A903" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B903" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C903" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D903" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="E903" s="19"/>
+      <c r="F903" s="19"/>
+      <c r="G903" s="19"/>
+      <c r="H903" s="19"/>
+      <c r="I903" s="19"/>
+      <c r="J903" s="19"/>
+      <c r="K903" s="19"/>
+      <c r="L903" s="19"/>
+      <c r="M903" s="19"/>
+      <c r="N903" s="19"/>
+      <c r="O903" s="19"/>
+      <c r="P903" s="19"/>
+      <c r="Q903" s="19"/>
+      <c r="R903" s="19"/>
+    </row>
+    <row r="904" spans="1:18">
+      <c r="A904" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B904" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C904" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D904" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E904" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F904" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G904" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H904" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I904" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J904" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K904" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L904" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M904" s="19"/>
+      <c r="N904" s="19"/>
+      <c r="O904" s="19"/>
+      <c r="P904" s="19"/>
+      <c r="Q904" s="19"/>
+      <c r="R904" s="19"/>
+    </row>
+    <row r="905" spans="1:18">
+      <c r="A905" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B905" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C905" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="D905" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E905" s="19">
+        <v>2</v>
+      </c>
+      <c r="F905" s="21">
+        <v>1460444</v>
+      </c>
+      <c r="G905" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="H905" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="I905" s="22">
+        <v>1603777</v>
+      </c>
+      <c r="J905" s="19">
+        <v>11</v>
+      </c>
+      <c r="K905" s="19">
+        <v>15.94</v>
+      </c>
+      <c r="L905" s="19">
+        <v>699.08</v>
+      </c>
+      <c r="M905" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N905" s="19"/>
+      <c r="O905" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P905" s="19"/>
+      <c r="Q905" s="19"/>
+      <c r="R905" s="19"/>
+    </row>
+    <row r="906" spans="1:18">
+      <c r="A906" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B906" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C906" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="D906" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E906" s="19">
+        <v>2</v>
+      </c>
+      <c r="F906" s="21">
+        <v>1460445</v>
+      </c>
+      <c r="G906" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="H906" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="I906" s="22">
+        <v>1603777</v>
+      </c>
+      <c r="J906" s="19">
+        <v>4</v>
+      </c>
+      <c r="K906" s="19">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="L906" s="24">
+        <v>1251.72</v>
+      </c>
+      <c r="M906" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N906" s="19"/>
+      <c r="O906" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P906" s="19"/>
+      <c r="Q906" s="19"/>
+      <c r="R906" s="19"/>
+    </row>
+    <row r="907" spans="1:18">
+      <c r="A907" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B907" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C907" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="D907" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E907" s="19">
+        <v>2</v>
+      </c>
+      <c r="F907" s="21">
+        <v>1460446</v>
+      </c>
+      <c r="G907" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="H907" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="I907" s="22">
+        <v>1603777</v>
+      </c>
+      <c r="J907" s="19">
+        <v>7</v>
+      </c>
+      <c r="K907" s="19">
+        <v>15.17</v>
+      </c>
+      <c r="L907" s="19">
+        <v>762.48</v>
+      </c>
+      <c r="M907" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N907" s="19"/>
+      <c r="O907" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P907" s="19"/>
+      <c r="Q907" s="19"/>
+      <c r="R907" s="19"/>
+    </row>
+    <row r="908" spans="1:18">
+      <c r="A908" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B908" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C908" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D908" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E908" s="19">
+        <v>2</v>
+      </c>
+      <c r="F908" s="21">
+        <v>1460585</v>
+      </c>
+      <c r="G908" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H908" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I908" s="22">
+        <v>1603772</v>
+      </c>
+      <c r="J908" s="19">
+        <v>13</v>
+      </c>
+      <c r="K908" s="19">
+        <v>18.82</v>
+      </c>
+      <c r="L908" s="19">
+        <v>826.19</v>
+      </c>
+      <c r="M908" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N908" s="19"/>
+      <c r="O908" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P908" s="19"/>
+      <c r="Q908" s="19"/>
+      <c r="R908" s="19"/>
+    </row>
+    <row r="909" spans="1:18">
+      <c r="A909" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B909" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C909" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D909" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E909" s="19">
+        <v>2</v>
+      </c>
+      <c r="F909" s="21">
+        <v>1460586</v>
+      </c>
+      <c r="G909" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H909" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I909" s="22">
+        <v>1603772</v>
+      </c>
+      <c r="J909" s="19">
+        <v>3</v>
+      </c>
+      <c r="K909" s="19">
+        <v>13.44</v>
+      </c>
+      <c r="L909" s="19">
+        <v>938.8</v>
+      </c>
+      <c r="M909" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N909" s="19"/>
+      <c r="O909" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P909" s="19"/>
+      <c r="Q909" s="19"/>
+      <c r="R909" s="19"/>
+    </row>
+    <row r="910" spans="1:18">
+      <c r="A910" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B910" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C910" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D910" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E910" s="19">
+        <v>2</v>
+      </c>
+      <c r="F910" s="21">
+        <v>1460587</v>
+      </c>
+      <c r="G910" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H910" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I910" s="22">
+        <v>1603772</v>
+      </c>
+      <c r="J910" s="19">
+        <v>1</v>
+      </c>
+      <c r="K910" s="19">
+        <v>2.37</v>
+      </c>
+      <c r="L910" s="19">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="M910" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N910" s="19"/>
+      <c r="O910" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P910" s="19"/>
+      <c r="Q910" s="19"/>
+      <c r="R910" s="19"/>
+    </row>
+    <row r="911" spans="1:18">
+      <c r="A911" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B911" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C911" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D911" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E911" s="19">
+        <v>2</v>
+      </c>
+      <c r="F911" s="21">
+        <v>1460588</v>
+      </c>
+      <c r="G911" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H911" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I911" s="22">
+        <v>1603772</v>
+      </c>
+      <c r="J911" s="19">
+        <v>5</v>
+      </c>
+      <c r="K911" s="19">
+        <v>11.48</v>
+      </c>
+      <c r="L911" s="19">
+        <v>583.29999999999995</v>
+      </c>
+      <c r="M911" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N911" s="19"/>
+      <c r="O911" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P911" s="19"/>
+      <c r="Q911" s="19"/>
+      <c r="R911" s="19"/>
+    </row>
+    <row r="912" spans="1:18">
+      <c r="A912" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B912" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C912" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D912" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E912" s="19">
+        <v>2</v>
+      </c>
+      <c r="F912" s="21">
+        <v>1460759</v>
+      </c>
+      <c r="G912" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H912" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I912" s="22">
+        <v>1603813</v>
+      </c>
+      <c r="J912" s="19">
+        <v>9</v>
+      </c>
+      <c r="K912" s="19">
+        <v>13.07</v>
+      </c>
+      <c r="L912" s="19">
+        <v>571.98</v>
+      </c>
+      <c r="M912" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N912" s="19"/>
+      <c r="O912" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P912" s="19"/>
+      <c r="Q912" s="19"/>
+      <c r="R912" s="19"/>
+    </row>
+    <row r="913" spans="1:18">
+      <c r="A913" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B913" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C913" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D913" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E913" s="19">
+        <v>2</v>
+      </c>
+      <c r="F913" s="21">
+        <v>1460760</v>
+      </c>
+      <c r="G913" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H913" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I913" s="22">
+        <v>1603813</v>
+      </c>
+      <c r="J913" s="19">
+        <v>1</v>
+      </c>
+      <c r="K913" s="19">
+        <v>2.37</v>
+      </c>
+      <c r="L913" s="19">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="M913" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N913" s="19"/>
+      <c r="O913" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P913" s="19"/>
+      <c r="Q913" s="19"/>
+      <c r="R913" s="19"/>
+    </row>
+    <row r="914" spans="1:18">
+      <c r="A914" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B914" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C914" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D914" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E914" s="19">
+        <v>2</v>
+      </c>
+      <c r="F914" s="21">
+        <v>1460761</v>
+      </c>
+      <c r="G914" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H914" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I914" s="22">
+        <v>1603813</v>
+      </c>
+      <c r="J914" s="19">
+        <v>3</v>
+      </c>
+      <c r="K914" s="19">
+        <v>7.79</v>
+      </c>
+      <c r="L914" s="19">
+        <v>404.13</v>
+      </c>
+      <c r="M914" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N914" s="19"/>
+      <c r="O914" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P914" s="19"/>
+      <c r="Q914" s="19"/>
+      <c r="R914" s="19"/>
+    </row>
+    <row r="915" spans="1:18">
+      <c r="A915" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B915" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C915" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D915" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E915" s="19">
+        <v>2</v>
+      </c>
+      <c r="F915" s="21">
+        <v>1460762</v>
+      </c>
+      <c r="G915" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="H915" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="I915" s="22">
+        <v>1603817</v>
+      </c>
+      <c r="J915" s="19">
+        <v>8</v>
+      </c>
+      <c r="K915" s="19">
+        <v>11.51</v>
+      </c>
+      <c r="L915" s="19">
+        <v>508.43</v>
+      </c>
+      <c r="M915" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N915" s="19"/>
+      <c r="O915" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P915" s="19"/>
+      <c r="Q915" s="19"/>
+      <c r="R915" s="19"/>
+    </row>
+    <row r="916" spans="1:18">
+      <c r="A916" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B916" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C916" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D916" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E916" s="19">
+        <v>2</v>
+      </c>
+      <c r="F916" s="21">
+        <v>1460763</v>
+      </c>
+      <c r="G916" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="H916" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="I916" s="22">
+        <v>1603817</v>
+      </c>
+      <c r="J916" s="19">
+        <v>1</v>
+      </c>
+      <c r="K916" s="19">
+        <v>2.37</v>
+      </c>
+      <c r="L916" s="19">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="M916" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N916" s="19"/>
+      <c r="O916" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P916" s="19"/>
+      <c r="Q916" s="19"/>
+      <c r="R916" s="19"/>
+    </row>
+    <row r="917" spans="1:18">
+      <c r="A917" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B917" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C917" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D917" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E917" s="19">
+        <v>2</v>
+      </c>
+      <c r="F917" s="21">
+        <v>1460764</v>
+      </c>
+      <c r="G917" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="H917" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="I917" s="22">
+        <v>1603817</v>
+      </c>
+      <c r="J917" s="19">
+        <v>1</v>
+      </c>
+      <c r="K917" s="19">
+        <v>2.97</v>
+      </c>
+      <c r="L917" s="19">
+        <v>157.28</v>
+      </c>
+      <c r="M917" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N917" s="19"/>
+      <c r="O917" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P917" s="19"/>
+      <c r="Q917" s="19"/>
+      <c r="R917" s="19"/>
+    </row>
+    <row r="918" spans="1:18">
+      <c r="A918" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B918" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C918" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D918" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E918" s="19">
+        <v>2</v>
+      </c>
+      <c r="F918" s="21">
+        <v>1460788</v>
+      </c>
+      <c r="G918" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H918" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I918" s="22">
+        <v>1603824</v>
+      </c>
+      <c r="J918" s="19">
+        <v>9</v>
+      </c>
+      <c r="K918" s="19">
+        <v>24.63</v>
+      </c>
+      <c r="L918" s="24">
+        <v>1220.08</v>
+      </c>
+      <c r="M918" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N918" s="19"/>
+      <c r="O918" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P918" s="19"/>
+      <c r="Q918" s="19"/>
+      <c r="R918" s="19"/>
+    </row>
+    <row r="919" spans="1:18">
+      <c r="A919" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B919" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C919" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D919" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E919" s="19">
+        <v>2</v>
+      </c>
+      <c r="F919" s="21">
+        <v>1460789</v>
+      </c>
+      <c r="G919" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H919" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I919" s="22">
+        <v>1603824</v>
+      </c>
+      <c r="J919" s="19">
+        <v>13</v>
+      </c>
+      <c r="K919" s="19">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="L919" s="19">
+        <v>826.18</v>
+      </c>
+      <c r="M919" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N919" s="19"/>
+      <c r="O919" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P919" s="19"/>
+      <c r="Q919" s="19"/>
+      <c r="R919" s="19"/>
+    </row>
+    <row r="920" spans="1:18">
+      <c r="A920" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B920" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C920" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D920" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E920" s="19">
+        <v>2</v>
+      </c>
+      <c r="F920" s="21">
+        <v>1460790</v>
+      </c>
+      <c r="G920" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H920" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I920" s="22">
+        <v>1603824</v>
+      </c>
+      <c r="J920" s="19">
+        <v>6</v>
+      </c>
+      <c r="K920" s="19">
+        <v>16.52</v>
+      </c>
+      <c r="L920" s="19">
+        <v>912.63</v>
+      </c>
+      <c r="M920" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N920" s="19"/>
+      <c r="O920" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P920" s="19"/>
+      <c r="Q920" s="19"/>
+      <c r="R920" s="19"/>
+    </row>
+    <row r="921" spans="1:18">
+      <c r="A921" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B921" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C921" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D921" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E921" s="19">
+        <v>2</v>
+      </c>
+      <c r="F921" s="21">
+        <v>1460879</v>
+      </c>
+      <c r="G921" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="H921" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I921" s="22">
+        <v>1603972</v>
+      </c>
+      <c r="J921" s="19">
+        <v>6</v>
+      </c>
+      <c r="K921" s="19">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="L921" s="19">
+        <v>381.32</v>
+      </c>
+      <c r="M921" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N921" s="19"/>
+      <c r="O921" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P921" s="19"/>
+      <c r="Q921" s="19"/>
+      <c r="R921" s="19"/>
+    </row>
+    <row r="922" spans="1:18">
+      <c r="A922" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B922" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C922" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D922" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E922" s="19">
+        <v>2</v>
+      </c>
+      <c r="F922" s="21">
+        <v>1460880</v>
+      </c>
+      <c r="G922" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="H922" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I922" s="22">
+        <v>1603972</v>
+      </c>
+      <c r="J922" s="19">
+        <v>3</v>
+      </c>
+      <c r="K922" s="19">
+        <v>4.33</v>
+      </c>
+      <c r="L922" s="19">
+        <v>343.25</v>
+      </c>
+      <c r="M922" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N922" s="19"/>
+      <c r="O922" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P922" s="19"/>
+      <c r="Q922" s="19"/>
+      <c r="R922" s="19"/>
+    </row>
+    <row r="923" spans="1:18">
+      <c r="A923" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B923" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C923" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D923" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E923" s="19">
+        <v>2</v>
+      </c>
+      <c r="F923" s="21">
+        <v>1460881</v>
+      </c>
+      <c r="G923" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="H923" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I923" s="22">
+        <v>1603972</v>
+      </c>
+      <c r="J923" s="19">
+        <v>1</v>
+      </c>
+      <c r="K923" s="19">
+        <v>2.97</v>
+      </c>
+      <c r="L923" s="19">
+        <v>157.28</v>
+      </c>
+      <c r="M923" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N923" s="19"/>
+      <c r="O923" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P923" s="19"/>
+      <c r="Q923" s="19"/>
+      <c r="R923" s="19"/>
+    </row>
+    <row r="924" spans="1:18">
+      <c r="A924" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B924" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C924" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D924" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E924" s="19">
+        <v>2</v>
+      </c>
+      <c r="F924" s="21">
+        <v>1460946</v>
+      </c>
+      <c r="G924" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H924" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I924" s="22">
+        <v>1603865</v>
+      </c>
+      <c r="J924" s="19">
+        <v>9</v>
+      </c>
+      <c r="K924" s="19">
+        <v>15.22</v>
+      </c>
+      <c r="L924" s="19">
+        <v>757.12</v>
+      </c>
+      <c r="M924" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N924" s="19"/>
+      <c r="O924" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P924" s="19"/>
+      <c r="Q924" s="19"/>
+      <c r="R924" s="19"/>
+    </row>
+    <row r="925" spans="1:18">
+      <c r="A925" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B925" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C925" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="D925" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E925" s="19">
+        <v>2</v>
+      </c>
+      <c r="F925" s="21">
+        <v>1460948</v>
+      </c>
+      <c r="G925" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H925" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="I925" s="22">
+        <v>1603892</v>
+      </c>
+      <c r="J925" s="19">
+        <v>6</v>
+      </c>
+      <c r="K925" s="19">
+        <v>10.79</v>
+      </c>
+      <c r="L925" s="19">
+        <v>566.45000000000005</v>
+      </c>
+      <c r="M925" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N925" s="19"/>
+      <c r="O925" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P925" s="19"/>
+      <c r="Q925" s="19"/>
+      <c r="R925" s="19"/>
+    </row>
+    <row r="926" spans="1:18">
+      <c r="A926" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B926" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C926" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="D926" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E926" s="19">
+        <v>2</v>
+      </c>
+      <c r="F926" s="21">
+        <v>1461042</v>
+      </c>
+      <c r="G926" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="H926" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="I926" s="22">
+        <v>1603984</v>
+      </c>
+      <c r="J926" s="19">
+        <v>4</v>
+      </c>
+      <c r="K926" s="19">
+        <v>5.75</v>
+      </c>
+      <c r="L926" s="19">
+        <v>254.21</v>
+      </c>
+      <c r="M926" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N926" s="19"/>
+      <c r="O926" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P926" s="19"/>
+      <c r="Q926" s="19"/>
+      <c r="R926" s="19"/>
+    </row>
+    <row r="927" spans="1:18">
+      <c r="A927" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B927" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C927" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="D927" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E927" s="19">
+        <v>2</v>
+      </c>
+      <c r="F927" s="21">
+        <v>1461043</v>
+      </c>
+      <c r="G927" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="H927" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="I927" s="22">
+        <v>1603984</v>
+      </c>
+      <c r="J927" s="19">
+        <v>2</v>
+      </c>
+      <c r="K927" s="19">
+        <v>4.13</v>
+      </c>
+      <c r="L927" s="19">
+        <v>309.92</v>
+      </c>
+      <c r="M927" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N927" s="19"/>
+      <c r="O927" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P927" s="19"/>
+      <c r="Q927" s="19"/>
+      <c r="R927" s="19"/>
+    </row>
+    <row r="928" spans="1:18">
+      <c r="A928" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B928" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C928" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="D928" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E928" s="19">
+        <v>2</v>
+      </c>
+      <c r="F928" s="21">
+        <v>1461044</v>
+      </c>
+      <c r="G928" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="H928" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="I928" s="22">
+        <v>1603984</v>
+      </c>
+      <c r="J928" s="19">
+        <v>1</v>
+      </c>
+      <c r="K928" s="19">
+        <v>2.97</v>
+      </c>
+      <c r="L928" s="19">
+        <v>157.28</v>
+      </c>
+      <c r="M928" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N928" s="19"/>
+      <c r="O928" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P928" s="19"/>
+      <c r="Q928" s="19"/>
+      <c r="R928" s="19"/>
+    </row>
+    <row r="929" spans="1:18">
+      <c r="A929" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B929" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C929" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="D929" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E929" s="19">
+        <v>2</v>
+      </c>
+      <c r="F929" s="21">
+        <v>1461045</v>
+      </c>
+      <c r="G929" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="H929" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I929" s="22">
+        <v>1603986</v>
+      </c>
+      <c r="J929" s="19">
+        <v>1</v>
+      </c>
+      <c r="K929" s="19">
+        <v>2</v>
+      </c>
+      <c r="L929" s="19">
+        <v>94.62</v>
+      </c>
+      <c r="M929" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N929" s="19"/>
+      <c r="O929" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P929" s="19"/>
+      <c r="Q929" s="19"/>
+      <c r="R929" s="19"/>
+    </row>
+    <row r="930" spans="1:18">
+      <c r="A930" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B930" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C930" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="D930" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E930" s="19">
+        <v>2</v>
+      </c>
+      <c r="F930" s="21">
+        <v>1461046</v>
+      </c>
+      <c r="G930" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="H930" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I930" s="22">
+        <v>1603986</v>
+      </c>
+      <c r="J930" s="19">
+        <v>2</v>
+      </c>
+      <c r="K930" s="19">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="L930" s="19">
+        <v>298.44</v>
+      </c>
+      <c r="M930" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N930" s="19"/>
+      <c r="O930" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P930" s="19"/>
+      <c r="Q930" s="19"/>
+      <c r="R930" s="19"/>
+    </row>
+    <row r="931" spans="1:18">
+      <c r="A931" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B931" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C931" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="D931" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E931" s="19">
+        <v>2</v>
+      </c>
+      <c r="F931" s="21">
+        <v>1461047</v>
+      </c>
+      <c r="G931" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="H931" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I931" s="22">
+        <v>1603986</v>
+      </c>
+      <c r="J931" s="19">
+        <v>4</v>
+      </c>
+      <c r="K931" s="19">
+        <v>5.75</v>
+      </c>
+      <c r="L931" s="19">
+        <v>254.21</v>
+      </c>
+      <c r="M931" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N931" s="19"/>
+      <c r="O931" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P931" s="19"/>
+      <c r="Q931" s="19"/>
+      <c r="R931" s="19"/>
+    </row>
+    <row r="932" spans="1:18">
+      <c r="A932" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B932" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C932" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="D932" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E932" s="19">
+        <v>2</v>
+      </c>
+      <c r="F932" s="21">
+        <v>1461048</v>
+      </c>
+      <c r="G932" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="H932" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I932" s="22">
+        <v>1603986</v>
+      </c>
+      <c r="J932" s="19">
+        <v>18</v>
+      </c>
+      <c r="K932" s="19">
+        <v>48.72</v>
+      </c>
+      <c r="L932" s="24">
+        <v>2623.22</v>
+      </c>
+      <c r="M932" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N932" s="19"/>
+      <c r="O932" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P932" s="19"/>
+      <c r="Q932" s="19"/>
+      <c r="R932" s="19"/>
+    </row>
+    <row r="933" spans="1:18">
+      <c r="A933" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B933" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C933" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="D933" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E933" s="19">
+        <v>2</v>
+      </c>
+      <c r="F933" s="21">
+        <v>1461060</v>
+      </c>
+      <c r="G933" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="H933" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="I933" s="22">
+        <v>1603996</v>
+      </c>
+      <c r="J933" s="19">
+        <v>11</v>
+      </c>
+      <c r="K933" s="19">
+        <v>23.94</v>
+      </c>
+      <c r="L933" s="24">
+        <v>1658.68</v>
+      </c>
+      <c r="M933" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N933" s="19"/>
+      <c r="O933" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P933" s="19"/>
+      <c r="Q933" s="19"/>
+      <c r="R933" s="19"/>
+    </row>
+    <row r="934" spans="1:18">
+      <c r="A934" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B934" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C934" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D934" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E934" s="19">
+        <v>2</v>
+      </c>
+      <c r="F934" s="21">
+        <v>1461115</v>
+      </c>
+      <c r="G934" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="H934" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I934" s="22">
+        <v>1603754</v>
+      </c>
+      <c r="J934" s="19">
+        <v>8</v>
+      </c>
+      <c r="K934" s="19">
+        <v>11.51</v>
+      </c>
+      <c r="L934" s="19">
+        <v>508.43</v>
+      </c>
+      <c r="M934" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N934" s="19"/>
+      <c r="O934" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P934" s="19"/>
+      <c r="Q934" s="19"/>
+      <c r="R934" s="19"/>
+    </row>
+    <row r="935" spans="1:18">
+      <c r="A935" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B935" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C935" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D935" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E935" s="19">
+        <v>2</v>
+      </c>
+      <c r="F935" s="21">
+        <v>1461116</v>
+      </c>
+      <c r="G935" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="H935" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I935" s="22">
+        <v>1603754</v>
+      </c>
+      <c r="J935" s="19">
+        <v>3</v>
+      </c>
+      <c r="K935" s="19">
+        <v>13.44</v>
+      </c>
+      <c r="L935" s="19">
+        <v>938.8</v>
+      </c>
+      <c r="M935" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N935" s="19"/>
+      <c r="O935" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P935" s="19"/>
+      <c r="Q935" s="19"/>
+      <c r="R935" s="19"/>
+    </row>
+    <row r="936" spans="1:18">
+      <c r="A936" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B936" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C936" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D936" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E936" s="19">
+        <v>2</v>
+      </c>
+      <c r="F936" s="21">
+        <v>1461117</v>
+      </c>
+      <c r="G936" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="H936" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I936" s="22">
+        <v>1603754</v>
+      </c>
+      <c r="J936" s="19">
+        <v>1</v>
+      </c>
+      <c r="K936" s="19">
+        <v>2.97</v>
+      </c>
+      <c r="L936" s="19">
+        <v>157.28</v>
+      </c>
+      <c r="M936" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N936" s="19"/>
+      <c r="O936" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P936" s="19"/>
+      <c r="Q936" s="19"/>
+      <c r="R936" s="19"/>
+    </row>
+    <row r="937" spans="1:18">
+      <c r="A937" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B937" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C937" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D937" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E937" s="19">
+        <v>2</v>
+      </c>
+      <c r="F937" s="21">
+        <v>1469009</v>
+      </c>
+      <c r="G937" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H937" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I937" s="22">
+        <v>1605396</v>
+      </c>
+      <c r="J937" s="19">
+        <v>5</v>
+      </c>
+      <c r="K937" s="19">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="L937" s="19">
+        <v>630.91999999999996</v>
+      </c>
+      <c r="M937" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N937" s="19"/>
+      <c r="O937" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P937" s="19"/>
+      <c r="Q937" s="19"/>
+      <c r="R937" s="19"/>
+    </row>
+    <row r="938" spans="1:18">
+      <c r="A938" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B938" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C938" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D938" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E938" s="19">
+        <v>2</v>
+      </c>
+      <c r="F938" s="21">
+        <v>1469010</v>
+      </c>
+      <c r="G938" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H938" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I938" s="22">
+        <v>1605396</v>
+      </c>
+      <c r="J938" s="19">
+        <v>1</v>
+      </c>
+      <c r="K938" s="19">
+        <v>3.04</v>
+      </c>
+      <c r="L938" s="19">
+        <v>125.57</v>
+      </c>
+      <c r="M938" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N938" s="19"/>
+      <c r="O938" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P938" s="19"/>
+      <c r="Q938" s="19"/>
+      <c r="R938" s="19"/>
+    </row>
+    <row r="939" spans="1:18">
+      <c r="A939" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B939" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C939" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D939" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E939" s="19">
+        <v>2</v>
+      </c>
+      <c r="F939" s="21">
+        <v>1469011</v>
+      </c>
+      <c r="G939" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H939" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I939" s="22">
+        <v>1605396</v>
+      </c>
+      <c r="J939" s="19">
+        <v>1</v>
+      </c>
+      <c r="K939" s="19">
+        <v>2.25</v>
+      </c>
+      <c r="L939" s="19">
+        <v>208.31</v>
+      </c>
+      <c r="M939" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N939" s="19"/>
+      <c r="O939" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P939" s="19"/>
+      <c r="Q939" s="19"/>
+      <c r="R939" s="19"/>
+    </row>
+    <row r="940" spans="1:18">
+      <c r="A940" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B940" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C940" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D940" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E940" s="19">
+        <v>2</v>
+      </c>
+      <c r="F940" s="21">
+        <v>1469012</v>
+      </c>
+      <c r="G940" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="H940" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="I940" s="22">
+        <v>1605400</v>
+      </c>
+      <c r="J940" s="19">
+        <v>6</v>
+      </c>
+      <c r="K940" s="19">
+        <v>11.21</v>
+      </c>
+      <c r="L940" s="24">
+        <v>1157.6300000000001</v>
+      </c>
+      <c r="M940" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N940" s="19"/>
+      <c r="O940" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P940" s="19"/>
+      <c r="Q940" s="19"/>
+      <c r="R940" s="19"/>
+    </row>
+    <row r="941" spans="1:18">
+      <c r="A941" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B941" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C941" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D941" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E941" s="19">
+        <v>2</v>
+      </c>
+      <c r="F941" s="21">
+        <v>1469013</v>
+      </c>
+      <c r="G941" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="H941" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="I941" s="22">
+        <v>1605400</v>
+      </c>
+      <c r="J941" s="19">
+        <v>1</v>
+      </c>
+      <c r="K941" s="19">
+        <v>2.25</v>
+      </c>
+      <c r="L941" s="19">
+        <v>208.31</v>
+      </c>
+      <c r="M941" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N941" s="19"/>
+      <c r="O941" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P941" s="19"/>
+      <c r="Q941" s="19"/>
+      <c r="R941" s="19"/>
+    </row>
+    <row r="942" spans="1:18">
+      <c r="A942" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B942" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C942" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D942" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E942" s="19">
+        <v>2</v>
+      </c>
+      <c r="F942" s="21">
+        <v>1469024</v>
+      </c>
+      <c r="G942" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H942" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I942" s="22">
+        <v>1605402</v>
+      </c>
+      <c r="J942" s="19">
+        <v>2</v>
+      </c>
+      <c r="K942" s="19">
+        <v>5.22</v>
+      </c>
+      <c r="L942" s="19">
+        <v>365.59</v>
+      </c>
+      <c r="M942" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N942" s="19"/>
+      <c r="O942" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P942" s="19"/>
+      <c r="Q942" s="19"/>
+      <c r="R942" s="19"/>
+    </row>
+    <row r="943" spans="1:18">
+      <c r="A943" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B943" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C943" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D943" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E943" s="25">
+        <v>2</v>
+      </c>
+      <c r="F943" s="27">
+        <v>1469028</v>
+      </c>
+      <c r="G943" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="H943" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I943" s="28">
+        <v>1605407</v>
+      </c>
+      <c r="J943" s="25">
+        <v>4</v>
+      </c>
+      <c r="K943" s="25">
+        <v>7.47</v>
+      </c>
+      <c r="L943" s="25">
+        <v>874.45</v>
+      </c>
+      <c r="M943" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N943" s="29"/>
+      <c r="O943" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P943" s="25"/>
+      <c r="Q943" s="25"/>
+      <c r="R943" s="25"/>
+    </row>
+    <row r="944" spans="1:18">
+      <c r="A944" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B944" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C944" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D944" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E944" s="25">
+        <v>2</v>
+      </c>
+      <c r="F944" s="27">
+        <v>1469029</v>
+      </c>
+      <c r="G944" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="H944" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I944" s="28">
+        <v>1605407</v>
+      </c>
+      <c r="J944" s="25">
+        <v>1</v>
+      </c>
+      <c r="K944" s="25">
+        <v>2.25</v>
+      </c>
+      <c r="L944" s="25">
+        <v>208.31</v>
+      </c>
+      <c r="M944" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N944" s="29"/>
+      <c r="O944" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P944" s="25"/>
+      <c r="Q944" s="25"/>
+      <c r="R944" s="25"/>
+    </row>
+    <row r="945" spans="1:18">
+      <c r="A945" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B945" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C945" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="D945" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E945" s="25">
+        <v>2</v>
+      </c>
+      <c r="F945" s="27">
+        <v>1469087</v>
+      </c>
+      <c r="G945" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="H945" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I945" s="28">
+        <v>1605422</v>
+      </c>
+      <c r="J945" s="25">
+        <v>7</v>
+      </c>
+      <c r="K945" s="25">
+        <v>13.13</v>
+      </c>
+      <c r="L945" s="31">
+        <v>1312.59</v>
+      </c>
+      <c r="M945" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N945" s="29"/>
+      <c r="O945" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P945" s="25"/>
+      <c r="Q945" s="25"/>
+      <c r="R945" s="25"/>
+    </row>
+    <row r="946" spans="1:18">
+      <c r="A946" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B946" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C946" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="D946" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E946" s="25">
+        <v>2</v>
+      </c>
+      <c r="F946" s="27">
+        <v>1469088</v>
+      </c>
+      <c r="G946" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="H946" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I946" s="28">
+        <v>1605422</v>
+      </c>
+      <c r="J946" s="25">
+        <v>5</v>
+      </c>
+      <c r="K946" s="25">
+        <v>14.01</v>
+      </c>
+      <c r="L946" s="25">
+        <v>669.61</v>
+      </c>
+      <c r="M946" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N946" s="29"/>
+      <c r="O946" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P946" s="25"/>
+      <c r="Q946" s="25"/>
+      <c r="R946" s="25"/>
+    </row>
+    <row r="947" spans="1:18">
+      <c r="A947" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B947" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C947" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="D947" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E947" s="25">
+        <v>2</v>
+      </c>
+      <c r="F947" s="27">
+        <v>1469089</v>
+      </c>
+      <c r="G947" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="H947" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I947" s="28">
+        <v>1605422</v>
+      </c>
+      <c r="J947" s="25">
+        <v>3</v>
+      </c>
+      <c r="K947" s="25">
+        <v>3.96</v>
+      </c>
+      <c r="L947" s="25">
+        <v>190.66</v>
+      </c>
+      <c r="M947" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N947" s="29"/>
+      <c r="O947" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P947" s="25"/>
+      <c r="Q947" s="25"/>
+      <c r="R947" s="25"/>
+    </row>
+    <row r="948" spans="1:18">
+      <c r="A948" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B948" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C948" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="D948" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E948" s="25">
+        <v>2</v>
+      </c>
+      <c r="F948" s="27">
+        <v>1469090</v>
+      </c>
+      <c r="G948" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="H948" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I948" s="28">
+        <v>1605422</v>
+      </c>
+      <c r="J948" s="25">
+        <v>19</v>
+      </c>
+      <c r="K948" s="25">
+        <v>49.7</v>
+      </c>
+      <c r="L948" s="31">
+        <v>2721.37</v>
+      </c>
+      <c r="M948" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N948" s="29"/>
+      <c r="O948" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P948" s="25"/>
+      <c r="Q948" s="25"/>
+      <c r="R948" s="25"/>
+    </row>
+    <row r="949" spans="1:18">
+      <c r="A949" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B949" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C949" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D949" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E949" s="25">
+        <v>2</v>
+      </c>
+      <c r="F949" s="27">
+        <v>1469097</v>
+      </c>
+      <c r="G949" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="H949" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I949" s="28">
+        <v>1605559</v>
+      </c>
+      <c r="J949" s="25">
+        <v>6</v>
+      </c>
+      <c r="K949" s="25">
+        <v>11.21</v>
+      </c>
+      <c r="L949" s="31">
+        <v>1157.6300000000001</v>
+      </c>
+      <c r="M949" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N949" s="29"/>
+      <c r="O949" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P949" s="25"/>
+      <c r="Q949" s="25"/>
+      <c r="R949" s="25"/>
+    </row>
+    <row r="950" spans="1:18">
+      <c r="A950" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B950" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C950" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D950" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E950" s="25">
+        <v>2</v>
+      </c>
+      <c r="F950" s="27">
+        <v>1469098</v>
+      </c>
+      <c r="G950" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="H950" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I950" s="28">
+        <v>1605559</v>
+      </c>
+      <c r="J950" s="25">
+        <v>1</v>
+      </c>
+      <c r="K950" s="25">
+        <v>2.25</v>
+      </c>
+      <c r="L950" s="25">
+        <v>208.31</v>
+      </c>
+      <c r="M950" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N950" s="29"/>
+      <c r="O950" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P950" s="25"/>
+      <c r="Q950" s="25"/>
+      <c r="R950" s="25"/>
+    </row>
+    <row r="951" spans="1:18">
+      <c r="A951" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B951" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C951" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="D951" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E951" s="25">
+        <v>2</v>
+      </c>
+      <c r="F951" s="27">
+        <v>1469104</v>
+      </c>
+      <c r="G951" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="H951" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I951" s="28">
+        <v>1605427</v>
+      </c>
+      <c r="J951" s="25">
+        <v>3</v>
+      </c>
+      <c r="K951" s="25">
+        <v>5.61</v>
+      </c>
+      <c r="L951" s="25">
+        <v>501.79</v>
+      </c>
+      <c r="M951" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N951" s="29"/>
+      <c r="O951" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P951" s="25"/>
+      <c r="Q951" s="25"/>
+      <c r="R951" s="25"/>
+    </row>
+    <row r="952" spans="1:18">
+      <c r="A952" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B952" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C952" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="D952" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E952" s="25">
+        <v>2</v>
+      </c>
+      <c r="F952" s="27">
+        <v>1469105</v>
+      </c>
+      <c r="G952" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="H952" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I952" s="28">
+        <v>1605427</v>
+      </c>
+      <c r="J952" s="25">
+        <v>1</v>
+      </c>
+      <c r="K952" s="25">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L952" s="25">
+        <v>154.96</v>
+      </c>
+      <c r="M952" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N952" s="29"/>
+      <c r="O952" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P952" s="25"/>
+      <c r="Q952" s="25"/>
+      <c r="R952" s="25"/>
+    </row>
+    <row r="953" spans="1:18">
+      <c r="A953" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B953" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C953" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="D953" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E953" s="25">
+        <v>2</v>
+      </c>
+      <c r="F953" s="27">
+        <v>1469106</v>
+      </c>
+      <c r="G953" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="H953" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I953" s="28">
+        <v>1605427</v>
+      </c>
+      <c r="J953" s="25">
+        <v>2</v>
+      </c>
+      <c r="K953" s="25">
+        <v>5.22</v>
+      </c>
+      <c r="L953" s="25">
+        <v>365.59</v>
+      </c>
+      <c r="M953" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N953" s="29"/>
+      <c r="O953" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P953" s="25"/>
+      <c r="Q953" s="25"/>
+      <c r="R953" s="25"/>
+    </row>
+    <row r="954" spans="1:18">
+      <c r="A954" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B954" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C954" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D954" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E954" s="25">
+        <v>2</v>
+      </c>
+      <c r="F954" s="27">
+        <v>1469144</v>
+      </c>
+      <c r="G954" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H954" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="I954" s="28">
+        <v>1605450</v>
+      </c>
+      <c r="J954" s="25">
+        <v>5</v>
+      </c>
+      <c r="K954" s="25">
+        <v>9.73</v>
+      </c>
+      <c r="L954" s="25">
+        <v>928.71</v>
+      </c>
+      <c r="M954" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N954" s="29"/>
+      <c r="O954" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P954" s="25"/>
+      <c r="Q954" s="25"/>
+      <c r="R954" s="25"/>
+    </row>
+    <row r="955" spans="1:18">
+      <c r="A955" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B955" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C955" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="D955" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E955" s="25">
+        <v>2</v>
+      </c>
+      <c r="F955" s="27">
+        <v>1469146</v>
+      </c>
+      <c r="G955" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H955" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="I955" s="28">
+        <v>1605478</v>
+      </c>
+      <c r="J955" s="25">
+        <v>4</v>
+      </c>
+      <c r="K955" s="25">
+        <v>7.86</v>
+      </c>
+      <c r="L955" s="25">
+        <v>710.1</v>
+      </c>
+      <c r="M955" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N955" s="29"/>
+      <c r="O955" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P955" s="25"/>
+      <c r="Q955" s="25"/>
+      <c r="R955" s="25"/>
+    </row>
+    <row r="956" spans="1:18">
+      <c r="A956" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B956" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C956" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="D956" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E956" s="25">
+        <v>2</v>
+      </c>
+      <c r="F956" s="27">
+        <v>1469153</v>
+      </c>
+      <c r="G956" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="H956" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="I956" s="28">
+        <v>1605460</v>
+      </c>
+      <c r="J956" s="25">
+        <v>5</v>
+      </c>
+      <c r="K956" s="25">
+        <v>14.01</v>
+      </c>
+      <c r="L956" s="25">
+        <v>669.61</v>
+      </c>
+      <c r="M956" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N956" s="29"/>
+      <c r="O956" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P956" s="25"/>
+      <c r="Q956" s="25"/>
+      <c r="R956" s="25"/>
+    </row>
+    <row r="957" spans="1:18">
+      <c r="A957" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B957" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C957" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="D957" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E957" s="25">
+        <v>2</v>
+      </c>
+      <c r="F957" s="27">
+        <v>1469154</v>
+      </c>
+      <c r="G957" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="H957" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="I957" s="28">
+        <v>1605460</v>
+      </c>
+      <c r="J957" s="25">
+        <v>4</v>
+      </c>
+      <c r="K957" s="25">
+        <v>7.53</v>
+      </c>
+      <c r="L957" s="25">
+        <v>656.75</v>
+      </c>
+      <c r="M957" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N957" s="29"/>
+      <c r="O957" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P957" s="25"/>
+      <c r="Q957" s="25"/>
+      <c r="R957" s="25"/>
+    </row>
+    <row r="958" spans="1:18">
+      <c r="A958" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B958" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C958" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="D958" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E958" s="25">
+        <v>2</v>
+      </c>
+      <c r="F958" s="27">
+        <v>1469155</v>
+      </c>
+      <c r="G958" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="H958" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="I958" s="28">
+        <v>1605460</v>
+      </c>
+      <c r="J958" s="25">
+        <v>19</v>
+      </c>
+      <c r="K958" s="25">
+        <v>49.7</v>
+      </c>
+      <c r="L958" s="31">
+        <v>2721.37</v>
+      </c>
+      <c r="M958" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N958" s="29"/>
+      <c r="O958" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P958" s="25"/>
+      <c r="Q958" s="25"/>
+      <c r="R958" s="25"/>
+    </row>
+    <row r="959" spans="1:18">
+      <c r="A959" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B959" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C959" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D959" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E959" s="25">
+        <v>2</v>
+      </c>
+      <c r="F959" s="27">
+        <v>1469222</v>
+      </c>
+      <c r="G959" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="H959" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="I959" s="28">
+        <v>1605571</v>
+      </c>
+      <c r="J959" s="25">
+        <v>5</v>
+      </c>
+      <c r="K959" s="25">
+        <v>13.35</v>
+      </c>
+      <c r="L959" s="25">
+        <v>915.05</v>
+      </c>
+      <c r="M959" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N959" s="29"/>
+      <c r="O959" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P959" s="25"/>
+      <c r="Q959" s="25"/>
+      <c r="R959" s="25"/>
+    </row>
+    <row r="960" spans="1:18">
+      <c r="A960" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B960" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C960" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D960" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E960" s="25">
+        <v>2</v>
+      </c>
+      <c r="F960" s="27">
+        <v>1469223</v>
+      </c>
+      <c r="G960" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="H960" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="I960" s="28">
+        <v>1605571</v>
+      </c>
+      <c r="J960" s="25">
+        <v>1</v>
+      </c>
+      <c r="K960" s="25">
+        <v>3.04</v>
+      </c>
+      <c r="L960" s="25">
+        <v>125.57</v>
+      </c>
+      <c r="M960" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N960" s="29"/>
+      <c r="O960" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P960" s="25"/>
+      <c r="Q960" s="25"/>
+      <c r="R960" s="25"/>
+    </row>
+    <row r="961" spans="1:18">
+      <c r="A961" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B961" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C961" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D961" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E961" s="25">
+        <v>2</v>
+      </c>
+      <c r="F961" s="27">
+        <v>1469224</v>
+      </c>
+      <c r="G961" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="H961" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="I961" s="28">
+        <v>1605571</v>
+      </c>
+      <c r="J961" s="25">
+        <v>1</v>
+      </c>
+      <c r="K961" s="25">
+        <v>2.25</v>
+      </c>
+      <c r="L961" s="25">
+        <v>208.31</v>
+      </c>
+      <c r="M961" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N961" s="29"/>
+      <c r="O961" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P961" s="25"/>
+      <c r="Q961" s="25"/>
+      <c r="R961" s="25"/>
+    </row>
+    <row r="962" spans="1:18">
+      <c r="A962" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B962" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C962" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D962" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E962" s="25">
+        <v>2</v>
+      </c>
+      <c r="F962" s="27">
+        <v>1469225</v>
+      </c>
+      <c r="G962" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="H962" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="I962" s="28">
+        <v>1605571</v>
+      </c>
+      <c r="J962" s="25">
+        <v>2</v>
+      </c>
+      <c r="K962" s="25">
+        <v>3.75</v>
+      </c>
+      <c r="L962" s="25">
+        <v>129.13</v>
+      </c>
+      <c r="M962" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N962" s="29"/>
+      <c r="O962" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P962" s="25"/>
+      <c r="Q962" s="25"/>
+      <c r="R962" s="25"/>
+    </row>
+    <row r="963" spans="1:18">
+      <c r="A963" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B963" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C963" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="D963" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E963" s="25">
+        <v>2</v>
+      </c>
+      <c r="F963" s="27">
+        <v>1469226</v>
+      </c>
+      <c r="G963" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="H963" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I963" s="28">
+        <v>1605573</v>
+      </c>
+      <c r="J963" s="25">
+        <v>2</v>
+      </c>
+      <c r="K963" s="25">
+        <v>6.01</v>
+      </c>
+      <c r="L963" s="25">
+        <v>255.26</v>
+      </c>
+      <c r="M963" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N963" s="29"/>
+      <c r="O963" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P963" s="25"/>
+      <c r="Q963" s="25"/>
+      <c r="R963" s="25"/>
+    </row>
+    <row r="964" spans="1:18">
+      <c r="A964" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B964" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C964" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="D964" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E964" s="25">
+        <v>2</v>
+      </c>
+      <c r="F964" s="27">
+        <v>1469227</v>
+      </c>
+      <c r="G964" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="H964" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I964" s="28">
+        <v>1605573</v>
+      </c>
+      <c r="J964" s="25">
+        <v>5</v>
+      </c>
+      <c r="K964" s="25">
+        <v>9.27</v>
+      </c>
+      <c r="L964" s="25">
+        <v>657.66</v>
+      </c>
+      <c r="M964" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N964" s="29"/>
+      <c r="O964" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P964" s="25"/>
+      <c r="Q964" s="25"/>
+      <c r="R964" s="25"/>
+    </row>
+    <row r="965" spans="1:18">
+      <c r="A965" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B965" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C965" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="D965" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E965" s="25">
+        <v>2</v>
+      </c>
+      <c r="F965" s="27">
+        <v>1469228</v>
+      </c>
+      <c r="G965" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="H965" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I965" s="28">
+        <v>1605573</v>
+      </c>
+      <c r="J965" s="25">
+        <v>2</v>
+      </c>
+      <c r="K965" s="25">
+        <v>3.94</v>
+      </c>
+      <c r="L965" s="25">
+        <v>294.99</v>
+      </c>
+      <c r="M965" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N965" s="29"/>
+      <c r="O965" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P965" s="25"/>
+      <c r="Q965" s="25"/>
+      <c r="R965" s="25"/>
+    </row>
+    <row r="966" spans="1:18">
+      <c r="A966" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B966" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C966" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="D966" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E966" s="25">
+        <v>2</v>
+      </c>
+      <c r="F966" s="27">
+        <v>1469241</v>
+      </c>
+      <c r="G966" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="H966" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="I966" s="28">
+        <v>1605584</v>
+      </c>
+      <c r="J966" s="25">
+        <v>21</v>
+      </c>
+      <c r="K966" s="25">
+        <v>50.39</v>
+      </c>
+      <c r="L966" s="31">
+        <v>2590.34</v>
+      </c>
+      <c r="M966" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N966" s="29"/>
+      <c r="O966" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P966" s="25"/>
+      <c r="Q966" s="25"/>
+      <c r="R966" s="25"/>
+    </row>
+    <row r="967" spans="1:18">
+      <c r="A967" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B967" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C967" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D967" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E967" s="25">
+        <v>2</v>
+      </c>
+      <c r="F967" s="27">
+        <v>1469300</v>
+      </c>
+      <c r="G967" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="H967" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I967" s="28">
+        <v>1605335</v>
+      </c>
+      <c r="J967" s="25">
+        <v>10</v>
+      </c>
+      <c r="K967" s="25">
+        <v>18.71</v>
+      </c>
+      <c r="L967" s="31">
+        <v>1569.93</v>
+      </c>
+      <c r="M967" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N967" s="29"/>
+      <c r="O967" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P967" s="25"/>
+      <c r="Q967" s="25"/>
+      <c r="R967" s="25"/>
+    </row>
+    <row r="968" spans="1:18">
+      <c r="A968" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B968" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C968" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D968" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E968" s="25">
+        <v>2</v>
+      </c>
+      <c r="F968" s="27">
+        <v>1469301</v>
+      </c>
+      <c r="G968" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="H968" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I968" s="28">
+        <v>1605335</v>
+      </c>
+      <c r="J968" s="25">
+        <v>1</v>
+      </c>
+      <c r="K968" s="25">
+        <v>3.51</v>
+      </c>
+      <c r="L968" s="25">
+        <v>200.27</v>
+      </c>
+      <c r="M968" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N968" s="29"/>
+      <c r="O968" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P968" s="25"/>
+      <c r="Q968" s="25"/>
+      <c r="R968" s="25"/>
+    </row>
+    <row r="969" spans="1:18">
+      <c r="A969" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B969" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C969" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D969" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E969" s="25">
+        <v>2</v>
+      </c>
+      <c r="F969" s="27">
+        <v>1469302</v>
+      </c>
+      <c r="G969" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="H969" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I969" s="28">
+        <v>1605335</v>
+      </c>
+      <c r="J969" s="25">
+        <v>2</v>
+      </c>
+      <c r="K969" s="25">
+        <v>4.09</v>
+      </c>
+      <c r="L969" s="25">
+        <v>297.89</v>
+      </c>
+      <c r="M969" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N969" s="29"/>
+      <c r="O969" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P969" s="25"/>
+      <c r="Q969" s="25"/>
+      <c r="R969" s="25"/>
+    </row>
+    <row r="970" spans="1:18">
+      <c r="A970" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B970" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C970" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D970" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E970" s="25">
+        <v>2</v>
+      </c>
+      <c r="F970" s="27">
+        <v>1469343</v>
+      </c>
+      <c r="G970" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="H970" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="I970" s="28">
+        <v>1605359</v>
+      </c>
+      <c r="J970" s="25">
+        <v>3</v>
+      </c>
+      <c r="K970" s="25">
+        <v>5.6</v>
+      </c>
+      <c r="L970" s="25">
+        <v>655.83</v>
+      </c>
+      <c r="M970" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N970" s="29"/>
+      <c r="O970" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P970" s="25"/>
+      <c r="Q970" s="25"/>
+      <c r="R970" s="25"/>
+    </row>
+    <row r="971" spans="1:18">
+      <c r="A971" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B971" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C971" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D971" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E971" s="25">
+        <v>2</v>
+      </c>
+      <c r="F971" s="27">
+        <v>1469344</v>
+      </c>
+      <c r="G971" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="H971" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="I971" s="28">
+        <v>1605359</v>
+      </c>
+      <c r="J971" s="25">
+        <v>1</v>
+      </c>
+      <c r="K971" s="25">
+        <v>3.51</v>
+      </c>
+      <c r="L971" s="25">
+        <v>200.27</v>
+      </c>
+      <c r="M971" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N971" s="29"/>
+      <c r="O971" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P971" s="25"/>
+      <c r="Q971" s="25"/>
+      <c r="R971" s="25"/>
+    </row>
+    <row r="972" spans="1:18">
+      <c r="A972" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B972" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C972" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D972" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E972" s="25">
+        <v>2</v>
+      </c>
+      <c r="F972" s="27">
+        <v>1469345</v>
+      </c>
+      <c r="G972" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="H972" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="I972" s="28">
+        <v>1605359</v>
+      </c>
+      <c r="J972" s="25">
+        <v>6</v>
+      </c>
+      <c r="K972" s="25">
+        <v>10.99</v>
+      </c>
+      <c r="L972" s="25">
+        <v>647.51</v>
+      </c>
+      <c r="M972" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N972" s="29"/>
+      <c r="O972" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P972" s="25"/>
+      <c r="Q972" s="25"/>
+      <c r="R972" s="25"/>
+    </row>
+    <row r="973" spans="1:18">
+      <c r="A973" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B973" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C973" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D973" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E973" s="25">
+        <v>2</v>
+      </c>
+      <c r="F973" s="27">
+        <v>1469462</v>
+      </c>
+      <c r="G973" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="H973" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I973" s="28">
+        <v>1605353</v>
+      </c>
+      <c r="J973" s="25">
+        <v>6</v>
+      </c>
+      <c r="K973" s="25">
+        <v>11.23</v>
+      </c>
+      <c r="L973" s="25">
+        <v>849.53</v>
+      </c>
+      <c r="M973" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N973" s="29"/>
+      <c r="O973" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P973" s="25"/>
+      <c r="Q973" s="25"/>
+      <c r="R973" s="25"/>
+    </row>
+    <row r="974" spans="1:18">
+      <c r="A974" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B974" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C974" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D974" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E974" s="25">
+        <v>2</v>
+      </c>
+      <c r="F974" s="27">
+        <v>1469463</v>
+      </c>
+      <c r="G974" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="H974" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I974" s="28">
+        <v>1605353</v>
+      </c>
+      <c r="J974" s="25">
+        <v>2</v>
+      </c>
+      <c r="K974" s="25">
+        <v>7.02</v>
+      </c>
+      <c r="L974" s="25">
+        <v>400.55</v>
+      </c>
+      <c r="M974" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N974" s="29"/>
+      <c r="O974" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P974" s="25"/>
+      <c r="Q974" s="25"/>
+      <c r="R974" s="25"/>
+    </row>
+    <row r="975" spans="1:18">
+      <c r="A975" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B975" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C975" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D975" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E975" s="25">
+        <v>2</v>
+      </c>
+      <c r="F975" s="27">
+        <v>1469464</v>
+      </c>
+      <c r="G975" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="H975" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I975" s="28">
+        <v>1605353</v>
+      </c>
+      <c r="J975" s="25">
+        <v>3</v>
+      </c>
+      <c r="K975" s="25">
+        <v>6.35</v>
+      </c>
+      <c r="L975" s="25">
+        <v>506.2</v>
+      </c>
+      <c r="M975" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N975" s="29"/>
+      <c r="O975" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P975" s="25"/>
+      <c r="Q975" s="25"/>
+      <c r="R975" s="25"/>
+    </row>
+    <row r="976" spans="1:18">
+      <c r="A976" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B976" s="25">
+        <v>71</v>
+      </c>
+      <c r="C976" s="25">
+        <v>764.35</v>
+      </c>
+      <c r="D976" s="31">
+        <v>46805.66</v>
+      </c>
+      <c r="E976" s="25"/>
+      <c r="F976" s="25"/>
+      <c r="G976" s="25"/>
+      <c r="H976" s="25"/>
+      <c r="I976" s="25"/>
+      <c r="J976" s="25"/>
+      <c r="K976" s="25"/>
+      <c r="L976" s="25"/>
+      <c r="M976" s="25"/>
+      <c r="N976" s="25"/>
+      <c r="O976" s="25"/>
+      <c r="P976" s="25"/>
+      <c r="Q976" s="25"/>
+      <c r="R976" s="25"/>
+    </row>
+    <row r="977" spans="1:18">
+      <c r="A977" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B977" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C977" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D977" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="E977" s="25"/>
+      <c r="F977" s="25"/>
+      <c r="G977" s="25"/>
+      <c r="H977" s="25"/>
+      <c r="I977" s="25"/>
+      <c r="J977" s="25"/>
+      <c r="K977" s="25"/>
+      <c r="L977" s="25"/>
+      <c r="M977" s="25"/>
+      <c r="N977" s="25"/>
+      <c r="O977" s="25"/>
+      <c r="P977" s="25"/>
+      <c r="Q977" s="25"/>
+      <c r="R977" s="25"/>
+    </row>
+    <row r="978" spans="1:18">
+      <c r="A978" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B978" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C978" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D978" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E978" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F978" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G978" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H978" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I978" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J978" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K978" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L978" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M978" s="25"/>
+      <c r="N978" s="25"/>
+      <c r="O978" s="25"/>
+      <c r="P978" s="25"/>
+      <c r="Q978" s="25"/>
+      <c r="R978" s="25"/>
+    </row>
+    <row r="979" spans="1:18">
+      <c r="A979" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B979" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C979" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="D979" s="25">
+        <v>197287</v>
+      </c>
+      <c r="E979" s="25">
+        <v>2</v>
+      </c>
+      <c r="F979" s="27">
+        <v>1450321</v>
+      </c>
+      <c r="G979" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="H979" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="I979" s="28">
+        <v>1600718</v>
+      </c>
+      <c r="J979" s="25">
+        <v>3</v>
+      </c>
+      <c r="K979" s="25">
+        <v>12.71</v>
+      </c>
+      <c r="L979" s="25">
+        <v>931.24</v>
+      </c>
+      <c r="M979" s="25"/>
+      <c r="N979" s="25"/>
+      <c r="O979" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P979" s="25"/>
+      <c r="Q979" s="25"/>
+      <c r="R979" s="25"/>
+    </row>
+    <row r="980" spans="1:18">
+      <c r="A980" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B980" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C980" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="D980" s="25">
+        <v>197287</v>
+      </c>
+      <c r="E980" s="25">
+        <v>2</v>
+      </c>
+      <c r="F980" s="27">
+        <v>1450322</v>
+      </c>
+      <c r="G980" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="H980" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="I980" s="28">
+        <v>1600718</v>
+      </c>
+      <c r="J980" s="25">
+        <v>1</v>
+      </c>
+      <c r="K980" s="25">
+        <v>2</v>
+      </c>
+      <c r="L980" s="25">
+        <v>94.62</v>
+      </c>
+      <c r="M980" s="25"/>
+      <c r="N980" s="25"/>
+      <c r="O980" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P980" s="25"/>
+      <c r="Q980" s="25"/>
+      <c r="R980" s="25"/>
+    </row>
+    <row r="981" spans="1:18">
+      <c r="A981" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B981" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C981" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="D981" s="25">
+        <v>197287</v>
+      </c>
+      <c r="E981" s="25">
+        <v>2</v>
+      </c>
+      <c r="F981" s="27">
+        <v>1450323</v>
+      </c>
+      <c r="G981" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="H981" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="I981" s="28">
+        <v>1600718</v>
+      </c>
+      <c r="J981" s="25">
+        <v>5</v>
+      </c>
+      <c r="K981" s="25">
+        <v>14.45</v>
+      </c>
+      <c r="L981" s="25">
+        <v>649.88</v>
+      </c>
+      <c r="M981" s="25"/>
+      <c r="N981" s="25"/>
+      <c r="O981" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P981" s="25"/>
+      <c r="Q981" s="25"/>
+      <c r="R981" s="25"/>
+    </row>
+    <row r="982" spans="1:18">
+      <c r="A982" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B982" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C982" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="D982" s="25">
+        <v>197287</v>
+      </c>
+      <c r="E982" s="25">
+        <v>2</v>
+      </c>
+      <c r="F982" s="27">
+        <v>1450324</v>
+      </c>
+      <c r="G982" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="H982" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="I982" s="28">
+        <v>1600718</v>
+      </c>
+      <c r="J982" s="25">
+        <v>3</v>
+      </c>
+      <c r="K982" s="25">
+        <v>5.38</v>
+      </c>
+      <c r="L982" s="25">
+        <v>464.88</v>
+      </c>
+      <c r="M982" s="25"/>
+      <c r="N982" s="25"/>
+      <c r="O982" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P982" s="25"/>
+      <c r="Q982" s="25"/>
+      <c r="R982" s="25"/>
+    </row>
+    <row r="983" spans="1:18">
+      <c r="A983" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B983" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C983" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="D983" s="25">
+        <v>197305</v>
+      </c>
+      <c r="E983" s="25">
+        <v>2</v>
+      </c>
+      <c r="F983" s="27">
+        <v>1453645</v>
+      </c>
+      <c r="G983" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="H983" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="I983" s="28">
+        <v>1602596</v>
+      </c>
+      <c r="J983" s="25">
+        <v>1</v>
+      </c>
+      <c r="K983" s="25">
+        <v>3.04</v>
+      </c>
+      <c r="L983" s="25">
+        <v>126.19</v>
+      </c>
+      <c r="M983" s="25"/>
+      <c r="N983" s="25"/>
+      <c r="O983" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P983" s="25"/>
+      <c r="Q983" s="25"/>
+      <c r="R983" s="25"/>
+    </row>
+    <row r="984" spans="1:18">
+      <c r="A984" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B984" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C984" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="D984" s="25">
+        <v>197305</v>
+      </c>
+      <c r="E984" s="25">
+        <v>2</v>
+      </c>
+      <c r="F984" s="27">
+        <v>1453646</v>
+      </c>
+      <c r="G984" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="H984" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="I984" s="28">
+        <v>1602596</v>
+      </c>
+      <c r="J984" s="25">
+        <v>22</v>
+      </c>
+      <c r="K984" s="25">
+        <v>56.98</v>
+      </c>
+      <c r="L984" s="31">
+        <v>3264.55</v>
+      </c>
+      <c r="M984" s="25"/>
+      <c r="N984" s="25"/>
+      <c r="O984" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P984" s="25"/>
+      <c r="Q984" s="25"/>
+      <c r="R984" s="25"/>
+    </row>
+    <row r="985" spans="1:18">
+      <c r="A985" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B985" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C985" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="D985" s="25">
+        <v>197425</v>
+      </c>
+      <c r="E985" s="25">
+        <v>2</v>
+      </c>
+      <c r="F985" s="27">
+        <v>1460091</v>
+      </c>
+      <c r="G985" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="H985" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="I985" s="28">
+        <v>1603646</v>
+      </c>
+      <c r="J985" s="25">
+        <v>3</v>
+      </c>
+      <c r="K985" s="25">
+        <v>13.44</v>
+      </c>
+      <c r="L985" s="25">
+        <v>938.8</v>
+      </c>
+      <c r="M985" s="25"/>
+      <c r="N985" s="25"/>
+      <c r="O985" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P985" s="25"/>
+      <c r="Q985" s="25"/>
+      <c r="R985" s="25"/>
+    </row>
+    <row r="986" spans="1:18">
+      <c r="A986" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B986" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C986" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="D986" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E986" s="25">
+        <v>2</v>
+      </c>
+      <c r="F986" s="27">
+        <v>1460418</v>
+      </c>
+      <c r="G986" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="H986" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="I986" s="28">
+        <v>1603760</v>
+      </c>
+      <c r="J986" s="25">
+        <v>11</v>
+      </c>
+      <c r="K986" s="25">
+        <v>15.94</v>
+      </c>
+      <c r="L986" s="25">
+        <v>699.08</v>
+      </c>
+      <c r="M986" s="25"/>
+      <c r="N986" s="25"/>
+      <c r="O986" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P986" s="25"/>
+      <c r="Q986" s="25"/>
+      <c r="R986" s="25"/>
+    </row>
+    <row r="987" spans="1:18">
+      <c r="A987" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B987" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C987" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="D987" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E987" s="25">
+        <v>2</v>
+      </c>
+      <c r="F987" s="27">
+        <v>1460419</v>
+      </c>
+      <c r="G987" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="H987" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="I987" s="28">
+        <v>1603760</v>
+      </c>
+      <c r="J987" s="25">
+        <v>3</v>
+      </c>
+      <c r="K987" s="25">
+        <v>13.44</v>
+      </c>
+      <c r="L987" s="25">
+        <v>938.8</v>
+      </c>
+      <c r="M987" s="25"/>
+      <c r="N987" s="25"/>
+      <c r="O987" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P987" s="25"/>
+      <c r="Q987" s="25"/>
+      <c r="R987" s="25"/>
+    </row>
+    <row r="988" spans="1:18">
+      <c r="A988" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B988" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C988" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="D988" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E988" s="25">
+        <v>2</v>
+      </c>
+      <c r="F988" s="27">
+        <v>1460420</v>
+      </c>
+      <c r="G988" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="H988" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="I988" s="28">
+        <v>1603760</v>
+      </c>
+      <c r="J988" s="25">
+        <v>2</v>
+      </c>
+      <c r="K988" s="25">
+        <v>5.94</v>
+      </c>
+      <c r="L988" s="25">
+        <v>314.55</v>
+      </c>
+      <c r="M988" s="25"/>
+      <c r="N988" s="25"/>
+      <c r="O988" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P988" s="25"/>
+      <c r="Q988" s="25"/>
+      <c r="R988" s="25"/>
+    </row>
+    <row r="989" spans="1:18">
+      <c r="A989" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B989" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C989" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="D989" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E989" s="25">
+        <v>2</v>
+      </c>
+      <c r="F989" s="27">
+        <v>1460538</v>
+      </c>
+      <c r="G989" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="H989" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="I989" s="28">
+        <v>1603779</v>
+      </c>
+      <c r="J989" s="25">
+        <v>13</v>
+      </c>
+      <c r="K989" s="25">
+        <v>18.82</v>
+      </c>
+      <c r="L989" s="25">
+        <v>826.19</v>
+      </c>
+      <c r="M989" s="25"/>
+      <c r="N989" s="25"/>
+      <c r="O989" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P989" s="25"/>
+      <c r="Q989" s="25"/>
+      <c r="R989" s="25"/>
+    </row>
+    <row r="990" spans="1:18">
+      <c r="A990" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B990" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C990" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="D990" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E990" s="25">
+        <v>2</v>
+      </c>
+      <c r="F990" s="27">
+        <v>1460539</v>
+      </c>
+      <c r="G990" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="H990" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="I990" s="28">
+        <v>1603779</v>
+      </c>
+      <c r="J990" s="25">
+        <v>5</v>
+      </c>
+      <c r="K990" s="25">
+        <v>22.4</v>
+      </c>
+      <c r="L990" s="31">
+        <v>1564.65</v>
+      </c>
+      <c r="M990" s="25"/>
+      <c r="N990" s="25"/>
+      <c r="O990" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P990" s="25"/>
+      <c r="Q990" s="25"/>
+      <c r="R990" s="25"/>
+    </row>
+    <row r="991" spans="1:18">
+      <c r="A991" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B991" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C991" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="D991" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E991" s="25">
+        <v>2</v>
+      </c>
+      <c r="F991" s="27">
+        <v>1460540</v>
+      </c>
+      <c r="G991" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="H991" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="I991" s="28">
+        <v>1603779</v>
+      </c>
+      <c r="J991" s="25">
+        <v>3</v>
+      </c>
+      <c r="K991" s="25">
+        <v>7.79</v>
+      </c>
+      <c r="L991" s="25">
+        <v>404.13</v>
+      </c>
+      <c r="M991" s="25"/>
+      <c r="N991" s="25"/>
+      <c r="O991" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P991" s="25"/>
+      <c r="Q991" s="25"/>
+      <c r="R991" s="25"/>
+    </row>
+    <row r="992" spans="1:18">
+      <c r="A992" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B992" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C992" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="D992" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E992" s="25">
+        <v>2</v>
+      </c>
+      <c r="F992" s="27">
+        <v>1460600</v>
+      </c>
+      <c r="G992" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="H992" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="I992" s="28">
+        <v>1603784</v>
+      </c>
+      <c r="J992" s="25">
+        <v>8</v>
+      </c>
+      <c r="K992" s="25">
+        <v>11.51</v>
+      </c>
+      <c r="L992" s="25">
+        <v>508.43</v>
+      </c>
+      <c r="M992" s="25"/>
+      <c r="N992" s="25"/>
+      <c r="O992" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P992" s="25"/>
+      <c r="Q992" s="25"/>
+      <c r="R992" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O29 O31:O79 O81:O204">

--- a/planilhaderotascc19.xlsx
+++ b/planilhaderotascc19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27813"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Robo-Baixa-Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_A83E597D702693C2E552E180EFAE55EF9C0ADDBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B51CC87-04CB-43CE-BDC8-50BD778569F9}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_A83E597D702693C2E552E180EFAE55EF9C0ADDBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3159D2E9-D0C4-4925-A23B-40A64206405C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5606" uniqueCount="510">
   <si>
     <t>Data</t>
   </si>
@@ -1489,6 +1489,84 @@
   <si>
     <t>LUCIO &amp; SCIGLIANO COM DE CHOCOLATES</t>
   </si>
+  <si>
+    <t>41.629.813/0001-22</t>
+  </si>
+  <si>
+    <t>CACAU VILA COMERCIO CHOCOLATES LTDA</t>
+  </si>
+  <si>
+    <t>41.800.981/0001-39</t>
+  </si>
+  <si>
+    <t>PERUCHI E MONTEIRO CHOCOLATES LTDA</t>
+  </si>
+  <si>
+    <t>43.542.016/0001-39</t>
+  </si>
+  <si>
+    <t>NM PERUCHI CHOCOLATES LTDA</t>
+  </si>
+  <si>
+    <t>45.353.932/0001-56</t>
+  </si>
+  <si>
+    <t>LP CHOCOLATERIA LTDA</t>
+  </si>
+  <si>
+    <t>17.611.014/0269-68</t>
+  </si>
+  <si>
+    <t>47.976.653/0001-74</t>
+  </si>
+  <si>
+    <t>A E C COMERCIO DE DOCES LTDA</t>
+  </si>
+  <si>
+    <t>48.057.841/0001-61</t>
+  </si>
+  <si>
+    <t>MONTEIRO E PERUCHI CHOCOLATES LTDA</t>
+  </si>
+  <si>
+    <t>39.566.980/0001-20</t>
+  </si>
+  <si>
+    <t>39 566 980 GLAUCUS CAVAGIONI</t>
+  </si>
+  <si>
+    <t>MDF-e: 1/2/210.044</t>
+  </si>
+  <si>
+    <t>17.002.681/0001-20</t>
+  </si>
+  <si>
+    <t>GUILHERME BARALDI ME</t>
+  </si>
+  <si>
+    <t>LIMEIRA</t>
+  </si>
+  <si>
+    <t>17.765.277/0001-08</t>
+  </si>
+  <si>
+    <t>RODRIGO QUEIROZ FRANCO ME</t>
+  </si>
+  <si>
+    <t>IRACEMAPOLIS</t>
+  </si>
+  <si>
+    <t>32.989.390/0001-60</t>
+  </si>
+  <si>
+    <t>CAROLINE SCHERRER</t>
+  </si>
+  <si>
+    <t>41.928.605/0001-24</t>
+  </si>
+  <si>
+    <t>MZB CHOCOLATES LTDA</t>
+  </si>
 </sst>
 </file>
 
@@ -1657,9 +1735,9 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2670,10 +2748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T992"/>
+  <dimension ref="A1:T1072"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A929" workbookViewId="0">
-      <selection activeCell="A942" sqref="A942"/>
+    <sheetView tabSelected="1" topLeftCell="A1065" workbookViewId="0">
+      <selection activeCell="A1073" sqref="A1073"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44526,2332 +44604,6002 @@
       <c r="R942" s="19"/>
     </row>
     <row r="943" spans="1:18">
-      <c r="A943" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B943" s="25" t="s">
+      <c r="A943" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B943" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C943" s="25" t="s">
+      <c r="C943" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D943" s="25">
+      <c r="D943" s="19">
         <v>197570</v>
       </c>
-      <c r="E943" s="25">
-        <v>2</v>
-      </c>
-      <c r="F943" s="27">
+      <c r="E943" s="19">
+        <v>2</v>
+      </c>
+      <c r="F943" s="21">
         <v>1469028</v>
       </c>
-      <c r="G943" s="25" t="s">
+      <c r="G943" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="H943" s="25" t="s">
+      <c r="H943" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I943" s="28">
+      <c r="I943" s="22">
         <v>1605407</v>
       </c>
-      <c r="J943" s="25">
+      <c r="J943" s="19">
         <v>4</v>
       </c>
-      <c r="K943" s="25">
+      <c r="K943" s="19">
         <v>7.47</v>
       </c>
-      <c r="L943" s="25">
+      <c r="L943" s="19">
         <v>874.45</v>
       </c>
-      <c r="M943" s="25" t="s">
+      <c r="M943" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N943" s="29"/>
-      <c r="O943" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P943" s="25"/>
-      <c r="Q943" s="25"/>
-      <c r="R943" s="25"/>
+      <c r="N943" s="19"/>
+      <c r="O943" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P943" s="19"/>
+      <c r="Q943" s="19"/>
+      <c r="R943" s="19"/>
     </row>
     <row r="944" spans="1:18">
-      <c r="A944" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B944" s="25" t="s">
+      <c r="A944" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B944" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C944" s="25" t="s">
+      <c r="C944" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D944" s="25">
+      <c r="D944" s="19">
         <v>197570</v>
       </c>
-      <c r="E944" s="25">
-        <v>2</v>
-      </c>
-      <c r="F944" s="27">
+      <c r="E944" s="19">
+        <v>2</v>
+      </c>
+      <c r="F944" s="21">
         <v>1469029</v>
       </c>
-      <c r="G944" s="25" t="s">
+      <c r="G944" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="H944" s="25" t="s">
+      <c r="H944" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I944" s="28">
+      <c r="I944" s="22">
         <v>1605407</v>
       </c>
-      <c r="J944" s="25">
+      <c r="J944" s="19">
         <v>1</v>
       </c>
-      <c r="K944" s="25">
+      <c r="K944" s="19">
         <v>2.25</v>
       </c>
-      <c r="L944" s="25">
+      <c r="L944" s="19">
         <v>208.31</v>
       </c>
-      <c r="M944" s="25" t="s">
+      <c r="M944" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N944" s="29"/>
-      <c r="O944" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P944" s="25"/>
-      <c r="Q944" s="25"/>
-      <c r="R944" s="25"/>
+      <c r="N944" s="19"/>
+      <c r="O944" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P944" s="19"/>
+      <c r="Q944" s="19"/>
+      <c r="R944" s="19"/>
     </row>
     <row r="945" spans="1:18">
-      <c r="A945" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B945" s="25" t="s">
+      <c r="A945" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B945" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C945" s="25" t="s">
+      <c r="C945" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="D945" s="25">
+      <c r="D945" s="19">
         <v>197570</v>
       </c>
-      <c r="E945" s="25">
-        <v>2</v>
-      </c>
-      <c r="F945" s="27">
+      <c r="E945" s="19">
+        <v>2</v>
+      </c>
+      <c r="F945" s="21">
         <v>1469087</v>
       </c>
-      <c r="G945" s="25" t="s">
+      <c r="G945" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="H945" s="25" t="s">
+      <c r="H945" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I945" s="28">
+      <c r="I945" s="22">
         <v>1605422</v>
       </c>
-      <c r="J945" s="25">
+      <c r="J945" s="19">
         <v>7</v>
       </c>
-      <c r="K945" s="25">
+      <c r="K945" s="19">
         <v>13.13</v>
       </c>
-      <c r="L945" s="31">
+      <c r="L945" s="24">
         <v>1312.59</v>
       </c>
-      <c r="M945" s="25" t="s">
+      <c r="M945" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N945" s="29"/>
-      <c r="O945" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P945" s="25"/>
-      <c r="Q945" s="25"/>
-      <c r="R945" s="25"/>
+      <c r="N945" s="19"/>
+      <c r="O945" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P945" s="19"/>
+      <c r="Q945" s="19"/>
+      <c r="R945" s="19"/>
     </row>
     <row r="946" spans="1:18">
-      <c r="A946" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B946" s="25" t="s">
+      <c r="A946" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B946" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C946" s="25" t="s">
+      <c r="C946" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="D946" s="25">
+      <c r="D946" s="19">
         <v>197570</v>
       </c>
-      <c r="E946" s="25">
-        <v>2</v>
-      </c>
-      <c r="F946" s="27">
+      <c r="E946" s="19">
+        <v>2</v>
+      </c>
+      <c r="F946" s="21">
         <v>1469088</v>
       </c>
-      <c r="G946" s="25" t="s">
+      <c r="G946" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="H946" s="25" t="s">
+      <c r="H946" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I946" s="28">
+      <c r="I946" s="22">
         <v>1605422</v>
       </c>
-      <c r="J946" s="25">
+      <c r="J946" s="19">
         <v>5</v>
       </c>
-      <c r="K946" s="25">
+      <c r="K946" s="19">
         <v>14.01</v>
       </c>
-      <c r="L946" s="25">
+      <c r="L946" s="19">
         <v>669.61</v>
       </c>
-      <c r="M946" s="25" t="s">
+      <c r="M946" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N946" s="29"/>
-      <c r="O946" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P946" s="25"/>
-      <c r="Q946" s="25"/>
-      <c r="R946" s="25"/>
+      <c r="N946" s="19"/>
+      <c r="O946" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P946" s="19"/>
+      <c r="Q946" s="19"/>
+      <c r="R946" s="19"/>
     </row>
     <row r="947" spans="1:18">
-      <c r="A947" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B947" s="25" t="s">
+      <c r="A947" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B947" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C947" s="25" t="s">
+      <c r="C947" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="D947" s="25">
+      <c r="D947" s="19">
         <v>197570</v>
       </c>
-      <c r="E947" s="25">
-        <v>2</v>
-      </c>
-      <c r="F947" s="27">
+      <c r="E947" s="19">
+        <v>2</v>
+      </c>
+      <c r="F947" s="21">
         <v>1469089</v>
       </c>
-      <c r="G947" s="25" t="s">
+      <c r="G947" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="H947" s="25" t="s">
+      <c r="H947" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I947" s="28">
+      <c r="I947" s="22">
         <v>1605422</v>
       </c>
-      <c r="J947" s="25">
+      <c r="J947" s="19">
         <v>3</v>
       </c>
-      <c r="K947" s="25">
+      <c r="K947" s="19">
         <v>3.96</v>
       </c>
-      <c r="L947" s="25">
+      <c r="L947" s="19">
         <v>190.66</v>
       </c>
-      <c r="M947" s="25" t="s">
+      <c r="M947" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N947" s="29"/>
-      <c r="O947" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P947" s="25"/>
-      <c r="Q947" s="25"/>
-      <c r="R947" s="25"/>
+      <c r="N947" s="19"/>
+      <c r="O947" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P947" s="19"/>
+      <c r="Q947" s="19"/>
+      <c r="R947" s="19"/>
     </row>
     <row r="948" spans="1:18">
-      <c r="A948" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B948" s="25" t="s">
+      <c r="A948" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B948" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C948" s="25" t="s">
+      <c r="C948" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="D948" s="25">
+      <c r="D948" s="19">
         <v>197570</v>
       </c>
-      <c r="E948" s="25">
-        <v>2</v>
-      </c>
-      <c r="F948" s="27">
+      <c r="E948" s="19">
+        <v>2</v>
+      </c>
+      <c r="F948" s="21">
         <v>1469090</v>
       </c>
-      <c r="G948" s="25" t="s">
+      <c r="G948" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="H948" s="25" t="s">
+      <c r="H948" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I948" s="28">
+      <c r="I948" s="22">
         <v>1605422</v>
       </c>
-      <c r="J948" s="25">
+      <c r="J948" s="19">
         <v>19</v>
       </c>
-      <c r="K948" s="25">
+      <c r="K948" s="19">
         <v>49.7</v>
       </c>
-      <c r="L948" s="31">
+      <c r="L948" s="24">
         <v>2721.37</v>
       </c>
-      <c r="M948" s="25" t="s">
+      <c r="M948" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N948" s="29"/>
-      <c r="O948" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P948" s="25"/>
-      <c r="Q948" s="25"/>
-      <c r="R948" s="25"/>
+      <c r="N948" s="19"/>
+      <c r="O948" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P948" s="19"/>
+      <c r="Q948" s="19"/>
+      <c r="R948" s="19"/>
     </row>
     <row r="949" spans="1:18">
-      <c r="A949" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B949" s="25" t="s">
+      <c r="A949" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B949" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C949" s="25" t="s">
+      <c r="C949" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="D949" s="25">
+      <c r="D949" s="19">
         <v>197570</v>
       </c>
-      <c r="E949" s="25">
-        <v>2</v>
-      </c>
-      <c r="F949" s="27">
+      <c r="E949" s="19">
+        <v>2</v>
+      </c>
+      <c r="F949" s="21">
         <v>1469097</v>
       </c>
-      <c r="G949" s="25" t="s">
+      <c r="G949" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="H949" s="25" t="s">
+      <c r="H949" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I949" s="28">
+      <c r="I949" s="22">
         <v>1605559</v>
       </c>
-      <c r="J949" s="25">
+      <c r="J949" s="19">
         <v>6</v>
       </c>
-      <c r="K949" s="25">
+      <c r="K949" s="19">
         <v>11.21</v>
       </c>
-      <c r="L949" s="31">
+      <c r="L949" s="24">
         <v>1157.6300000000001</v>
       </c>
-      <c r="M949" s="25" t="s">
+      <c r="M949" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N949" s="29"/>
-      <c r="O949" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P949" s="25"/>
-      <c r="Q949" s="25"/>
-      <c r="R949" s="25"/>
+      <c r="N949" s="19"/>
+      <c r="O949" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P949" s="19"/>
+      <c r="Q949" s="19"/>
+      <c r="R949" s="19"/>
     </row>
     <row r="950" spans="1:18">
-      <c r="A950" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B950" s="25" t="s">
+      <c r="A950" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B950" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C950" s="25" t="s">
+      <c r="C950" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="D950" s="25">
+      <c r="D950" s="19">
         <v>197570</v>
       </c>
-      <c r="E950" s="25">
-        <v>2</v>
-      </c>
-      <c r="F950" s="27">
+      <c r="E950" s="19">
+        <v>2</v>
+      </c>
+      <c r="F950" s="21">
         <v>1469098</v>
       </c>
-      <c r="G950" s="25" t="s">
+      <c r="G950" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="H950" s="25" t="s">
+      <c r="H950" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I950" s="28">
+      <c r="I950" s="22">
         <v>1605559</v>
       </c>
-      <c r="J950" s="25">
+      <c r="J950" s="19">
         <v>1</v>
       </c>
-      <c r="K950" s="25">
+      <c r="K950" s="19">
         <v>2.25</v>
       </c>
-      <c r="L950" s="25">
+      <c r="L950" s="19">
         <v>208.31</v>
       </c>
-      <c r="M950" s="25" t="s">
+      <c r="M950" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N950" s="29"/>
-      <c r="O950" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P950" s="25"/>
-      <c r="Q950" s="25"/>
-      <c r="R950" s="25"/>
+      <c r="N950" s="19"/>
+      <c r="O950" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P950" s="19"/>
+      <c r="Q950" s="19"/>
+      <c r="R950" s="19"/>
     </row>
     <row r="951" spans="1:18">
-      <c r="A951" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B951" s="25" t="s">
+      <c r="A951" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B951" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C951" s="25" t="s">
+      <c r="C951" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="D951" s="25">
+      <c r="D951" s="19">
         <v>197570</v>
       </c>
-      <c r="E951" s="25">
-        <v>2</v>
-      </c>
-      <c r="F951" s="27">
+      <c r="E951" s="19">
+        <v>2</v>
+      </c>
+      <c r="F951" s="21">
         <v>1469104</v>
       </c>
-      <c r="G951" s="25" t="s">
+      <c r="G951" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="H951" s="25" t="s">
+      <c r="H951" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I951" s="28">
+      <c r="I951" s="22">
         <v>1605427</v>
       </c>
-      <c r="J951" s="25">
+      <c r="J951" s="19">
         <v>3</v>
       </c>
-      <c r="K951" s="25">
+      <c r="K951" s="19">
         <v>5.61</v>
       </c>
-      <c r="L951" s="25">
+      <c r="L951" s="19">
         <v>501.79</v>
       </c>
-      <c r="M951" s="25" t="s">
+      <c r="M951" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N951" s="29"/>
-      <c r="O951" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P951" s="25"/>
-      <c r="Q951" s="25"/>
-      <c r="R951" s="25"/>
+      <c r="N951" s="19"/>
+      <c r="O951" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P951" s="19"/>
+      <c r="Q951" s="19"/>
+      <c r="R951" s="19"/>
     </row>
     <row r="952" spans="1:18">
-      <c r="A952" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B952" s="25" t="s">
+      <c r="A952" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B952" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C952" s="25" t="s">
+      <c r="C952" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="D952" s="25">
+      <c r="D952" s="19">
         <v>197570</v>
       </c>
-      <c r="E952" s="25">
-        <v>2</v>
-      </c>
-      <c r="F952" s="27">
+      <c r="E952" s="19">
+        <v>2</v>
+      </c>
+      <c r="F952" s="21">
         <v>1469105</v>
       </c>
-      <c r="G952" s="25" t="s">
+      <c r="G952" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="H952" s="25" t="s">
+      <c r="H952" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I952" s="28">
+      <c r="I952" s="22">
         <v>1605427</v>
       </c>
-      <c r="J952" s="25">
+      <c r="J952" s="19">
         <v>1</v>
       </c>
-      <c r="K952" s="25">
+      <c r="K952" s="19">
         <v>2.0699999999999998</v>
       </c>
-      <c r="L952" s="25">
+      <c r="L952" s="19">
         <v>154.96</v>
       </c>
-      <c r="M952" s="25" t="s">
+      <c r="M952" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N952" s="29"/>
-      <c r="O952" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P952" s="25"/>
-      <c r="Q952" s="25"/>
-      <c r="R952" s="25"/>
+      <c r="N952" s="19"/>
+      <c r="O952" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P952" s="19"/>
+      <c r="Q952" s="19"/>
+      <c r="R952" s="19"/>
     </row>
     <row r="953" spans="1:18">
-      <c r="A953" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B953" s="25" t="s">
+      <c r="A953" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B953" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C953" s="25" t="s">
+      <c r="C953" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="D953" s="25">
+      <c r="D953" s="19">
         <v>197570</v>
       </c>
-      <c r="E953" s="25">
-        <v>2</v>
-      </c>
-      <c r="F953" s="27">
+      <c r="E953" s="19">
+        <v>2</v>
+      </c>
+      <c r="F953" s="21">
         <v>1469106</v>
       </c>
-      <c r="G953" s="25" t="s">
+      <c r="G953" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="H953" s="25" t="s">
+      <c r="H953" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I953" s="28">
+      <c r="I953" s="22">
         <v>1605427</v>
       </c>
-      <c r="J953" s="25">
-        <v>2</v>
-      </c>
-      <c r="K953" s="25">
+      <c r="J953" s="19">
+        <v>2</v>
+      </c>
+      <c r="K953" s="19">
         <v>5.22</v>
       </c>
-      <c r="L953" s="25">
+      <c r="L953" s="19">
         <v>365.59</v>
       </c>
-      <c r="M953" s="25" t="s">
+      <c r="M953" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N953" s="29"/>
-      <c r="O953" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P953" s="25"/>
-      <c r="Q953" s="25"/>
-      <c r="R953" s="25"/>
+      <c r="N953" s="19"/>
+      <c r="O953" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P953" s="19"/>
+      <c r="Q953" s="19"/>
+      <c r="R953" s="19"/>
     </row>
     <row r="954" spans="1:18">
-      <c r="A954" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B954" s="25" t="s">
+      <c r="A954" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B954" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C954" s="25" t="s">
+      <c r="C954" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="D954" s="25">
+      <c r="D954" s="19">
         <v>197570</v>
       </c>
-      <c r="E954" s="25">
-        <v>2</v>
-      </c>
-      <c r="F954" s="27">
+      <c r="E954" s="19">
+        <v>2</v>
+      </c>
+      <c r="F954" s="21">
         <v>1469144</v>
       </c>
-      <c r="G954" s="25" t="s">
+      <c r="G954" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H954" s="25" t="s">
+      <c r="H954" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="I954" s="28">
+      <c r="I954" s="22">
         <v>1605450</v>
       </c>
-      <c r="J954" s="25">
+      <c r="J954" s="19">
         <v>5</v>
       </c>
-      <c r="K954" s="25">
+      <c r="K954" s="19">
         <v>9.73</v>
       </c>
-      <c r="L954" s="25">
+      <c r="L954" s="19">
         <v>928.71</v>
       </c>
-      <c r="M954" s="25" t="s">
+      <c r="M954" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N954" s="29"/>
-      <c r="O954" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P954" s="25"/>
-      <c r="Q954" s="25"/>
-      <c r="R954" s="25"/>
+      <c r="N954" s="19"/>
+      <c r="O954" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P954" s="19"/>
+      <c r="Q954" s="19"/>
+      <c r="R954" s="19"/>
     </row>
     <row r="955" spans="1:18">
-      <c r="A955" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B955" s="25" t="s">
+      <c r="A955" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B955" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C955" s="25" t="s">
+      <c r="C955" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="D955" s="25">
+      <c r="D955" s="19">
         <v>197570</v>
       </c>
-      <c r="E955" s="25">
-        <v>2</v>
-      </c>
-      <c r="F955" s="27">
+      <c r="E955" s="19">
+        <v>2</v>
+      </c>
+      <c r="F955" s="21">
         <v>1469146</v>
       </c>
-      <c r="G955" s="25" t="s">
+      <c r="G955" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H955" s="25" t="s">
+      <c r="H955" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="I955" s="28">
+      <c r="I955" s="22">
         <v>1605478</v>
       </c>
-      <c r="J955" s="25">
+      <c r="J955" s="19">
         <v>4</v>
       </c>
-      <c r="K955" s="25">
+      <c r="K955" s="19">
         <v>7.86</v>
       </c>
-      <c r="L955" s="25">
+      <c r="L955" s="19">
         <v>710.1</v>
       </c>
-      <c r="M955" s="25" t="s">
+      <c r="M955" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N955" s="29"/>
-      <c r="O955" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P955" s="25"/>
-      <c r="Q955" s="25"/>
-      <c r="R955" s="25"/>
+      <c r="N955" s="19"/>
+      <c r="O955" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P955" s="19"/>
+      <c r="Q955" s="19"/>
+      <c r="R955" s="19"/>
     </row>
     <row r="956" spans="1:18">
-      <c r="A956" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B956" s="25" t="s">
+      <c r="A956" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B956" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C956" s="25" t="s">
+      <c r="C956" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="D956" s="25">
+      <c r="D956" s="19">
         <v>197570</v>
       </c>
-      <c r="E956" s="25">
-        <v>2</v>
-      </c>
-      <c r="F956" s="27">
+      <c r="E956" s="19">
+        <v>2</v>
+      </c>
+      <c r="F956" s="21">
         <v>1469153</v>
       </c>
-      <c r="G956" s="25" t="s">
+      <c r="G956" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="H956" s="25" t="s">
+      <c r="H956" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="I956" s="28">
+      <c r="I956" s="22">
         <v>1605460</v>
       </c>
-      <c r="J956" s="25">
+      <c r="J956" s="19">
         <v>5</v>
       </c>
-      <c r="K956" s="25">
+      <c r="K956" s="19">
         <v>14.01</v>
       </c>
-      <c r="L956" s="25">
+      <c r="L956" s="19">
         <v>669.61</v>
       </c>
-      <c r="M956" s="25" t="s">
+      <c r="M956" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N956" s="29"/>
-      <c r="O956" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P956" s="25"/>
-      <c r="Q956" s="25"/>
-      <c r="R956" s="25"/>
+      <c r="N956" s="19"/>
+      <c r="O956" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P956" s="19"/>
+      <c r="Q956" s="19"/>
+      <c r="R956" s="19"/>
     </row>
     <row r="957" spans="1:18">
-      <c r="A957" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B957" s="25" t="s">
+      <c r="A957" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B957" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C957" s="25" t="s">
+      <c r="C957" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="D957" s="25">
+      <c r="D957" s="19">
         <v>197570</v>
       </c>
-      <c r="E957" s="25">
-        <v>2</v>
-      </c>
-      <c r="F957" s="27">
+      <c r="E957" s="19">
+        <v>2</v>
+      </c>
+      <c r="F957" s="21">
         <v>1469154</v>
       </c>
-      <c r="G957" s="25" t="s">
+      <c r="G957" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="H957" s="25" t="s">
+      <c r="H957" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="I957" s="28">
+      <c r="I957" s="22">
         <v>1605460</v>
       </c>
-      <c r="J957" s="25">
+      <c r="J957" s="19">
         <v>4</v>
       </c>
-      <c r="K957" s="25">
+      <c r="K957" s="19">
         <v>7.53</v>
       </c>
-      <c r="L957" s="25">
+      <c r="L957" s="19">
         <v>656.75</v>
       </c>
-      <c r="M957" s="25" t="s">
+      <c r="M957" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N957" s="29"/>
-      <c r="O957" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P957" s="25"/>
-      <c r="Q957" s="25"/>
-      <c r="R957" s="25"/>
+      <c r="N957" s="19"/>
+      <c r="O957" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P957" s="19"/>
+      <c r="Q957" s="19"/>
+      <c r="R957" s="19"/>
     </row>
     <row r="958" spans="1:18">
-      <c r="A958" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B958" s="25" t="s">
+      <c r="A958" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B958" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C958" s="25" t="s">
+      <c r="C958" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="D958" s="25">
+      <c r="D958" s="19">
         <v>197570</v>
       </c>
-      <c r="E958" s="25">
-        <v>2</v>
-      </c>
-      <c r="F958" s="27">
+      <c r="E958" s="19">
+        <v>2</v>
+      </c>
+      <c r="F958" s="21">
         <v>1469155</v>
       </c>
-      <c r="G958" s="25" t="s">
+      <c r="G958" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="H958" s="25" t="s">
+      <c r="H958" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="I958" s="28">
+      <c r="I958" s="22">
         <v>1605460</v>
       </c>
-      <c r="J958" s="25">
+      <c r="J958" s="19">
         <v>19</v>
       </c>
-      <c r="K958" s="25">
+      <c r="K958" s="19">
         <v>49.7</v>
       </c>
-      <c r="L958" s="31">
+      <c r="L958" s="24">
         <v>2721.37</v>
       </c>
-      <c r="M958" s="25" t="s">
+      <c r="M958" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N958" s="29"/>
-      <c r="O958" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P958" s="25"/>
-      <c r="Q958" s="25"/>
-      <c r="R958" s="25"/>
+      <c r="N958" s="19"/>
+      <c r="O958" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P958" s="19"/>
+      <c r="Q958" s="19"/>
+      <c r="R958" s="19"/>
     </row>
     <row r="959" spans="1:18">
-      <c r="A959" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B959" s="25" t="s">
+      <c r="A959" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B959" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C959" s="25" t="s">
+      <c r="C959" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="D959" s="25">
+      <c r="D959" s="19">
         <v>197570</v>
       </c>
-      <c r="E959" s="25">
-        <v>2</v>
-      </c>
-      <c r="F959" s="27">
+      <c r="E959" s="19">
+        <v>2</v>
+      </c>
+      <c r="F959" s="21">
         <v>1469222</v>
       </c>
-      <c r="G959" s="25" t="s">
+      <c r="G959" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="H959" s="25" t="s">
+      <c r="H959" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="I959" s="28">
+      <c r="I959" s="22">
         <v>1605571</v>
       </c>
-      <c r="J959" s="25">
+      <c r="J959" s="19">
         <v>5</v>
       </c>
-      <c r="K959" s="25">
+      <c r="K959" s="19">
         <v>13.35</v>
       </c>
-      <c r="L959" s="25">
+      <c r="L959" s="19">
         <v>915.05</v>
       </c>
-      <c r="M959" s="25" t="s">
+      <c r="M959" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N959" s="29"/>
-      <c r="O959" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P959" s="25"/>
-      <c r="Q959" s="25"/>
-      <c r="R959" s="25"/>
+      <c r="N959" s="19"/>
+      <c r="O959" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P959" s="19"/>
+      <c r="Q959" s="19"/>
+      <c r="R959" s="19"/>
     </row>
     <row r="960" spans="1:18">
-      <c r="A960" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B960" s="25" t="s">
+      <c r="A960" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B960" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C960" s="25" t="s">
+      <c r="C960" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="D960" s="25">
+      <c r="D960" s="19">
         <v>197570</v>
       </c>
-      <c r="E960" s="25">
-        <v>2</v>
-      </c>
-      <c r="F960" s="27">
+      <c r="E960" s="19">
+        <v>2</v>
+      </c>
+      <c r="F960" s="21">
         <v>1469223</v>
       </c>
-      <c r="G960" s="25" t="s">
+      <c r="G960" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="H960" s="25" t="s">
+      <c r="H960" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="I960" s="28">
+      <c r="I960" s="22">
         <v>1605571</v>
       </c>
-      <c r="J960" s="25">
+      <c r="J960" s="19">
         <v>1</v>
       </c>
-      <c r="K960" s="25">
+      <c r="K960" s="19">
         <v>3.04</v>
       </c>
-      <c r="L960" s="25">
+      <c r="L960" s="19">
         <v>125.57</v>
       </c>
-      <c r="M960" s="25" t="s">
+      <c r="M960" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N960" s="29"/>
-      <c r="O960" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P960" s="25"/>
-      <c r="Q960" s="25"/>
-      <c r="R960" s="25"/>
+      <c r="N960" s="19"/>
+      <c r="O960" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P960" s="19"/>
+      <c r="Q960" s="19"/>
+      <c r="R960" s="19"/>
     </row>
     <row r="961" spans="1:18">
-      <c r="A961" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B961" s="25" t="s">
+      <c r="A961" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B961" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C961" s="25" t="s">
+      <c r="C961" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="D961" s="25">
+      <c r="D961" s="19">
         <v>197570</v>
       </c>
-      <c r="E961" s="25">
-        <v>2</v>
-      </c>
-      <c r="F961" s="27">
+      <c r="E961" s="19">
+        <v>2</v>
+      </c>
+      <c r="F961" s="21">
         <v>1469224</v>
       </c>
-      <c r="G961" s="25" t="s">
+      <c r="G961" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="H961" s="25" t="s">
+      <c r="H961" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="I961" s="28">
+      <c r="I961" s="22">
         <v>1605571</v>
       </c>
-      <c r="J961" s="25">
+      <c r="J961" s="19">
         <v>1</v>
       </c>
-      <c r="K961" s="25">
+      <c r="K961" s="19">
         <v>2.25</v>
       </c>
-      <c r="L961" s="25">
+      <c r="L961" s="19">
         <v>208.31</v>
       </c>
-      <c r="M961" s="25" t="s">
+      <c r="M961" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N961" s="29"/>
-      <c r="O961" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P961" s="25"/>
-      <c r="Q961" s="25"/>
-      <c r="R961" s="25"/>
+      <c r="N961" s="19"/>
+      <c r="O961" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P961" s="19"/>
+      <c r="Q961" s="19"/>
+      <c r="R961" s="19"/>
     </row>
     <row r="962" spans="1:18">
-      <c r="A962" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B962" s="25" t="s">
+      <c r="A962" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B962" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C962" s="25" t="s">
+      <c r="C962" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="D962" s="25">
+      <c r="D962" s="19">
         <v>197570</v>
       </c>
-      <c r="E962" s="25">
-        <v>2</v>
-      </c>
-      <c r="F962" s="27">
+      <c r="E962" s="19">
+        <v>2</v>
+      </c>
+      <c r="F962" s="21">
         <v>1469225</v>
       </c>
-      <c r="G962" s="25" t="s">
+      <c r="G962" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="H962" s="25" t="s">
+      <c r="H962" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="I962" s="28">
+      <c r="I962" s="22">
         <v>1605571</v>
       </c>
-      <c r="J962" s="25">
-        <v>2</v>
-      </c>
-      <c r="K962" s="25">
+      <c r="J962" s="19">
+        <v>2</v>
+      </c>
+      <c r="K962" s="19">
         <v>3.75</v>
       </c>
-      <c r="L962" s="25">
+      <c r="L962" s="19">
         <v>129.13</v>
       </c>
-      <c r="M962" s="25" t="s">
+      <c r="M962" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N962" s="29"/>
-      <c r="O962" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P962" s="25"/>
-      <c r="Q962" s="25"/>
-      <c r="R962" s="25"/>
+      <c r="N962" s="19"/>
+      <c r="O962" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P962" s="19"/>
+      <c r="Q962" s="19"/>
+      <c r="R962" s="19"/>
     </row>
     <row r="963" spans="1:18">
-      <c r="A963" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B963" s="25" t="s">
+      <c r="A963" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B963" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C963" s="25" t="s">
+      <c r="C963" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="D963" s="25">
+      <c r="D963" s="19">
         <v>197570</v>
       </c>
-      <c r="E963" s="25">
-        <v>2</v>
-      </c>
-      <c r="F963" s="27">
+      <c r="E963" s="19">
+        <v>2</v>
+      </c>
+      <c r="F963" s="21">
         <v>1469226</v>
       </c>
-      <c r="G963" s="25" t="s">
+      <c r="G963" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="H963" s="25" t="s">
+      <c r="H963" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I963" s="28">
+      <c r="I963" s="22">
         <v>1605573</v>
       </c>
-      <c r="J963" s="25">
-        <v>2</v>
-      </c>
-      <c r="K963" s="25">
+      <c r="J963" s="19">
+        <v>2</v>
+      </c>
+      <c r="K963" s="19">
         <v>6.01</v>
       </c>
-      <c r="L963" s="25">
+      <c r="L963" s="19">
         <v>255.26</v>
       </c>
-      <c r="M963" s="25" t="s">
+      <c r="M963" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N963" s="29"/>
-      <c r="O963" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P963" s="25"/>
-      <c r="Q963" s="25"/>
-      <c r="R963" s="25"/>
+      <c r="N963" s="19"/>
+      <c r="O963" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P963" s="19"/>
+      <c r="Q963" s="19"/>
+      <c r="R963" s="19"/>
     </row>
     <row r="964" spans="1:18">
-      <c r="A964" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B964" s="25" t="s">
+      <c r="A964" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B964" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C964" s="25" t="s">
+      <c r="C964" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="D964" s="25">
+      <c r="D964" s="19">
         <v>197570</v>
       </c>
-      <c r="E964" s="25">
-        <v>2</v>
-      </c>
-      <c r="F964" s="27">
+      <c r="E964" s="19">
+        <v>2</v>
+      </c>
+      <c r="F964" s="21">
         <v>1469227</v>
       </c>
-      <c r="G964" s="25" t="s">
+      <c r="G964" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="H964" s="25" t="s">
+      <c r="H964" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I964" s="28">
+      <c r="I964" s="22">
         <v>1605573</v>
       </c>
-      <c r="J964" s="25">
+      <c r="J964" s="19">
         <v>5</v>
       </c>
-      <c r="K964" s="25">
+      <c r="K964" s="19">
         <v>9.27</v>
       </c>
-      <c r="L964" s="25">
+      <c r="L964" s="19">
         <v>657.66</v>
       </c>
-      <c r="M964" s="25" t="s">
+      <c r="M964" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N964" s="29"/>
-      <c r="O964" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P964" s="25"/>
-      <c r="Q964" s="25"/>
-      <c r="R964" s="25"/>
+      <c r="N964" s="19"/>
+      <c r="O964" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P964" s="19"/>
+      <c r="Q964" s="19"/>
+      <c r="R964" s="19"/>
     </row>
     <row r="965" spans="1:18">
-      <c r="A965" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B965" s="25" t="s">
+      <c r="A965" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B965" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C965" s="25" t="s">
+      <c r="C965" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="D965" s="25">
+      <c r="D965" s="19">
         <v>197570</v>
       </c>
-      <c r="E965" s="25">
-        <v>2</v>
-      </c>
-      <c r="F965" s="27">
+      <c r="E965" s="19">
+        <v>2</v>
+      </c>
+      <c r="F965" s="21">
         <v>1469228</v>
       </c>
-      <c r="G965" s="25" t="s">
+      <c r="G965" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="H965" s="25" t="s">
+      <c r="H965" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I965" s="28">
+      <c r="I965" s="22">
         <v>1605573</v>
       </c>
-      <c r="J965" s="25">
-        <v>2</v>
-      </c>
-      <c r="K965" s="25">
+      <c r="J965" s="19">
+        <v>2</v>
+      </c>
+      <c r="K965" s="19">
         <v>3.94</v>
       </c>
-      <c r="L965" s="25">
+      <c r="L965" s="19">
         <v>294.99</v>
       </c>
-      <c r="M965" s="25" t="s">
+      <c r="M965" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N965" s="29"/>
-      <c r="O965" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P965" s="25"/>
-      <c r="Q965" s="25"/>
-      <c r="R965" s="25"/>
+      <c r="N965" s="19"/>
+      <c r="O965" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P965" s="19"/>
+      <c r="Q965" s="19"/>
+      <c r="R965" s="19"/>
     </row>
     <row r="966" spans="1:18">
-      <c r="A966" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B966" s="25" t="s">
+      <c r="A966" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B966" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C966" s="25" t="s">
+      <c r="C966" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="D966" s="25">
+      <c r="D966" s="19">
         <v>197570</v>
       </c>
-      <c r="E966" s="25">
-        <v>2</v>
-      </c>
-      <c r="F966" s="27">
+      <c r="E966" s="19">
+        <v>2</v>
+      </c>
+      <c r="F966" s="21">
         <v>1469241</v>
       </c>
-      <c r="G966" s="25" t="s">
+      <c r="G966" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="H966" s="25" t="s">
+      <c r="H966" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="I966" s="28">
+      <c r="I966" s="22">
         <v>1605584</v>
       </c>
-      <c r="J966" s="25">
+      <c r="J966" s="19">
         <v>21</v>
       </c>
-      <c r="K966" s="25">
+      <c r="K966" s="19">
         <v>50.39</v>
       </c>
-      <c r="L966" s="31">
+      <c r="L966" s="24">
         <v>2590.34</v>
       </c>
-      <c r="M966" s="25" t="s">
+      <c r="M966" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N966" s="29"/>
-      <c r="O966" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P966" s="25"/>
-      <c r="Q966" s="25"/>
-      <c r="R966" s="25"/>
+      <c r="N966" s="19"/>
+      <c r="O966" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P966" s="19"/>
+      <c r="Q966" s="19"/>
+      <c r="R966" s="19"/>
     </row>
     <row r="967" spans="1:18">
-      <c r="A967" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B967" s="25" t="s">
+      <c r="A967" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B967" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C967" s="25" t="s">
+      <c r="C967" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="D967" s="25">
+      <c r="D967" s="19">
         <v>197570</v>
       </c>
-      <c r="E967" s="25">
-        <v>2</v>
-      </c>
-      <c r="F967" s="27">
+      <c r="E967" s="19">
+        <v>2</v>
+      </c>
+      <c r="F967" s="21">
         <v>1469300</v>
       </c>
-      <c r="G967" s="25" t="s">
+      <c r="G967" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="H967" s="25" t="s">
+      <c r="H967" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I967" s="28">
+      <c r="I967" s="22">
         <v>1605335</v>
       </c>
-      <c r="J967" s="25">
+      <c r="J967" s="19">
         <v>10</v>
       </c>
-      <c r="K967" s="25">
+      <c r="K967" s="19">
         <v>18.71</v>
       </c>
-      <c r="L967" s="31">
+      <c r="L967" s="24">
         <v>1569.93</v>
       </c>
-      <c r="M967" s="25" t="s">
+      <c r="M967" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N967" s="29"/>
-      <c r="O967" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P967" s="25"/>
-      <c r="Q967" s="25"/>
-      <c r="R967" s="25"/>
+      <c r="N967" s="19"/>
+      <c r="O967" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P967" s="19"/>
+      <c r="Q967" s="19"/>
+      <c r="R967" s="19"/>
     </row>
     <row r="968" spans="1:18">
-      <c r="A968" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B968" s="25" t="s">
+      <c r="A968" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B968" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C968" s="25" t="s">
+      <c r="C968" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="D968" s="25">
+      <c r="D968" s="19">
         <v>197570</v>
       </c>
-      <c r="E968" s="25">
-        <v>2</v>
-      </c>
-      <c r="F968" s="27">
+      <c r="E968" s="19">
+        <v>2</v>
+      </c>
+      <c r="F968" s="21">
         <v>1469301</v>
       </c>
-      <c r="G968" s="25" t="s">
+      <c r="G968" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="H968" s="25" t="s">
+      <c r="H968" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I968" s="28">
+      <c r="I968" s="22">
         <v>1605335</v>
       </c>
-      <c r="J968" s="25">
+      <c r="J968" s="19">
         <v>1</v>
       </c>
-      <c r="K968" s="25">
+      <c r="K968" s="19">
         <v>3.51</v>
       </c>
-      <c r="L968" s="25">
+      <c r="L968" s="19">
         <v>200.27</v>
       </c>
-      <c r="M968" s="25" t="s">
+      <c r="M968" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N968" s="29"/>
-      <c r="O968" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P968" s="25"/>
-      <c r="Q968" s="25"/>
-      <c r="R968" s="25"/>
+      <c r="N968" s="19"/>
+      <c r="O968" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P968" s="19"/>
+      <c r="Q968" s="19"/>
+      <c r="R968" s="19"/>
     </row>
     <row r="969" spans="1:18">
-      <c r="A969" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B969" s="25" t="s">
+      <c r="A969" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B969" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C969" s="25" t="s">
+      <c r="C969" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="D969" s="25">
+      <c r="D969" s="19">
         <v>197570</v>
       </c>
-      <c r="E969" s="25">
-        <v>2</v>
-      </c>
-      <c r="F969" s="27">
+      <c r="E969" s="19">
+        <v>2</v>
+      </c>
+      <c r="F969" s="21">
         <v>1469302</v>
       </c>
-      <c r="G969" s="25" t="s">
+      <c r="G969" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="H969" s="25" t="s">
+      <c r="H969" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I969" s="28">
+      <c r="I969" s="22">
         <v>1605335</v>
       </c>
-      <c r="J969" s="25">
-        <v>2</v>
-      </c>
-      <c r="K969" s="25">
+      <c r="J969" s="19">
+        <v>2</v>
+      </c>
+      <c r="K969" s="19">
         <v>4.09</v>
       </c>
-      <c r="L969" s="25">
+      <c r="L969" s="19">
         <v>297.89</v>
       </c>
-      <c r="M969" s="25" t="s">
+      <c r="M969" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N969" s="29"/>
-      <c r="O969" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P969" s="25"/>
-      <c r="Q969" s="25"/>
-      <c r="R969" s="25"/>
+      <c r="N969" s="19"/>
+      <c r="O969" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P969" s="19"/>
+      <c r="Q969" s="19"/>
+      <c r="R969" s="19"/>
     </row>
     <row r="970" spans="1:18">
-      <c r="A970" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B970" s="25" t="s">
+      <c r="A970" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B970" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C970" s="25" t="s">
+      <c r="C970" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="D970" s="25">
+      <c r="D970" s="19">
         <v>197570</v>
       </c>
-      <c r="E970" s="25">
-        <v>2</v>
-      </c>
-      <c r="F970" s="27">
+      <c r="E970" s="19">
+        <v>2</v>
+      </c>
+      <c r="F970" s="21">
         <v>1469343</v>
       </c>
-      <c r="G970" s="25" t="s">
+      <c r="G970" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="H970" s="25" t="s">
+      <c r="H970" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="I970" s="28">
+      <c r="I970" s="22">
         <v>1605359</v>
       </c>
-      <c r="J970" s="25">
+      <c r="J970" s="19">
         <v>3</v>
       </c>
-      <c r="K970" s="25">
+      <c r="K970" s="19">
         <v>5.6</v>
       </c>
-      <c r="L970" s="25">
+      <c r="L970" s="19">
         <v>655.83</v>
       </c>
-      <c r="M970" s="25" t="s">
+      <c r="M970" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N970" s="29"/>
-      <c r="O970" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P970" s="25"/>
-      <c r="Q970" s="25"/>
-      <c r="R970" s="25"/>
+      <c r="N970" s="19"/>
+      <c r="O970" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P970" s="19"/>
+      <c r="Q970" s="19"/>
+      <c r="R970" s="19"/>
     </row>
     <row r="971" spans="1:18">
-      <c r="A971" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B971" s="25" t="s">
+      <c r="A971" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B971" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C971" s="25" t="s">
+      <c r="C971" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="D971" s="25">
+      <c r="D971" s="19">
         <v>197570</v>
       </c>
-      <c r="E971" s="25">
-        <v>2</v>
-      </c>
-      <c r="F971" s="27">
+      <c r="E971" s="19">
+        <v>2</v>
+      </c>
+      <c r="F971" s="21">
         <v>1469344</v>
       </c>
-      <c r="G971" s="25" t="s">
+      <c r="G971" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="H971" s="25" t="s">
+      <c r="H971" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="I971" s="28">
+      <c r="I971" s="22">
         <v>1605359</v>
       </c>
-      <c r="J971" s="25">
+      <c r="J971" s="19">
         <v>1</v>
       </c>
-      <c r="K971" s="25">
+      <c r="K971" s="19">
         <v>3.51</v>
       </c>
-      <c r="L971" s="25">
+      <c r="L971" s="19">
         <v>200.27</v>
       </c>
-      <c r="M971" s="25" t="s">
+      <c r="M971" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N971" s="29"/>
-      <c r="O971" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P971" s="25"/>
-      <c r="Q971" s="25"/>
-      <c r="R971" s="25"/>
+      <c r="N971" s="19"/>
+      <c r="O971" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P971" s="19"/>
+      <c r="Q971" s="19"/>
+      <c r="R971" s="19"/>
     </row>
     <row r="972" spans="1:18">
-      <c r="A972" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B972" s="25" t="s">
+      <c r="A972" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B972" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C972" s="25" t="s">
+      <c r="C972" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="D972" s="25">
+      <c r="D972" s="19">
         <v>197570</v>
       </c>
-      <c r="E972" s="25">
-        <v>2</v>
-      </c>
-      <c r="F972" s="27">
+      <c r="E972" s="19">
+        <v>2</v>
+      </c>
+      <c r="F972" s="21">
         <v>1469345</v>
       </c>
-      <c r="G972" s="25" t="s">
+      <c r="G972" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="H972" s="25" t="s">
+      <c r="H972" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="I972" s="28">
+      <c r="I972" s="22">
         <v>1605359</v>
       </c>
-      <c r="J972" s="25">
+      <c r="J972" s="19">
         <v>6</v>
       </c>
-      <c r="K972" s="25">
+      <c r="K972" s="19">
         <v>10.99</v>
       </c>
-      <c r="L972" s="25">
+      <c r="L972" s="19">
         <v>647.51</v>
       </c>
-      <c r="M972" s="25" t="s">
+      <c r="M972" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N972" s="29"/>
-      <c r="O972" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P972" s="25"/>
-      <c r="Q972" s="25"/>
-      <c r="R972" s="25"/>
+      <c r="N972" s="19"/>
+      <c r="O972" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P972" s="19"/>
+      <c r="Q972" s="19"/>
+      <c r="R972" s="19"/>
     </row>
     <row r="973" spans="1:18">
-      <c r="A973" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B973" s="25" t="s">
+      <c r="A973" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B973" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C973" s="25" t="s">
+      <c r="C973" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D973" s="25">
+      <c r="D973" s="19">
         <v>197570</v>
       </c>
-      <c r="E973" s="25">
-        <v>2</v>
-      </c>
-      <c r="F973" s="27">
+      <c r="E973" s="19">
+        <v>2</v>
+      </c>
+      <c r="F973" s="21">
         <v>1469462</v>
       </c>
-      <c r="G973" s="25" t="s">
+      <c r="G973" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="H973" s="25" t="s">
+      <c r="H973" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I973" s="28">
+      <c r="I973" s="22">
         <v>1605353</v>
       </c>
-      <c r="J973" s="25">
+      <c r="J973" s="19">
         <v>6</v>
       </c>
-      <c r="K973" s="25">
+      <c r="K973" s="19">
         <v>11.23</v>
       </c>
-      <c r="L973" s="25">
+      <c r="L973" s="19">
         <v>849.53</v>
       </c>
-      <c r="M973" s="25" t="s">
+      <c r="M973" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N973" s="29"/>
-      <c r="O973" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P973" s="25"/>
-      <c r="Q973" s="25"/>
-      <c r="R973" s="25"/>
+      <c r="N973" s="19"/>
+      <c r="O973" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P973" s="19"/>
+      <c r="Q973" s="19"/>
+      <c r="R973" s="19"/>
     </row>
     <row r="974" spans="1:18">
-      <c r="A974" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B974" s="25" t="s">
+      <c r="A974" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B974" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C974" s="25" t="s">
+      <c r="C974" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D974" s="25">
+      <c r="D974" s="19">
         <v>197570</v>
       </c>
-      <c r="E974" s="25">
-        <v>2</v>
-      </c>
-      <c r="F974" s="27">
+      <c r="E974" s="19">
+        <v>2</v>
+      </c>
+      <c r="F974" s="21">
         <v>1469463</v>
       </c>
-      <c r="G974" s="25" t="s">
+      <c r="G974" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="H974" s="25" t="s">
+      <c r="H974" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I974" s="28">
+      <c r="I974" s="22">
         <v>1605353</v>
       </c>
-      <c r="J974" s="25">
-        <v>2</v>
-      </c>
-      <c r="K974" s="25">
+      <c r="J974" s="19">
+        <v>2</v>
+      </c>
+      <c r="K974" s="19">
         <v>7.02</v>
       </c>
-      <c r="L974" s="25">
+      <c r="L974" s="19">
         <v>400.55</v>
       </c>
-      <c r="M974" s="25" t="s">
+      <c r="M974" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N974" s="29"/>
-      <c r="O974" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P974" s="25"/>
-      <c r="Q974" s="25"/>
-      <c r="R974" s="25"/>
+      <c r="N974" s="19"/>
+      <c r="O974" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P974" s="19"/>
+      <c r="Q974" s="19"/>
+      <c r="R974" s="19"/>
     </row>
     <row r="975" spans="1:18">
-      <c r="A975" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B975" s="25" t="s">
+      <c r="A975" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B975" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C975" s="25" t="s">
+      <c r="C975" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D975" s="25">
+      <c r="D975" s="19">
         <v>197570</v>
       </c>
-      <c r="E975" s="25">
-        <v>2</v>
-      </c>
-      <c r="F975" s="27">
+      <c r="E975" s="19">
+        <v>2</v>
+      </c>
+      <c r="F975" s="21">
         <v>1469464</v>
       </c>
-      <c r="G975" s="25" t="s">
+      <c r="G975" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="H975" s="25" t="s">
+      <c r="H975" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="I975" s="28">
+      <c r="I975" s="22">
         <v>1605353</v>
       </c>
-      <c r="J975" s="25">
+      <c r="J975" s="19">
         <v>3</v>
       </c>
-      <c r="K975" s="25">
+      <c r="K975" s="19">
         <v>6.35</v>
       </c>
-      <c r="L975" s="25">
+      <c r="L975" s="19">
         <v>506.2</v>
       </c>
-      <c r="M975" s="25" t="s">
+      <c r="M975" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N975" s="29"/>
-      <c r="O975" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P975" s="25"/>
-      <c r="Q975" s="25"/>
-      <c r="R975" s="25"/>
+      <c r="N975" s="19"/>
+      <c r="O975" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P975" s="19"/>
+      <c r="Q975" s="19"/>
+      <c r="R975" s="19"/>
     </row>
     <row r="976" spans="1:18">
-      <c r="A976" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B976" s="25">
+      <c r="A976" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B976" s="19">
         <v>71</v>
       </c>
-      <c r="C976" s="25">
+      <c r="C976" s="19">
         <v>764.35</v>
       </c>
-      <c r="D976" s="31">
+      <c r="D976" s="24">
         <v>46805.66</v>
       </c>
-      <c r="E976" s="25"/>
-      <c r="F976" s="25"/>
-      <c r="G976" s="25"/>
-      <c r="H976" s="25"/>
-      <c r="I976" s="25"/>
-      <c r="J976" s="25"/>
-      <c r="K976" s="25"/>
-      <c r="L976" s="25"/>
-      <c r="M976" s="25"/>
-      <c r="N976" s="25"/>
-      <c r="O976" s="25"/>
-      <c r="P976" s="25"/>
-      <c r="Q976" s="25"/>
-      <c r="R976" s="25"/>
+      <c r="E976" s="19"/>
+      <c r="F976" s="19"/>
+      <c r="G976" s="19"/>
+      <c r="H976" s="19"/>
+      <c r="I976" s="19"/>
+      <c r="J976" s="19"/>
+      <c r="K976" s="19"/>
+      <c r="L976" s="19"/>
+      <c r="M976" s="19"/>
+      <c r="N976" s="19"/>
+      <c r="O976" s="19"/>
+      <c r="P976" s="19"/>
+      <c r="Q976" s="19"/>
+      <c r="R976" s="19"/>
     </row>
     <row r="977" spans="1:18">
-      <c r="A977" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B977" s="25" t="s">
+      <c r="A977" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B977" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C977" s="25" t="s">
+      <c r="C977" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D977" s="25" t="s">
+      <c r="D977" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="E977" s="25"/>
-      <c r="F977" s="25"/>
-      <c r="G977" s="25"/>
-      <c r="H977" s="25"/>
-      <c r="I977" s="25"/>
-      <c r="J977" s="25"/>
-      <c r="K977" s="25"/>
-      <c r="L977" s="25"/>
-      <c r="M977" s="25"/>
-      <c r="N977" s="25"/>
-      <c r="O977" s="25"/>
-      <c r="P977" s="25"/>
-      <c r="Q977" s="25"/>
-      <c r="R977" s="25"/>
+      <c r="E977" s="19"/>
+      <c r="F977" s="19"/>
+      <c r="G977" s="19"/>
+      <c r="H977" s="19"/>
+      <c r="I977" s="19"/>
+      <c r="J977" s="19"/>
+      <c r="K977" s="19"/>
+      <c r="L977" s="19"/>
+      <c r="M977" s="19"/>
+      <c r="N977" s="19"/>
+      <c r="O977" s="19"/>
+      <c r="P977" s="19"/>
+      <c r="Q977" s="19"/>
+      <c r="R977" s="19"/>
     </row>
     <row r="978" spans="1:18">
-      <c r="A978" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B978" s="25" t="s">
+      <c r="A978" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B978" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C978" s="25" t="s">
+      <c r="C978" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D978" s="25" t="s">
+      <c r="D978" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E978" s="25" t="s">
+      <c r="E978" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F978" s="25" t="s">
+      <c r="F978" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G978" s="25" t="s">
+      <c r="G978" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H978" s="25" t="s">
+      <c r="H978" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I978" s="25" t="s">
+      <c r="I978" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J978" s="25" t="s">
+      <c r="J978" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K978" s="25" t="s">
+      <c r="K978" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L978" s="25" t="s">
+      <c r="L978" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M978" s="25"/>
-      <c r="N978" s="25"/>
-      <c r="O978" s="25"/>
-      <c r="P978" s="25"/>
-      <c r="Q978" s="25"/>
-      <c r="R978" s="25"/>
+      <c r="M978" s="19"/>
+      <c r="N978" s="19"/>
+      <c r="O978" s="19"/>
+      <c r="P978" s="19"/>
+      <c r="Q978" s="19"/>
+      <c r="R978" s="19"/>
     </row>
     <row r="979" spans="1:18">
-      <c r="A979" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B979" s="25" t="s">
+      <c r="A979" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B979" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C979" s="25" t="s">
+      <c r="C979" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="D979" s="25">
+      <c r="D979" s="19">
         <v>197287</v>
       </c>
-      <c r="E979" s="25">
-        <v>2</v>
-      </c>
-      <c r="F979" s="27">
+      <c r="E979" s="19">
+        <v>2</v>
+      </c>
+      <c r="F979" s="21">
         <v>1450321</v>
       </c>
-      <c r="G979" s="25" t="s">
+      <c r="G979" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="H979" s="25" t="s">
+      <c r="H979" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="I979" s="28">
+      <c r="I979" s="22">
         <v>1600718</v>
       </c>
-      <c r="J979" s="25">
+      <c r="J979" s="19">
         <v>3</v>
       </c>
-      <c r="K979" s="25">
+      <c r="K979" s="19">
         <v>12.71</v>
       </c>
-      <c r="L979" s="25">
+      <c r="L979" s="19">
         <v>931.24</v>
       </c>
-      <c r="M979" s="25"/>
-      <c r="N979" s="25"/>
-      <c r="O979" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P979" s="25"/>
-      <c r="Q979" s="25"/>
-      <c r="R979" s="25"/>
+      <c r="M979" s="19"/>
+      <c r="N979" s="19"/>
+      <c r="O979" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P979" s="19"/>
+      <c r="Q979" s="19"/>
+      <c r="R979" s="19"/>
     </row>
     <row r="980" spans="1:18">
-      <c r="A980" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B980" s="25" t="s">
+      <c r="A980" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B980" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C980" s="25" t="s">
+      <c r="C980" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="D980" s="25">
+      <c r="D980" s="19">
         <v>197287</v>
       </c>
-      <c r="E980" s="25">
-        <v>2</v>
-      </c>
-      <c r="F980" s="27">
+      <c r="E980" s="19">
+        <v>2</v>
+      </c>
+      <c r="F980" s="21">
         <v>1450322</v>
       </c>
-      <c r="G980" s="25" t="s">
+      <c r="G980" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="H980" s="25" t="s">
+      <c r="H980" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="I980" s="28">
+      <c r="I980" s="22">
         <v>1600718</v>
       </c>
-      <c r="J980" s="25">
+      <c r="J980" s="19">
         <v>1</v>
       </c>
-      <c r="K980" s="25">
-        <v>2</v>
-      </c>
-      <c r="L980" s="25">
+      <c r="K980" s="19">
+        <v>2</v>
+      </c>
+      <c r="L980" s="19">
         <v>94.62</v>
       </c>
-      <c r="M980" s="25"/>
-      <c r="N980" s="25"/>
-      <c r="O980" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P980" s="25"/>
-      <c r="Q980" s="25"/>
-      <c r="R980" s="25"/>
+      <c r="M980" s="19"/>
+      <c r="N980" s="19"/>
+      <c r="O980" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P980" s="19"/>
+      <c r="Q980" s="19"/>
+      <c r="R980" s="19"/>
     </row>
     <row r="981" spans="1:18">
-      <c r="A981" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B981" s="25" t="s">
+      <c r="A981" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B981" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C981" s="25" t="s">
+      <c r="C981" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="D981" s="25">
+      <c r="D981" s="19">
         <v>197287</v>
       </c>
-      <c r="E981" s="25">
-        <v>2</v>
-      </c>
-      <c r="F981" s="27">
+      <c r="E981" s="19">
+        <v>2</v>
+      </c>
+      <c r="F981" s="21">
         <v>1450323</v>
       </c>
-      <c r="G981" s="25" t="s">
+      <c r="G981" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="H981" s="25" t="s">
+      <c r="H981" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="I981" s="28">
+      <c r="I981" s="22">
         <v>1600718</v>
       </c>
-      <c r="J981" s="25">
+      <c r="J981" s="19">
         <v>5</v>
       </c>
-      <c r="K981" s="25">
+      <c r="K981" s="19">
         <v>14.45</v>
       </c>
-      <c r="L981" s="25">
+      <c r="L981" s="19">
         <v>649.88</v>
       </c>
-      <c r="M981" s="25"/>
-      <c r="N981" s="25"/>
-      <c r="O981" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P981" s="25"/>
-      <c r="Q981" s="25"/>
-      <c r="R981" s="25"/>
+      <c r="M981" s="19"/>
+      <c r="N981" s="19"/>
+      <c r="O981" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P981" s="19"/>
+      <c r="Q981" s="19"/>
+      <c r="R981" s="19"/>
     </row>
     <row r="982" spans="1:18">
-      <c r="A982" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B982" s="25" t="s">
+      <c r="A982" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B982" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C982" s="25" t="s">
+      <c r="C982" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="D982" s="25">
+      <c r="D982" s="19">
         <v>197287</v>
       </c>
-      <c r="E982" s="25">
-        <v>2</v>
-      </c>
-      <c r="F982" s="27">
+      <c r="E982" s="19">
+        <v>2</v>
+      </c>
+      <c r="F982" s="21">
         <v>1450324</v>
       </c>
-      <c r="G982" s="25" t="s">
+      <c r="G982" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="H982" s="25" t="s">
+      <c r="H982" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="I982" s="28">
+      <c r="I982" s="22">
         <v>1600718</v>
       </c>
-      <c r="J982" s="25">
+      <c r="J982" s="19">
         <v>3</v>
       </c>
-      <c r="K982" s="25">
+      <c r="K982" s="19">
         <v>5.38</v>
       </c>
-      <c r="L982" s="25">
+      <c r="L982" s="19">
         <v>464.88</v>
       </c>
-      <c r="M982" s="25"/>
-      <c r="N982" s="25"/>
-      <c r="O982" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P982" s="25"/>
-      <c r="Q982" s="25"/>
-      <c r="R982" s="25"/>
+      <c r="M982" s="19"/>
+      <c r="N982" s="19"/>
+      <c r="O982" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P982" s="19"/>
+      <c r="Q982" s="19"/>
+      <c r="R982" s="19"/>
     </row>
     <row r="983" spans="1:18">
-      <c r="A983" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B983" s="25" t="s">
+      <c r="A983" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B983" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C983" s="25" t="s">
+      <c r="C983" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="D983" s="25">
+      <c r="D983" s="19">
         <v>197305</v>
       </c>
-      <c r="E983" s="25">
-        <v>2</v>
-      </c>
-      <c r="F983" s="27">
+      <c r="E983" s="19">
+        <v>2</v>
+      </c>
+      <c r="F983" s="21">
         <v>1453645</v>
       </c>
-      <c r="G983" s="25" t="s">
+      <c r="G983" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="H983" s="25" t="s">
+      <c r="H983" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="I983" s="28">
+      <c r="I983" s="22">
         <v>1602596</v>
       </c>
-      <c r="J983" s="25">
+      <c r="J983" s="19">
         <v>1</v>
       </c>
-      <c r="K983" s="25">
+      <c r="K983" s="19">
         <v>3.04</v>
       </c>
-      <c r="L983" s="25">
+      <c r="L983" s="19">
         <v>126.19</v>
       </c>
-      <c r="M983" s="25"/>
-      <c r="N983" s="25"/>
-      <c r="O983" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P983" s="25"/>
-      <c r="Q983" s="25"/>
-      <c r="R983" s="25"/>
+      <c r="M983" s="19"/>
+      <c r="N983" s="19"/>
+      <c r="O983" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P983" s="19"/>
+      <c r="Q983" s="19"/>
+      <c r="R983" s="19"/>
     </row>
     <row r="984" spans="1:18">
-      <c r="A984" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B984" s="25" t="s">
+      <c r="A984" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B984" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C984" s="25" t="s">
+      <c r="C984" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="D984" s="25">
+      <c r="D984" s="19">
         <v>197305</v>
       </c>
-      <c r="E984" s="25">
-        <v>2</v>
-      </c>
-      <c r="F984" s="27">
+      <c r="E984" s="19">
+        <v>2</v>
+      </c>
+      <c r="F984" s="21">
         <v>1453646</v>
       </c>
-      <c r="G984" s="25" t="s">
+      <c r="G984" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="H984" s="25" t="s">
+      <c r="H984" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="I984" s="28">
+      <c r="I984" s="22">
         <v>1602596</v>
       </c>
-      <c r="J984" s="25">
-        <v>22</v>
-      </c>
-      <c r="K984" s="25">
+      <c r="J984" s="19">
+        <v>22</v>
+      </c>
+      <c r="K984" s="19">
         <v>56.98</v>
       </c>
-      <c r="L984" s="31">
+      <c r="L984" s="24">
         <v>3264.55</v>
       </c>
-      <c r="M984" s="25"/>
-      <c r="N984" s="25"/>
-      <c r="O984" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P984" s="25"/>
-      <c r="Q984" s="25"/>
-      <c r="R984" s="25"/>
+      <c r="M984" s="19"/>
+      <c r="N984" s="19"/>
+      <c r="O984" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P984" s="19"/>
+      <c r="Q984" s="19"/>
+      <c r="R984" s="19"/>
     </row>
     <row r="985" spans="1:18">
-      <c r="A985" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B985" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C985" s="25" t="s">
+      <c r="A985" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B985" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C985" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="D985" s="25">
+      <c r="D985" s="19">
         <v>197425</v>
       </c>
-      <c r="E985" s="25">
-        <v>2</v>
-      </c>
-      <c r="F985" s="27">
+      <c r="E985" s="19">
+        <v>2</v>
+      </c>
+      <c r="F985" s="21">
         <v>1460091</v>
       </c>
-      <c r="G985" s="25" t="s">
+      <c r="G985" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="H985" s="25" t="s">
+      <c r="H985" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="I985" s="28">
+      <c r="I985" s="22">
         <v>1603646</v>
       </c>
-      <c r="J985" s="25">
+      <c r="J985" s="19">
         <v>3</v>
       </c>
-      <c r="K985" s="25">
+      <c r="K985" s="19">
         <v>13.44</v>
       </c>
-      <c r="L985" s="25">
+      <c r="L985" s="19">
         <v>938.8</v>
       </c>
-      <c r="M985" s="25"/>
-      <c r="N985" s="25"/>
-      <c r="O985" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P985" s="25"/>
-      <c r="Q985" s="25"/>
-      <c r="R985" s="25"/>
+      <c r="M985" s="19"/>
+      <c r="N985" s="19"/>
+      <c r="O985" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P985" s="19"/>
+      <c r="Q985" s="19"/>
+      <c r="R985" s="19"/>
     </row>
     <row r="986" spans="1:18">
-      <c r="A986" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B986" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C986" s="25" t="s">
+      <c r="A986" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B986" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C986" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="D986" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E986" s="25">
-        <v>2</v>
-      </c>
-      <c r="F986" s="27">
+      <c r="D986" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E986" s="19">
+        <v>2</v>
+      </c>
+      <c r="F986" s="21">
         <v>1460418</v>
       </c>
-      <c r="G986" s="25" t="s">
+      <c r="G986" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="H986" s="25" t="s">
+      <c r="H986" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="I986" s="28">
+      <c r="I986" s="22">
         <v>1603760</v>
       </c>
-      <c r="J986" s="25">
+      <c r="J986" s="19">
         <v>11</v>
       </c>
-      <c r="K986" s="25">
+      <c r="K986" s="19">
         <v>15.94</v>
       </c>
-      <c r="L986" s="25">
+      <c r="L986" s="19">
         <v>699.08</v>
       </c>
-      <c r="M986" s="25"/>
-      <c r="N986" s="25"/>
-      <c r="O986" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P986" s="25"/>
-      <c r="Q986" s="25"/>
-      <c r="R986" s="25"/>
+      <c r="M986" s="19"/>
+      <c r="N986" s="19"/>
+      <c r="O986" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P986" s="19"/>
+      <c r="Q986" s="19"/>
+      <c r="R986" s="19"/>
     </row>
     <row r="987" spans="1:18">
-      <c r="A987" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B987" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C987" s="25" t="s">
+      <c r="A987" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B987" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C987" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="D987" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E987" s="25">
-        <v>2</v>
-      </c>
-      <c r="F987" s="27">
+      <c r="D987" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E987" s="19">
+        <v>2</v>
+      </c>
+      <c r="F987" s="21">
         <v>1460419</v>
       </c>
-      <c r="G987" s="25" t="s">
+      <c r="G987" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="H987" s="25" t="s">
+      <c r="H987" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="I987" s="28">
+      <c r="I987" s="22">
         <v>1603760</v>
       </c>
-      <c r="J987" s="25">
+      <c r="J987" s="19">
         <v>3</v>
       </c>
-      <c r="K987" s="25">
+      <c r="K987" s="19">
         <v>13.44</v>
       </c>
-      <c r="L987" s="25">
+      <c r="L987" s="19">
         <v>938.8</v>
       </c>
-      <c r="M987" s="25"/>
-      <c r="N987" s="25"/>
-      <c r="O987" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P987" s="25"/>
-      <c r="Q987" s="25"/>
-      <c r="R987" s="25"/>
+      <c r="M987" s="19"/>
+      <c r="N987" s="19"/>
+      <c r="O987" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P987" s="19"/>
+      <c r="Q987" s="19"/>
+      <c r="R987" s="19"/>
     </row>
     <row r="988" spans="1:18">
-      <c r="A988" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B988" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C988" s="25" t="s">
+      <c r="A988" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B988" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C988" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="D988" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E988" s="25">
-        <v>2</v>
-      </c>
-      <c r="F988" s="27">
+      <c r="D988" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E988" s="19">
+        <v>2</v>
+      </c>
+      <c r="F988" s="21">
         <v>1460420</v>
       </c>
-      <c r="G988" s="25" t="s">
+      <c r="G988" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="H988" s="25" t="s">
+      <c r="H988" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="I988" s="28">
+      <c r="I988" s="22">
         <v>1603760</v>
       </c>
-      <c r="J988" s="25">
-        <v>2</v>
-      </c>
-      <c r="K988" s="25">
+      <c r="J988" s="19">
+        <v>2</v>
+      </c>
+      <c r="K988" s="19">
         <v>5.94</v>
       </c>
-      <c r="L988" s="25">
+      <c r="L988" s="19">
         <v>314.55</v>
       </c>
-      <c r="M988" s="25"/>
-      <c r="N988" s="25"/>
-      <c r="O988" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P988" s="25"/>
-      <c r="Q988" s="25"/>
-      <c r="R988" s="25"/>
+      <c r="M988" s="19"/>
+      <c r="N988" s="19"/>
+      <c r="O988" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P988" s="19"/>
+      <c r="Q988" s="19"/>
+      <c r="R988" s="19"/>
     </row>
     <row r="989" spans="1:18">
-      <c r="A989" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B989" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C989" s="25" t="s">
+      <c r="A989" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B989" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C989" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="D989" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E989" s="25">
-        <v>2</v>
-      </c>
-      <c r="F989" s="27">
+      <c r="D989" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E989" s="19">
+        <v>2</v>
+      </c>
+      <c r="F989" s="21">
         <v>1460538</v>
       </c>
-      <c r="G989" s="25" t="s">
+      <c r="G989" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="H989" s="25" t="s">
+      <c r="H989" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="I989" s="28">
+      <c r="I989" s="22">
         <v>1603779</v>
       </c>
-      <c r="J989" s="25">
+      <c r="J989" s="19">
         <v>13</v>
       </c>
-      <c r="K989" s="25">
+      <c r="K989" s="19">
         <v>18.82</v>
       </c>
-      <c r="L989" s="25">
+      <c r="L989" s="19">
         <v>826.19</v>
       </c>
-      <c r="M989" s="25"/>
-      <c r="N989" s="25"/>
-      <c r="O989" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P989" s="25"/>
-      <c r="Q989" s="25"/>
-      <c r="R989" s="25"/>
+      <c r="M989" s="19"/>
+      <c r="N989" s="19"/>
+      <c r="O989" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P989" s="19"/>
+      <c r="Q989" s="19"/>
+      <c r="R989" s="19"/>
     </row>
     <row r="990" spans="1:18">
-      <c r="A990" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B990" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C990" s="25" t="s">
+      <c r="A990" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B990" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C990" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="D990" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E990" s="25">
-        <v>2</v>
-      </c>
-      <c r="F990" s="27">
+      <c r="D990" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E990" s="19">
+        <v>2</v>
+      </c>
+      <c r="F990" s="21">
         <v>1460539</v>
       </c>
-      <c r="G990" s="25" t="s">
+      <c r="G990" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="H990" s="25" t="s">
+      <c r="H990" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="I990" s="28">
+      <c r="I990" s="22">
         <v>1603779</v>
       </c>
-      <c r="J990" s="25">
+      <c r="J990" s="19">
         <v>5</v>
       </c>
-      <c r="K990" s="25">
+      <c r="K990" s="19">
         <v>22.4</v>
       </c>
-      <c r="L990" s="31">
+      <c r="L990" s="24">
         <v>1564.65</v>
       </c>
-      <c r="M990" s="25"/>
-      <c r="N990" s="25"/>
-      <c r="O990" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P990" s="25"/>
-      <c r="Q990" s="25"/>
-      <c r="R990" s="25"/>
+      <c r="M990" s="19"/>
+      <c r="N990" s="19"/>
+      <c r="O990" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P990" s="19"/>
+      <c r="Q990" s="19"/>
+      <c r="R990" s="19"/>
     </row>
     <row r="991" spans="1:18">
-      <c r="A991" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B991" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C991" s="25" t="s">
+      <c r="A991" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B991" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C991" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="D991" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E991" s="25">
-        <v>2</v>
-      </c>
-      <c r="F991" s="27">
+      <c r="D991" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E991" s="19">
+        <v>2</v>
+      </c>
+      <c r="F991" s="21">
         <v>1460540</v>
       </c>
-      <c r="G991" s="25" t="s">
+      <c r="G991" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="H991" s="25" t="s">
+      <c r="H991" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="I991" s="28">
+      <c r="I991" s="22">
         <v>1603779</v>
       </c>
-      <c r="J991" s="25">
+      <c r="J991" s="19">
         <v>3</v>
       </c>
-      <c r="K991" s="25">
+      <c r="K991" s="19">
         <v>7.79</v>
       </c>
-      <c r="L991" s="25">
+      <c r="L991" s="19">
         <v>404.13</v>
       </c>
-      <c r="M991" s="25"/>
-      <c r="N991" s="25"/>
-      <c r="O991" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P991" s="25"/>
-      <c r="Q991" s="25"/>
-      <c r="R991" s="25"/>
+      <c r="M991" s="19"/>
+      <c r="N991" s="19"/>
+      <c r="O991" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P991" s="19"/>
+      <c r="Q991" s="19"/>
+      <c r="R991" s="19"/>
     </row>
     <row r="992" spans="1:18">
-      <c r="A992" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B992" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C992" s="25" t="s">
+      <c r="A992" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B992" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C992" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="D992" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E992" s="25">
-        <v>2</v>
-      </c>
-      <c r="F992" s="27">
+      <c r="D992" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E992" s="19">
+        <v>2</v>
+      </c>
+      <c r="F992" s="21">
         <v>1460600</v>
       </c>
-      <c r="G992" s="25" t="s">
+      <c r="G992" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="H992" s="25" t="s">
+      <c r="H992" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="I992" s="28">
+      <c r="I992" s="22">
         <v>1603784</v>
       </c>
-      <c r="J992" s="25">
+      <c r="J992" s="19">
         <v>8</v>
       </c>
-      <c r="K992" s="25">
+      <c r="K992" s="19">
         <v>11.51</v>
       </c>
-      <c r="L992" s="25">
+      <c r="L992" s="19">
         <v>508.43</v>
       </c>
-      <c r="M992" s="25"/>
-      <c r="N992" s="25"/>
-      <c r="O992" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P992" s="25"/>
-      <c r="Q992" s="25"/>
-      <c r="R992" s="25"/>
+      <c r="M992" s="19"/>
+      <c r="N992" s="19"/>
+      <c r="O992" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P992" s="19"/>
+      <c r="Q992" s="19"/>
+      <c r="R992" s="19"/>
+    </row>
+    <row r="993" spans="1:18">
+      <c r="A993" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B993" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C993" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="D993" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E993" s="19">
+        <v>2</v>
+      </c>
+      <c r="F993" s="21">
+        <v>1460601</v>
+      </c>
+      <c r="G993" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="H993" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I993" s="22">
+        <v>1603784</v>
+      </c>
+      <c r="J993" s="19">
+        <v>3</v>
+      </c>
+      <c r="K993" s="19">
+        <v>13.44</v>
+      </c>
+      <c r="L993" s="19">
+        <v>938.8</v>
+      </c>
+      <c r="M993" s="19"/>
+      <c r="N993" s="19"/>
+      <c r="O993" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P993" s="19"/>
+      <c r="Q993" s="19"/>
+      <c r="R993" s="19"/>
+    </row>
+    <row r="994" spans="1:18">
+      <c r="A994" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B994" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C994" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="D994" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E994" s="19">
+        <v>2</v>
+      </c>
+      <c r="F994" s="21">
+        <v>1460602</v>
+      </c>
+      <c r="G994" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="H994" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I994" s="22">
+        <v>1603784</v>
+      </c>
+      <c r="J994" s="19">
+        <v>1</v>
+      </c>
+      <c r="K994" s="19">
+        <v>2.37</v>
+      </c>
+      <c r="L994" s="19">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="M994" s="19"/>
+      <c r="N994" s="19"/>
+      <c r="O994" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P994" s="19"/>
+      <c r="Q994" s="19"/>
+      <c r="R994" s="19"/>
+    </row>
+    <row r="995" spans="1:18">
+      <c r="A995" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B995" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C995" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="D995" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E995" s="19">
+        <v>2</v>
+      </c>
+      <c r="F995" s="21">
+        <v>1460603</v>
+      </c>
+      <c r="G995" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="H995" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I995" s="22">
+        <v>1603784</v>
+      </c>
+      <c r="J995" s="19">
+        <v>1</v>
+      </c>
+      <c r="K995" s="19">
+        <v>2.97</v>
+      </c>
+      <c r="L995" s="19">
+        <v>157.28</v>
+      </c>
+      <c r="M995" s="19"/>
+      <c r="N995" s="19"/>
+      <c r="O995" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P995" s="19"/>
+      <c r="Q995" s="19"/>
+      <c r="R995" s="19"/>
+    </row>
+    <row r="996" spans="1:18">
+      <c r="A996" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B996" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C996" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D996" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E996" s="19">
+        <v>2</v>
+      </c>
+      <c r="F996" s="21">
+        <v>1460684</v>
+      </c>
+      <c r="G996" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="H996" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I996" s="22">
+        <v>1603806</v>
+      </c>
+      <c r="J996" s="19">
+        <v>8</v>
+      </c>
+      <c r="K996" s="19">
+        <v>11.51</v>
+      </c>
+      <c r="L996" s="19">
+        <v>508.43</v>
+      </c>
+      <c r="M996" s="19"/>
+      <c r="N996" s="19"/>
+      <c r="O996" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P996" s="19"/>
+      <c r="Q996" s="19"/>
+      <c r="R996" s="19"/>
+    </row>
+    <row r="997" spans="1:18">
+      <c r="A997" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B997" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C997" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D997" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E997" s="19">
+        <v>2</v>
+      </c>
+      <c r="F997" s="21">
+        <v>1460685</v>
+      </c>
+      <c r="G997" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="H997" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I997" s="22">
+        <v>1603806</v>
+      </c>
+      <c r="J997" s="19">
+        <v>1</v>
+      </c>
+      <c r="K997" s="19">
+        <v>2.37</v>
+      </c>
+      <c r="L997" s="19">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="M997" s="19"/>
+      <c r="N997" s="19"/>
+      <c r="O997" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P997" s="19"/>
+      <c r="Q997" s="19"/>
+      <c r="R997" s="19"/>
+    </row>
+    <row r="998" spans="1:18">
+      <c r="A998" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B998" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C998" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D998" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E998" s="19">
+        <v>2</v>
+      </c>
+      <c r="F998" s="21">
+        <v>1460686</v>
+      </c>
+      <c r="G998" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="H998" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I998" s="22">
+        <v>1603806</v>
+      </c>
+      <c r="J998" s="19">
+        <v>1</v>
+      </c>
+      <c r="K998" s="19">
+        <v>2.97</v>
+      </c>
+      <c r="L998" s="19">
+        <v>157.28</v>
+      </c>
+      <c r="M998" s="19"/>
+      <c r="N998" s="19"/>
+      <c r="O998" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P998" s="19"/>
+      <c r="Q998" s="19"/>
+      <c r="R998" s="19"/>
+    </row>
+    <row r="999" spans="1:18">
+      <c r="A999" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B999" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C999" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="D999" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E999" s="19">
+        <v>2</v>
+      </c>
+      <c r="F999" s="21">
+        <v>1460694</v>
+      </c>
+      <c r="G999" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="H999" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I999" s="22">
+        <v>1603830</v>
+      </c>
+      <c r="J999" s="19">
+        <v>1</v>
+      </c>
+      <c r="K999" s="19">
+        <v>2</v>
+      </c>
+      <c r="L999" s="19">
+        <v>94.62</v>
+      </c>
+      <c r="M999" s="19"/>
+      <c r="N999" s="19"/>
+      <c r="O999" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P999" s="19"/>
+      <c r="Q999" s="19"/>
+      <c r="R999" s="19"/>
+    </row>
+    <row r="1000" spans="1:18">
+      <c r="A1000" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1000" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1000" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1000" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1000" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1000" s="21">
+        <v>1460695</v>
+      </c>
+      <c r="G1000" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1000" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1000" s="22">
+        <v>1603830</v>
+      </c>
+      <c r="J1000" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1000" s="19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L1000" s="19">
+        <v>154.96</v>
+      </c>
+      <c r="M1000" s="19"/>
+      <c r="N1000" s="19"/>
+      <c r="O1000" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1000" s="19"/>
+      <c r="Q1000" s="19"/>
+      <c r="R1000" s="19"/>
+    </row>
+    <row r="1001" spans="1:18">
+      <c r="A1001" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1001" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1001" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1001" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1001" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1001" s="21">
+        <v>1460696</v>
+      </c>
+      <c r="G1001" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1001" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1001" s="22">
+        <v>1603830</v>
+      </c>
+      <c r="J1001" s="19">
+        <v>4</v>
+      </c>
+      <c r="K1001" s="19">
+        <v>5.75</v>
+      </c>
+      <c r="L1001" s="19">
+        <v>254.21</v>
+      </c>
+      <c r="M1001" s="19"/>
+      <c r="N1001" s="19"/>
+      <c r="O1001" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1001" s="19"/>
+      <c r="Q1001" s="19"/>
+      <c r="R1001" s="19"/>
+    </row>
+    <row r="1002" spans="1:18">
+      <c r="A1002" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1002" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1002" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1002" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1002" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1002" s="21">
+        <v>1460697</v>
+      </c>
+      <c r="G1002" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1002" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1002" s="22">
+        <v>1603830</v>
+      </c>
+      <c r="J1002" s="19">
+        <v>18</v>
+      </c>
+      <c r="K1002" s="19">
+        <v>48.72</v>
+      </c>
+      <c r="L1002" s="24">
+        <v>2623.22</v>
+      </c>
+      <c r="M1002" s="19"/>
+      <c r="N1002" s="19"/>
+      <c r="O1002" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1002" s="19"/>
+      <c r="Q1002" s="19"/>
+      <c r="R1002" s="19"/>
+    </row>
+    <row r="1003" spans="1:18">
+      <c r="A1003" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1003" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1003" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1003" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1003" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1003" s="21">
+        <v>1460755</v>
+      </c>
+      <c r="G1003" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="H1003" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1003" s="22">
+        <v>1603815</v>
+      </c>
+      <c r="J1003" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1003" s="19">
+        <v>2</v>
+      </c>
+      <c r="L1003" s="19">
+        <v>94.62</v>
+      </c>
+      <c r="M1003" s="19"/>
+      <c r="N1003" s="19"/>
+      <c r="O1003" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1003" s="19"/>
+      <c r="Q1003" s="19"/>
+      <c r="R1003" s="19"/>
+    </row>
+    <row r="1004" spans="1:18">
+      <c r="A1004" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1004" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1004" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1004" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1004" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1004" s="21">
+        <v>1460756</v>
+      </c>
+      <c r="G1004" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="H1004" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1004" s="22">
+        <v>1603815</v>
+      </c>
+      <c r="J1004" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1004" s="19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L1004" s="19">
+        <v>154.96</v>
+      </c>
+      <c r="M1004" s="19"/>
+      <c r="N1004" s="19"/>
+      <c r="O1004" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1004" s="19"/>
+      <c r="Q1004" s="19"/>
+      <c r="R1004" s="19"/>
+    </row>
+    <row r="1005" spans="1:18">
+      <c r="A1005" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1005" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1005" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1005" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1005" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1005" s="21">
+        <v>1460757</v>
+      </c>
+      <c r="G1005" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="H1005" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1005" s="22">
+        <v>1603815</v>
+      </c>
+      <c r="J1005" s="19">
+        <v>6</v>
+      </c>
+      <c r="K1005" s="19">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="L1005" s="19">
+        <v>381.31</v>
+      </c>
+      <c r="M1005" s="19"/>
+      <c r="N1005" s="19"/>
+      <c r="O1005" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1005" s="19"/>
+      <c r="Q1005" s="19"/>
+      <c r="R1005" s="19"/>
+    </row>
+    <row r="1006" spans="1:18">
+      <c r="A1006" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1006" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1006" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1006" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1006" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1006" s="21">
+        <v>1460758</v>
+      </c>
+      <c r="G1006" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="H1006" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1006" s="22">
+        <v>1603815</v>
+      </c>
+      <c r="J1006" s="19">
+        <v>18</v>
+      </c>
+      <c r="K1006" s="19">
+        <v>48.72</v>
+      </c>
+      <c r="L1006" s="24">
+        <v>2623.22</v>
+      </c>
+      <c r="M1006" s="19"/>
+      <c r="N1006" s="19"/>
+      <c r="O1006" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1006" s="19"/>
+      <c r="Q1006" s="19"/>
+      <c r="R1006" s="19"/>
+    </row>
+    <row r="1007" spans="1:18">
+      <c r="A1007" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1007" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1007" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1007" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1007" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1007" s="21">
+        <v>1460809</v>
+      </c>
+      <c r="G1007" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="H1007" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1007" s="22">
+        <v>1603827</v>
+      </c>
+      <c r="J1007" s="19">
+        <v>6</v>
+      </c>
+      <c r="K1007" s="19">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="L1007" s="19">
+        <v>381.32</v>
+      </c>
+      <c r="M1007" s="19"/>
+      <c r="N1007" s="19"/>
+      <c r="O1007" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1007" s="19"/>
+      <c r="Q1007" s="19"/>
+      <c r="R1007" s="19"/>
+    </row>
+    <row r="1008" spans="1:18">
+      <c r="A1008" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1008" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1008" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1008" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1008" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1008" s="21">
+        <v>1460810</v>
+      </c>
+      <c r="G1008" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="H1008" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1008" s="22">
+        <v>1603827</v>
+      </c>
+      <c r="J1008" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1008" s="19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L1008" s="19">
+        <v>154.96</v>
+      </c>
+      <c r="M1008" s="19"/>
+      <c r="N1008" s="19"/>
+      <c r="O1008" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1008" s="19"/>
+      <c r="Q1008" s="19"/>
+      <c r="R1008" s="19"/>
+    </row>
+    <row r="1009" spans="1:18">
+      <c r="A1009" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1009" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1009" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1009" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1009" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1009" s="21">
+        <v>1460811</v>
+      </c>
+      <c r="G1009" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="H1009" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1009" s="22">
+        <v>1603827</v>
+      </c>
+      <c r="J1009" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1009" s="19">
+        <v>2.97</v>
+      </c>
+      <c r="L1009" s="19">
+        <v>157.28</v>
+      </c>
+      <c r="M1009" s="19"/>
+      <c r="N1009" s="19"/>
+      <c r="O1009" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1009" s="19"/>
+      <c r="Q1009" s="19"/>
+      <c r="R1009" s="19"/>
+    </row>
+    <row r="1010" spans="1:18">
+      <c r="A1010" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1010" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1010" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1010" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1010" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1010" s="21">
+        <v>1460812</v>
+      </c>
+      <c r="G1010" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1010" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1010" s="22">
+        <v>1603887</v>
+      </c>
+      <c r="J1010" s="19">
+        <v>51</v>
+      </c>
+      <c r="K1010" s="19">
+        <v>90.75</v>
+      </c>
+      <c r="L1010" s="24">
+        <v>4630.51</v>
+      </c>
+      <c r="M1010" s="19"/>
+      <c r="N1010" s="19"/>
+      <c r="O1010" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1010" s="19"/>
+      <c r="Q1010" s="19"/>
+      <c r="R1010" s="19"/>
+    </row>
+    <row r="1011" spans="1:18">
+      <c r="A1011" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1011" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1011" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1011" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1011" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1011" s="21">
+        <v>1460830</v>
+      </c>
+      <c r="G1011" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H1011" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="I1011" s="22">
+        <v>1603834</v>
+      </c>
+      <c r="J1011" s="19">
+        <v>7</v>
+      </c>
+      <c r="K1011" s="19">
+        <v>10.19</v>
+      </c>
+      <c r="L1011" s="19">
+        <v>444.88</v>
+      </c>
+      <c r="M1011" s="19"/>
+      <c r="N1011" s="19"/>
+      <c r="O1011" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1011" s="19"/>
+      <c r="Q1011" s="19"/>
+      <c r="R1011" s="19"/>
+    </row>
+    <row r="1012" spans="1:18">
+      <c r="A1012" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1012" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1012" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1012" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1012" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1012" s="21">
+        <v>1460831</v>
+      </c>
+      <c r="G1012" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H1012" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="I1012" s="22">
+        <v>1603834</v>
+      </c>
+      <c r="J1012" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1012" s="19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L1012" s="19">
+        <v>154.96</v>
+      </c>
+      <c r="M1012" s="19"/>
+      <c r="N1012" s="19"/>
+      <c r="O1012" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1012" s="19"/>
+      <c r="Q1012" s="19"/>
+      <c r="R1012" s="19"/>
+    </row>
+    <row r="1013" spans="1:18">
+      <c r="A1013" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1013" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1013" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1013" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1013" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1013" s="21">
+        <v>1460832</v>
+      </c>
+      <c r="G1013" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H1013" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="I1013" s="22">
+        <v>1603834</v>
+      </c>
+      <c r="J1013" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1013" s="19">
+        <v>2.97</v>
+      </c>
+      <c r="L1013" s="19">
+        <v>157.28</v>
+      </c>
+      <c r="M1013" s="19"/>
+      <c r="N1013" s="19"/>
+      <c r="O1013" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1013" s="19"/>
+      <c r="Q1013" s="19"/>
+      <c r="R1013" s="19"/>
+    </row>
+    <row r="1014" spans="1:18">
+      <c r="A1014" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1014" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1014" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1014" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1014" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1014" s="21">
+        <v>1460863</v>
+      </c>
+      <c r="G1014" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="H1014" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1014" s="22">
+        <v>1603840</v>
+      </c>
+      <c r="J1014" s="19">
+        <v>3</v>
+      </c>
+      <c r="K1014" s="19">
+        <v>4.43</v>
+      </c>
+      <c r="L1014" s="19">
+        <v>167.67</v>
+      </c>
+      <c r="M1014" s="19"/>
+      <c r="N1014" s="19"/>
+      <c r="O1014" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1014" s="19"/>
+      <c r="Q1014" s="19"/>
+      <c r="R1014" s="19"/>
+    </row>
+    <row r="1015" spans="1:18">
+      <c r="A1015" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1015" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1015" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1015" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1015" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1015" s="21">
+        <v>1460864</v>
+      </c>
+      <c r="G1015" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="H1015" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1015" s="22">
+        <v>1603840</v>
+      </c>
+      <c r="J1015" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1015" s="19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L1015" s="19">
+        <v>142.56</v>
+      </c>
+      <c r="M1015" s="19"/>
+      <c r="N1015" s="19"/>
+      <c r="O1015" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1015" s="19"/>
+      <c r="Q1015" s="19"/>
+      <c r="R1015" s="19"/>
+    </row>
+    <row r="1016" spans="1:18">
+      <c r="A1016" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1016" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1016" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1016" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1016" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1016" s="21">
+        <v>1460865</v>
+      </c>
+      <c r="G1016" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="H1016" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1016" s="22">
+        <v>1603840</v>
+      </c>
+      <c r="J1016" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1016" s="19">
+        <v>2.97</v>
+      </c>
+      <c r="L1016" s="19">
+        <v>138.4</v>
+      </c>
+      <c r="M1016" s="19"/>
+      <c r="N1016" s="19"/>
+      <c r="O1016" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1016" s="19"/>
+      <c r="Q1016" s="19"/>
+      <c r="R1016" s="19"/>
+    </row>
+    <row r="1017" spans="1:18">
+      <c r="A1017" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1017" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1017" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1017" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1017" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1017" s="21">
+        <v>1460882</v>
+      </c>
+      <c r="G1017" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1017" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1017" s="22">
+        <v>1603839</v>
+      </c>
+      <c r="J1017" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1017" s="19">
+        <v>2</v>
+      </c>
+      <c r="L1017" s="19">
+        <v>94.62</v>
+      </c>
+      <c r="M1017" s="19"/>
+      <c r="N1017" s="19"/>
+      <c r="O1017" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1017" s="19"/>
+      <c r="Q1017" s="19"/>
+      <c r="R1017" s="19"/>
+    </row>
+    <row r="1018" spans="1:18">
+      <c r="A1018" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1018" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1018" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1018" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1018" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1018" s="21">
+        <v>1460883</v>
+      </c>
+      <c r="G1018" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1018" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1018" s="22">
+        <v>1603839</v>
+      </c>
+      <c r="J1018" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1018" s="19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L1018" s="19">
+        <v>154.96</v>
+      </c>
+      <c r="M1018" s="19"/>
+      <c r="N1018" s="19"/>
+      <c r="O1018" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1018" s="19"/>
+      <c r="Q1018" s="19"/>
+      <c r="R1018" s="19"/>
+    </row>
+    <row r="1019" spans="1:18">
+      <c r="A1019" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1019" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1019" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1019" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1019" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1019" s="21">
+        <v>1460884</v>
+      </c>
+      <c r="G1019" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1019" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1019" s="22">
+        <v>1603839</v>
+      </c>
+      <c r="J1019" s="19">
+        <v>7</v>
+      </c>
+      <c r="K1019" s="19">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="L1019" s="19">
+        <v>444.86</v>
+      </c>
+      <c r="M1019" s="19"/>
+      <c r="N1019" s="19"/>
+      <c r="O1019" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1019" s="19"/>
+      <c r="Q1019" s="19"/>
+      <c r="R1019" s="19"/>
+    </row>
+    <row r="1020" spans="1:18">
+      <c r="A1020" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1020" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1020" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1020" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1020" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1020" s="21">
+        <v>1460885</v>
+      </c>
+      <c r="G1020" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1020" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1020" s="22">
+        <v>1603839</v>
+      </c>
+      <c r="J1020" s="19">
+        <v>19</v>
+      </c>
+      <c r="K1020" s="19">
+        <v>50.41</v>
+      </c>
+      <c r="L1020" s="24">
+        <v>2709.9</v>
+      </c>
+      <c r="M1020" s="19"/>
+      <c r="N1020" s="19"/>
+      <c r="O1020" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1020" s="19"/>
+      <c r="Q1020" s="19"/>
+      <c r="R1020" s="19"/>
+    </row>
+    <row r="1021" spans="1:18">
+      <c r="A1021" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1021" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1021" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1021" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1021" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1021" s="21">
+        <v>1461057</v>
+      </c>
+      <c r="G1021" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="H1021" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1021" s="22">
+        <v>1603995</v>
+      </c>
+      <c r="J1021" s="19">
+        <v>3</v>
+      </c>
+      <c r="K1021" s="19">
+        <v>4.43</v>
+      </c>
+      <c r="L1021" s="19">
+        <v>190.65</v>
+      </c>
+      <c r="M1021" s="19"/>
+      <c r="N1021" s="19"/>
+      <c r="O1021" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1021" s="19"/>
+      <c r="Q1021" s="19"/>
+      <c r="R1021" s="19"/>
+    </row>
+    <row r="1022" spans="1:18">
+      <c r="A1022" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1022" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1022" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1022" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1022" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1022" s="21">
+        <v>1461058</v>
+      </c>
+      <c r="G1022" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="H1022" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1022" s="22">
+        <v>1603995</v>
+      </c>
+      <c r="J1022" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1022" s="19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L1022" s="19">
+        <v>154.96</v>
+      </c>
+      <c r="M1022" s="19"/>
+      <c r="N1022" s="19"/>
+      <c r="O1022" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1022" s="19"/>
+      <c r="Q1022" s="19"/>
+      <c r="R1022" s="19"/>
+    </row>
+    <row r="1023" spans="1:18">
+      <c r="A1023" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1023" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1023" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1023" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1023" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1023" s="21">
+        <v>1461059</v>
+      </c>
+      <c r="G1023" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="H1023" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1023" s="22">
+        <v>1603995</v>
+      </c>
+      <c r="J1023" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1023" s="19">
+        <v>2.97</v>
+      </c>
+      <c r="L1023" s="19">
+        <v>157.28</v>
+      </c>
+      <c r="M1023" s="19"/>
+      <c r="N1023" s="19"/>
+      <c r="O1023" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1023" s="19"/>
+      <c r="Q1023" s="19"/>
+      <c r="R1023" s="19"/>
+    </row>
+    <row r="1024" spans="1:18">
+      <c r="A1024" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1024" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1024" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1024" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1024" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1024" s="21">
+        <v>1468958</v>
+      </c>
+      <c r="G1024" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1024" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1024" s="22">
+        <v>1605413</v>
+      </c>
+      <c r="J1024" s="19">
+        <v>8</v>
+      </c>
+      <c r="K1024" s="19">
+        <v>14.92</v>
+      </c>
+      <c r="L1024" s="24">
+        <v>1249.8399999999999</v>
+      </c>
+      <c r="M1024" s="19"/>
+      <c r="N1024" s="19"/>
+      <c r="O1024" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1024" s="19"/>
+      <c r="Q1024" s="19"/>
+      <c r="R1024" s="19"/>
+    </row>
+    <row r="1025" spans="1:18">
+      <c r="A1025" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1025" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1025" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1025" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1025" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1025" s="21">
+        <v>1468959</v>
+      </c>
+      <c r="G1025" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1025" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1025" s="22">
+        <v>1605413</v>
+      </c>
+      <c r="J1025" s="19">
+        <v>2</v>
+      </c>
+      <c r="K1025" s="19">
+        <v>3.94</v>
+      </c>
+      <c r="L1025" s="19">
+        <v>294.99</v>
+      </c>
+      <c r="M1025" s="19"/>
+      <c r="N1025" s="19"/>
+      <c r="O1025" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1025" s="19"/>
+      <c r="Q1025" s="19"/>
+      <c r="R1025" s="19"/>
+    </row>
+    <row r="1026" spans="1:18">
+      <c r="A1026" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1026" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1026" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1026" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1026" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1026" s="21">
+        <v>1469006</v>
+      </c>
+      <c r="G1026" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="H1026" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1026" s="22">
+        <v>1605398</v>
+      </c>
+      <c r="J1026" s="19">
+        <v>4</v>
+      </c>
+      <c r="K1026" s="19">
+        <v>11.95</v>
+      </c>
+      <c r="L1026" s="19">
+        <v>514.65</v>
+      </c>
+      <c r="M1026" s="19"/>
+      <c r="N1026" s="19"/>
+      <c r="O1026" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1026" s="19"/>
+      <c r="Q1026" s="19"/>
+      <c r="R1026" s="19"/>
+    </row>
+    <row r="1027" spans="1:18">
+      <c r="A1027" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1027" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1027" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1027" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1027" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1027" s="21">
+        <v>1469007</v>
+      </c>
+      <c r="G1027" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="H1027" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1027" s="22">
+        <v>1605398</v>
+      </c>
+      <c r="J1027" s="19">
+        <v>6</v>
+      </c>
+      <c r="K1027" s="19">
+        <v>11.28</v>
+      </c>
+      <c r="L1027" s="19">
+        <v>939.92</v>
+      </c>
+      <c r="M1027" s="19"/>
+      <c r="N1027" s="19"/>
+      <c r="O1027" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1027" s="19"/>
+      <c r="Q1027" s="19"/>
+      <c r="R1027" s="19"/>
+    </row>
+    <row r="1028" spans="1:18">
+      <c r="A1028" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1028" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1028" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1028" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1028" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1028" s="21">
+        <v>1469008</v>
+      </c>
+      <c r="G1028" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="H1028" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1028" s="22">
+        <v>1605398</v>
+      </c>
+      <c r="J1028" s="19">
+        <v>2</v>
+      </c>
+      <c r="K1028" s="19">
+        <v>3.94</v>
+      </c>
+      <c r="L1028" s="19">
+        <v>294.99</v>
+      </c>
+      <c r="M1028" s="19"/>
+      <c r="N1028" s="19"/>
+      <c r="O1028" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1028" s="19"/>
+      <c r="Q1028" s="19"/>
+      <c r="R1028" s="19"/>
+    </row>
+    <row r="1029" spans="1:18">
+      <c r="A1029" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1029" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1029" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1029" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1029" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1029" s="21">
+        <v>1469043</v>
+      </c>
+      <c r="G1029" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="H1029" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1029" s="22">
+        <v>1605410</v>
+      </c>
+      <c r="J1029" s="19">
+        <v>4</v>
+      </c>
+      <c r="K1029" s="19">
+        <v>7.48</v>
+      </c>
+      <c r="L1029" s="19">
+        <v>720.4</v>
+      </c>
+      <c r="M1029" s="19"/>
+      <c r="N1029" s="19"/>
+      <c r="O1029" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1029" s="19"/>
+      <c r="Q1029" s="19"/>
+      <c r="R1029" s="19"/>
+    </row>
+    <row r="1030" spans="1:18">
+      <c r="A1030" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1030" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1030" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1030" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1030" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1030" s="21">
+        <v>1469044</v>
+      </c>
+      <c r="G1030" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="H1030" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1030" s="22">
+        <v>1605410</v>
+      </c>
+      <c r="J1030" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1030" s="19">
+        <v>2.25</v>
+      </c>
+      <c r="L1030" s="19">
+        <v>208.31</v>
+      </c>
+      <c r="M1030" s="19"/>
+      <c r="N1030" s="19"/>
+      <c r="O1030" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1030" s="19"/>
+      <c r="Q1030" s="19"/>
+      <c r="R1030" s="19"/>
+    </row>
+    <row r="1031" spans="1:18">
+      <c r="A1031" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1031" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1031" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1031" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1031" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1031" s="21">
+        <v>1469045</v>
+      </c>
+      <c r="G1031" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1031" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1031" s="22">
+        <v>1605473</v>
+      </c>
+      <c r="J1031" s="19">
+        <v>18</v>
+      </c>
+      <c r="K1031" s="19">
+        <v>36.409999999999997</v>
+      </c>
+      <c r="L1031" s="24">
+        <v>2414.36</v>
+      </c>
+      <c r="M1031" s="19"/>
+      <c r="N1031" s="19"/>
+      <c r="O1031" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1031" s="19"/>
+      <c r="Q1031" s="19"/>
+      <c r="R1031" s="19"/>
+    </row>
+    <row r="1032" spans="1:18">
+      <c r="A1032" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1032" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1032" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1032" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1032" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1032" s="21">
+        <v>1469058</v>
+      </c>
+      <c r="G1032" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H1032" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="I1032" s="22">
+        <v>1605417</v>
+      </c>
+      <c r="J1032" s="19">
+        <v>4</v>
+      </c>
+      <c r="K1032" s="19">
+        <v>7.48</v>
+      </c>
+      <c r="L1032" s="19">
+        <v>720.4</v>
+      </c>
+      <c r="M1032" s="19"/>
+      <c r="N1032" s="19"/>
+      <c r="O1032" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1032" s="19"/>
+      <c r="Q1032" s="19"/>
+      <c r="R1032" s="19"/>
+    </row>
+    <row r="1033" spans="1:18">
+      <c r="A1033" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1033" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1033" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1033" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1033" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1033" s="21">
+        <v>1469059</v>
+      </c>
+      <c r="G1033" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H1033" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="I1033" s="22">
+        <v>1605417</v>
+      </c>
+      <c r="J1033" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1033" s="19">
+        <v>2.25</v>
+      </c>
+      <c r="L1033" s="19">
+        <v>208.31</v>
+      </c>
+      <c r="M1033" s="19"/>
+      <c r="N1033" s="19"/>
+      <c r="O1033" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1033" s="19"/>
+      <c r="Q1033" s="19"/>
+      <c r="R1033" s="19"/>
+    </row>
+    <row r="1034" spans="1:18">
+      <c r="A1034" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1034" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1034" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1034" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1034" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1034" s="21">
+        <v>1469082</v>
+      </c>
+      <c r="G1034" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="H1034" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1034" s="22">
+        <v>1605424</v>
+      </c>
+      <c r="J1034" s="19">
+        <v>3</v>
+      </c>
+      <c r="K1034" s="19">
+        <v>5.61</v>
+      </c>
+      <c r="L1034" s="19">
+        <v>443.9</v>
+      </c>
+      <c r="M1034" s="19"/>
+      <c r="N1034" s="19"/>
+      <c r="O1034" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1034" s="19"/>
+      <c r="Q1034" s="19"/>
+      <c r="R1034" s="19"/>
+    </row>
+    <row r="1035" spans="1:18">
+      <c r="A1035" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1035" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1035" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1035" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1035" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1035" s="21">
+        <v>1469083</v>
+      </c>
+      <c r="G1035" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="H1035" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1035" s="22">
+        <v>1605424</v>
+      </c>
+      <c r="J1035" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1035" s="19">
+        <v>2.25</v>
+      </c>
+      <c r="L1035" s="19">
+        <v>188.39</v>
+      </c>
+      <c r="M1035" s="19"/>
+      <c r="N1035" s="19"/>
+      <c r="O1035" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1035" s="19"/>
+      <c r="Q1035" s="19"/>
+      <c r="R1035" s="19"/>
+    </row>
+    <row r="1036" spans="1:18">
+      <c r="A1036" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1036" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1036" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1036" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1036" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1036" s="21">
+        <v>1469099</v>
+      </c>
+      <c r="G1036" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1036" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1036" s="22">
+        <v>1605423</v>
+      </c>
+      <c r="J1036" s="19">
+        <v>2</v>
+      </c>
+      <c r="K1036" s="19">
+        <v>6.01</v>
+      </c>
+      <c r="L1036" s="19">
+        <v>255.26</v>
+      </c>
+      <c r="M1036" s="19"/>
+      <c r="N1036" s="19"/>
+      <c r="O1036" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1036" s="19"/>
+      <c r="Q1036" s="19"/>
+      <c r="R1036" s="19"/>
+    </row>
+    <row r="1037" spans="1:18">
+      <c r="A1037" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1037" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1037" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1037" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1037" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1037" s="21">
+        <v>1469100</v>
+      </c>
+      <c r="G1037" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1037" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1037" s="22">
+        <v>1605423</v>
+      </c>
+      <c r="J1037" s="19">
+        <v>5</v>
+      </c>
+      <c r="K1037" s="19">
+        <v>9.4</v>
+      </c>
+      <c r="L1037" s="19">
+        <v>875.36</v>
+      </c>
+      <c r="M1037" s="19"/>
+      <c r="N1037" s="19"/>
+      <c r="O1037" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1037" s="19"/>
+      <c r="Q1037" s="19"/>
+      <c r="R1037" s="19"/>
+    </row>
+    <row r="1038" spans="1:18">
+      <c r="A1038" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1038" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1038" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1038" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1038" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1038" s="21">
+        <v>1469101</v>
+      </c>
+      <c r="G1038" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1038" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1038" s="22">
+        <v>1605423</v>
+      </c>
+      <c r="J1038" s="19">
+        <v>2</v>
+      </c>
+      <c r="K1038" s="19">
+        <v>3.94</v>
+      </c>
+      <c r="L1038" s="19">
+        <v>294.99</v>
+      </c>
+      <c r="M1038" s="19"/>
+      <c r="N1038" s="19"/>
+      <c r="O1038" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1038" s="19"/>
+      <c r="Q1038" s="19"/>
+      <c r="R1038" s="19"/>
+    </row>
+    <row r="1039" spans="1:18">
+      <c r="A1039" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1039" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1039" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1039" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1039" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1039" s="21">
+        <v>1469236</v>
+      </c>
+      <c r="G1039" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="H1039" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1039" s="22">
+        <v>1605583</v>
+      </c>
+      <c r="J1039" s="19">
+        <v>3</v>
+      </c>
+      <c r="K1039" s="19">
+        <v>7.25</v>
+      </c>
+      <c r="L1039" s="19">
+        <v>525.79</v>
+      </c>
+      <c r="M1039" s="19"/>
+      <c r="N1039" s="19"/>
+      <c r="O1039" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1039" s="19"/>
+      <c r="Q1039" s="19"/>
+      <c r="R1039" s="19"/>
+    </row>
+    <row r="1040" spans="1:18">
+      <c r="A1040" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1040" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1040" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1040" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1040" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1040" s="21">
+        <v>1469237</v>
+      </c>
+      <c r="G1040" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="H1040" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1040" s="22">
+        <v>1605583</v>
+      </c>
+      <c r="J1040" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1040" s="19">
+        <v>3.04</v>
+      </c>
+      <c r="L1040" s="19">
+        <v>125.57</v>
+      </c>
+      <c r="M1040" s="19"/>
+      <c r="N1040" s="19"/>
+      <c r="O1040" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1040" s="19"/>
+      <c r="Q1040" s="19"/>
+      <c r="R1040" s="19"/>
+    </row>
+    <row r="1041" spans="1:18">
+      <c r="A1041" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1041" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1041" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1041" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1041" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1041" s="21">
+        <v>1469238</v>
+      </c>
+      <c r="G1041" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="H1041" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1041" s="22">
+        <v>1605583</v>
+      </c>
+      <c r="J1041" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1041" s="19">
+        <v>2.25</v>
+      </c>
+      <c r="L1041" s="19">
+        <v>208.31</v>
+      </c>
+      <c r="M1041" s="19"/>
+      <c r="N1041" s="19"/>
+      <c r="O1041" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1041" s="19"/>
+      <c r="Q1041" s="19"/>
+      <c r="R1041" s="19"/>
+    </row>
+    <row r="1042" spans="1:18">
+      <c r="A1042" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1042" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1042" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1042" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1042" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1042" s="21">
+        <v>1469239</v>
+      </c>
+      <c r="G1042" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="H1042" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1042" s="22">
+        <v>1605583</v>
+      </c>
+      <c r="J1042" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1042" s="19">
+        <v>1.88</v>
+      </c>
+      <c r="L1042" s="19">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="M1042" s="19"/>
+      <c r="N1042" s="19"/>
+      <c r="O1042" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1042" s="19"/>
+      <c r="Q1042" s="19"/>
+      <c r="R1042" s="19"/>
+    </row>
+    <row r="1043" spans="1:18">
+      <c r="A1043" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1043" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1043" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1043" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1043" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1043" s="21">
+        <v>1469319</v>
+      </c>
+      <c r="G1043" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="H1043" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="I1043" s="22">
+        <v>1605341</v>
+      </c>
+      <c r="J1043" s="19">
+        <v>4</v>
+      </c>
+      <c r="K1043" s="19">
+        <v>7.48</v>
+      </c>
+      <c r="L1043" s="19">
+        <v>720.4</v>
+      </c>
+      <c r="M1043" s="19"/>
+      <c r="N1043" s="19"/>
+      <c r="O1043" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1043" s="19"/>
+      <c r="Q1043" s="19"/>
+      <c r="R1043" s="19"/>
+    </row>
+    <row r="1044" spans="1:18">
+      <c r="A1044" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1044" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1044" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1044" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1044" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1044" s="21">
+        <v>1469320</v>
+      </c>
+      <c r="G1044" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="H1044" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="I1044" s="22">
+        <v>1605341</v>
+      </c>
+      <c r="J1044" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1044" s="19">
+        <v>3.51</v>
+      </c>
+      <c r="L1044" s="19">
+        <v>200.27</v>
+      </c>
+      <c r="M1044" s="19"/>
+      <c r="N1044" s="19"/>
+      <c r="O1044" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1044" s="19"/>
+      <c r="Q1044" s="19"/>
+      <c r="R1044" s="19"/>
+    </row>
+    <row r="1045" spans="1:18">
+      <c r="A1045" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1045" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1045" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1045" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1045" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1045" s="21">
+        <v>1469321</v>
+      </c>
+      <c r="G1045" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="H1045" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="I1045" s="22">
+        <v>1605341</v>
+      </c>
+      <c r="J1045" s="19">
+        <v>4</v>
+      </c>
+      <c r="K1045" s="19">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="L1045" s="19">
+        <v>592.88</v>
+      </c>
+      <c r="M1045" s="19"/>
+      <c r="N1045" s="19"/>
+      <c r="O1045" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1045" s="19"/>
+      <c r="Q1045" s="19"/>
+      <c r="R1045" s="19"/>
+    </row>
+    <row r="1046" spans="1:18">
+      <c r="A1046" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1046" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1046" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1046" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1046" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1046" s="21">
+        <v>1469423</v>
+      </c>
+      <c r="G1046" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="H1046" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1046" s="22">
+        <v>1605361</v>
+      </c>
+      <c r="J1046" s="19">
+        <v>5</v>
+      </c>
+      <c r="K1046" s="19">
+        <v>9.36</v>
+      </c>
+      <c r="L1046" s="19">
+        <v>784.96</v>
+      </c>
+      <c r="M1046" s="19"/>
+      <c r="N1046" s="19"/>
+      <c r="O1046" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1046" s="19"/>
+      <c r="Q1046" s="19"/>
+      <c r="R1046" s="19"/>
+    </row>
+    <row r="1047" spans="1:18">
+      <c r="A1047" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1047" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1047" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1047" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1047" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1047" s="21">
+        <v>1469424</v>
+      </c>
+      <c r="G1047" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="H1047" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1047" s="22">
+        <v>1605361</v>
+      </c>
+      <c r="J1047" s="19">
+        <v>3</v>
+      </c>
+      <c r="K1047" s="19">
+        <v>10.06</v>
+      </c>
+      <c r="L1047" s="19">
+        <v>526.12</v>
+      </c>
+      <c r="M1047" s="19"/>
+      <c r="N1047" s="19"/>
+      <c r="O1047" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1047" s="19"/>
+      <c r="Q1047" s="19"/>
+      <c r="R1047" s="19"/>
+    </row>
+    <row r="1048" spans="1:18">
+      <c r="A1048" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1048" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1048" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1048" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1048" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1048" s="21">
+        <v>1469425</v>
+      </c>
+      <c r="G1048" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="H1048" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1048" s="22">
+        <v>1605361</v>
+      </c>
+      <c r="J1048" s="19">
+        <v>2</v>
+      </c>
+      <c r="K1048" s="19">
+        <v>4.09</v>
+      </c>
+      <c r="L1048" s="19">
+        <v>297.89</v>
+      </c>
+      <c r="M1048" s="19"/>
+      <c r="N1048" s="19"/>
+      <c r="O1048" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1048" s="19"/>
+      <c r="Q1048" s="19"/>
+      <c r="R1048" s="19"/>
+    </row>
+    <row r="1049" spans="1:18">
+      <c r="A1049" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1049" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1049" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1049" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1049" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1049" s="21">
+        <v>1469474</v>
+      </c>
+      <c r="G1049" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="H1049" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1049" s="22">
+        <v>1605366</v>
+      </c>
+      <c r="J1049" s="19">
+        <v>3</v>
+      </c>
+      <c r="K1049" s="19">
+        <v>5.61</v>
+      </c>
+      <c r="L1049" s="19">
+        <v>501.79</v>
+      </c>
+      <c r="M1049" s="19"/>
+      <c r="N1049" s="19"/>
+      <c r="O1049" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1049" s="19"/>
+      <c r="Q1049" s="19"/>
+      <c r="R1049" s="19"/>
+    </row>
+    <row r="1050" spans="1:18">
+      <c r="A1050" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1050" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1050" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1050" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1050" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1050" s="21">
+        <v>1469475</v>
+      </c>
+      <c r="G1050" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="H1050" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1050" s="22">
+        <v>1605366</v>
+      </c>
+      <c r="J1050" s="19">
+        <v>1</v>
+      </c>
+      <c r="K1050" s="19">
+        <v>3.51</v>
+      </c>
+      <c r="L1050" s="19">
+        <v>200.27</v>
+      </c>
+      <c r="M1050" s="19"/>
+      <c r="N1050" s="19"/>
+      <c r="O1050" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1050" s="19"/>
+      <c r="Q1050" s="19"/>
+      <c r="R1050" s="19"/>
+    </row>
+    <row r="1051" spans="1:18">
+      <c r="A1051" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1051" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1051" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1051" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1051" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1051" s="21">
+        <v>1469476</v>
+      </c>
+      <c r="G1051" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="H1051" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1051" s="22">
+        <v>1605366</v>
+      </c>
+      <c r="J1051" s="19">
+        <v>2</v>
+      </c>
+      <c r="K1051" s="19">
+        <v>4.09</v>
+      </c>
+      <c r="L1051" s="19">
+        <v>297.89</v>
+      </c>
+      <c r="M1051" s="19"/>
+      <c r="N1051" s="19"/>
+      <c r="O1051" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1051" s="19"/>
+      <c r="Q1051" s="19"/>
+      <c r="R1051" s="19"/>
+    </row>
+    <row r="1052" spans="1:18">
+      <c r="A1052" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1052" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1052" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1052" s="19">
+        <v>197570</v>
+      </c>
+      <c r="E1052" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1052" s="21">
+        <v>1469575</v>
+      </c>
+      <c r="G1052" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1052" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1052" s="22">
+        <v>1605389</v>
+      </c>
+      <c r="J1052" s="19">
+        <v>3</v>
+      </c>
+      <c r="K1052" s="19">
+        <v>5.61</v>
+      </c>
+      <c r="L1052" s="19">
+        <v>501.79</v>
+      </c>
+      <c r="M1052" s="19"/>
+      <c r="N1052" s="19"/>
+      <c r="O1052" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1052" s="19"/>
+      <c r="Q1052" s="19"/>
+      <c r="R1052" s="19"/>
+    </row>
+    <row r="1053" spans="1:18">
+      <c r="A1053" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1053" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1053" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1053" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E1053" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1053" s="27">
+        <v>1469576</v>
+      </c>
+      <c r="G1053" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1053" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1053" s="28">
+        <v>1605389</v>
+      </c>
+      <c r="J1053" s="25">
+        <v>1</v>
+      </c>
+      <c r="K1053" s="25">
+        <v>3.51</v>
+      </c>
+      <c r="L1053" s="25">
+        <v>200.27</v>
+      </c>
+      <c r="M1053" s="25"/>
+      <c r="N1053" s="25"/>
+      <c r="O1053" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1053" s="25"/>
+      <c r="Q1053" s="25"/>
+      <c r="R1053" s="25"/>
+    </row>
+    <row r="1054" spans="1:18">
+      <c r="A1054" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1054" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1054" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1054" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E1054" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1054" s="27">
+        <v>1469577</v>
+      </c>
+      <c r="G1054" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1054" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1054" s="28">
+        <v>1605389</v>
+      </c>
+      <c r="J1054" s="25">
+        <v>1</v>
+      </c>
+      <c r="K1054" s="25">
+        <v>2.25</v>
+      </c>
+      <c r="L1054" s="25">
+        <v>208.31</v>
+      </c>
+      <c r="M1054" s="25"/>
+      <c r="N1054" s="25"/>
+      <c r="O1054" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1054" s="25"/>
+      <c r="Q1054" s="25"/>
+      <c r="R1054" s="25"/>
+    </row>
+    <row r="1055" spans="1:18">
+      <c r="A1055" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1055" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1055" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1055" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E1055" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1055" s="27">
+        <v>1469582</v>
+      </c>
+      <c r="G1055" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1055" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1055" s="28">
+        <v>1605413</v>
+      </c>
+      <c r="J1055" s="25">
+        <v>3</v>
+      </c>
+      <c r="K1055" s="25">
+        <v>8.98</v>
+      </c>
+      <c r="L1055" s="25">
+        <v>384.95</v>
+      </c>
+      <c r="M1055" s="25"/>
+      <c r="N1055" s="25"/>
+      <c r="O1055" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1055" s="25"/>
+      <c r="Q1055" s="25"/>
+      <c r="R1055" s="25"/>
+    </row>
+    <row r="1056" spans="1:18">
+      <c r="A1056" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1056" s="25">
+        <v>77</v>
+      </c>
+      <c r="C1056" s="25">
+        <v>782.01</v>
+      </c>
+      <c r="D1056" s="30">
+        <v>46559.01</v>
+      </c>
+      <c r="E1056" s="25"/>
+      <c r="F1056" s="25"/>
+      <c r="G1056" s="25"/>
+      <c r="H1056" s="25"/>
+      <c r="I1056" s="25"/>
+      <c r="J1056" s="25"/>
+      <c r="K1056" s="25"/>
+      <c r="L1056" s="25"/>
+      <c r="M1056" s="25"/>
+      <c r="N1056" s="25"/>
+      <c r="O1056" s="25"/>
+      <c r="P1056" s="25"/>
+      <c r="Q1056" s="25"/>
+      <c r="R1056" s="25"/>
+    </row>
+    <row r="1057" spans="1:18">
+      <c r="A1057" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1057" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1057" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1057" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="E1057" s="25"/>
+      <c r="F1057" s="25"/>
+      <c r="G1057" s="25"/>
+      <c r="H1057" s="25"/>
+      <c r="I1057" s="25"/>
+      <c r="J1057" s="25"/>
+      <c r="K1057" s="25"/>
+      <c r="L1057" s="25"/>
+      <c r="M1057" s="25"/>
+      <c r="N1057" s="25"/>
+      <c r="O1057" s="25"/>
+      <c r="P1057" s="25"/>
+      <c r="Q1057" s="25"/>
+      <c r="R1057" s="25"/>
+    </row>
+    <row r="1058" spans="1:18">
+      <c r="A1058" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1058" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1058" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1058" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1058" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1058" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1058" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1058" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1058" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1058" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1058" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1058" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1058" s="25"/>
+      <c r="N1058" s="25"/>
+      <c r="O1058" s="25"/>
+      <c r="P1058" s="25"/>
+      <c r="Q1058" s="25"/>
+      <c r="R1058" s="25"/>
+    </row>
+    <row r="1059" spans="1:18">
+      <c r="A1059" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1059" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1059" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1059" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1059" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1059" s="27">
+        <v>1460456</v>
+      </c>
+      <c r="G1059" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="H1059" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1059" s="28">
+        <v>1603758</v>
+      </c>
+      <c r="J1059" s="25">
+        <v>16</v>
+      </c>
+      <c r="K1059" s="25">
+        <v>23.02</v>
+      </c>
+      <c r="L1059" s="30">
+        <v>1016.83</v>
+      </c>
+      <c r="M1059" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1059" s="31"/>
+      <c r="O1059" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1059" s="25"/>
+      <c r="Q1059" s="25"/>
+      <c r="R1059" s="25"/>
+    </row>
+    <row r="1060" spans="1:18">
+      <c r="A1060" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1060" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1060" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1060" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1060" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1060" s="27">
+        <v>1460457</v>
+      </c>
+      <c r="G1060" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="H1060" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1060" s="28">
+        <v>1603758</v>
+      </c>
+      <c r="J1060" s="25">
+        <v>4</v>
+      </c>
+      <c r="K1060" s="25">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="L1060" s="30">
+        <v>1251.72</v>
+      </c>
+      <c r="M1060" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1060" s="31"/>
+      <c r="O1060" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1060" s="25"/>
+      <c r="Q1060" s="25"/>
+      <c r="R1060" s="25"/>
+    </row>
+    <row r="1061" spans="1:18">
+      <c r="A1061" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1061" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1061" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1061" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1061" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1061" s="27">
+        <v>1460458</v>
+      </c>
+      <c r="G1061" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="H1061" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1061" s="28">
+        <v>1603758</v>
+      </c>
+      <c r="J1061" s="25">
+        <v>1</v>
+      </c>
+      <c r="K1061" s="25">
+        <v>2</v>
+      </c>
+      <c r="L1061" s="25">
+        <v>94.62</v>
+      </c>
+      <c r="M1061" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1061" s="31"/>
+      <c r="O1061" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1061" s="25"/>
+      <c r="Q1061" s="25"/>
+      <c r="R1061" s="25"/>
+    </row>
+    <row r="1062" spans="1:18">
+      <c r="A1062" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1062" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1062" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1062" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1062" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1062" s="27">
+        <v>1460459</v>
+      </c>
+      <c r="G1062" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="H1062" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1062" s="28">
+        <v>1603758</v>
+      </c>
+      <c r="J1062" s="25">
+        <v>4</v>
+      </c>
+      <c r="K1062" s="25">
+        <v>10.76</v>
+      </c>
+      <c r="L1062" s="25">
+        <v>561.41</v>
+      </c>
+      <c r="M1062" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1062" s="31"/>
+      <c r="O1062" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1062" s="25"/>
+      <c r="Q1062" s="25"/>
+      <c r="R1062" s="25"/>
+    </row>
+    <row r="1063" spans="1:18">
+      <c r="A1063" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1063" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1063" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1063" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1063" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1063" s="27">
+        <v>1460463</v>
+      </c>
+      <c r="G1063" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="H1063" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="I1063" s="28">
+        <v>1603755</v>
+      </c>
+      <c r="J1063" s="25">
+        <v>8</v>
+      </c>
+      <c r="K1063" s="25">
+        <v>11.51</v>
+      </c>
+      <c r="L1063" s="25">
+        <v>508.43</v>
+      </c>
+      <c r="M1063" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1063" s="31"/>
+      <c r="O1063" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1063" s="25"/>
+      <c r="Q1063" s="25"/>
+      <c r="R1063" s="25"/>
+    </row>
+    <row r="1064" spans="1:18">
+      <c r="A1064" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1064" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1064" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1064" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1064" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1064" s="27">
+        <v>1460464</v>
+      </c>
+      <c r="G1064" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="H1064" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="I1064" s="28">
+        <v>1603755</v>
+      </c>
+      <c r="J1064" s="25">
+        <v>3</v>
+      </c>
+      <c r="K1064" s="25">
+        <v>13.44</v>
+      </c>
+      <c r="L1064" s="25">
+        <v>938.8</v>
+      </c>
+      <c r="M1064" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1064" s="31"/>
+      <c r="O1064" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1064" s="25"/>
+      <c r="Q1064" s="25"/>
+      <c r="R1064" s="25"/>
+    </row>
+    <row r="1065" spans="1:18">
+      <c r="A1065" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1065" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1065" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1065" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1065" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1065" s="27">
+        <v>1460465</v>
+      </c>
+      <c r="G1065" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="H1065" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="I1065" s="28">
+        <v>1603755</v>
+      </c>
+      <c r="J1065" s="25">
+        <v>3</v>
+      </c>
+      <c r="K1065" s="25">
+        <v>7.79</v>
+      </c>
+      <c r="L1065" s="25">
+        <v>404.13</v>
+      </c>
+      <c r="M1065" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1065" s="31"/>
+      <c r="O1065" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1065" s="25"/>
+      <c r="Q1065" s="25"/>
+      <c r="R1065" s="25"/>
+    </row>
+    <row r="1066" spans="1:18">
+      <c r="A1066" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1066" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1066" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1066" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1066" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1066" s="27">
+        <v>1460607</v>
+      </c>
+      <c r="G1066" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="H1066" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1066" s="28">
+        <v>1603783</v>
+      </c>
+      <c r="J1066" s="25">
+        <v>15</v>
+      </c>
+      <c r="K1066" s="25">
+        <v>21.7</v>
+      </c>
+      <c r="L1066" s="25">
+        <v>953.28</v>
+      </c>
+      <c r="M1066" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1066" s="31"/>
+      <c r="O1066" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1066" s="25"/>
+      <c r="Q1066" s="25"/>
+      <c r="R1066" s="25"/>
+    </row>
+    <row r="1067" spans="1:18">
+      <c r="A1067" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1067" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1067" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1067" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1067" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1067" s="27">
+        <v>1460608</v>
+      </c>
+      <c r="G1067" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="H1067" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1067" s="28">
+        <v>1603783</v>
+      </c>
+      <c r="J1067" s="25">
+        <v>4</v>
+      </c>
+      <c r="K1067" s="25">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="L1067" s="30">
+        <v>1251.72</v>
+      </c>
+      <c r="M1067" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1067" s="31"/>
+      <c r="O1067" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1067" s="25"/>
+      <c r="Q1067" s="25"/>
+      <c r="R1067" s="25"/>
+    </row>
+    <row r="1068" spans="1:18">
+      <c r="A1068" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1068" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1068" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1068" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1068" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1068" s="27">
+        <v>1460609</v>
+      </c>
+      <c r="G1068" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="H1068" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1068" s="28">
+        <v>1603783</v>
+      </c>
+      <c r="J1068" s="25">
+        <v>3</v>
+      </c>
+      <c r="K1068" s="25">
+        <v>7.79</v>
+      </c>
+      <c r="L1068" s="25">
+        <v>404.13</v>
+      </c>
+      <c r="M1068" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1068" s="31"/>
+      <c r="O1068" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1068" s="25"/>
+      <c r="Q1068" s="25"/>
+      <c r="R1068" s="25"/>
+    </row>
+    <row r="1069" spans="1:18">
+      <c r="A1069" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1069" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1069" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1069" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1069" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1069" s="27">
+        <v>1460690</v>
+      </c>
+      <c r="G1069" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1069" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1069" s="28">
+        <v>1603890</v>
+      </c>
+      <c r="J1069" s="25">
+        <v>12</v>
+      </c>
+      <c r="K1069" s="25">
+        <v>16.79</v>
+      </c>
+      <c r="L1069" s="25">
+        <v>762.63</v>
+      </c>
+      <c r="M1069" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1069" s="31"/>
+      <c r="O1069" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1069" s="25"/>
+      <c r="Q1069" s="25"/>
+      <c r="R1069" s="25"/>
+    </row>
+    <row r="1070" spans="1:18">
+      <c r="A1070" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1070" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1070" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1070" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1070" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1070" s="27">
+        <v>1460691</v>
+      </c>
+      <c r="G1070" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1070" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1070" s="28">
+        <v>1603890</v>
+      </c>
+      <c r="J1070" s="25">
+        <v>1</v>
+      </c>
+      <c r="K1070" s="25">
+        <v>2</v>
+      </c>
+      <c r="L1070" s="25">
+        <v>94.62</v>
+      </c>
+      <c r="M1070" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1070" s="31"/>
+      <c r="O1070" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1070" s="25"/>
+      <c r="Q1070" s="25"/>
+      <c r="R1070" s="25"/>
+    </row>
+    <row r="1071" spans="1:18">
+      <c r="A1071" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1071" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1071" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1071" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1071" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1071" s="27">
+        <v>1460692</v>
+      </c>
+      <c r="G1071" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1071" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1071" s="28">
+        <v>1603890</v>
+      </c>
+      <c r="J1071" s="25">
+        <v>1</v>
+      </c>
+      <c r="K1071" s="25">
+        <v>2.37</v>
+      </c>
+      <c r="L1071" s="25">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="M1071" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1071" s="31"/>
+      <c r="O1071" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1071" s="25"/>
+      <c r="Q1071" s="25"/>
+      <c r="R1071" s="25"/>
+    </row>
+    <row r="1072" spans="1:18">
+      <c r="A1072" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1072" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1072" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1072" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1072" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1072" s="27">
+        <v>1460693</v>
+      </c>
+      <c r="G1072" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1072" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1072" s="28">
+        <v>1603890</v>
+      </c>
+      <c r="J1072" s="25">
+        <v>3</v>
+      </c>
+      <c r="K1072" s="25">
+        <v>7.79</v>
+      </c>
+      <c r="L1072" s="25">
+        <v>404.13</v>
+      </c>
+      <c r="M1072" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1072" s="31"/>
+      <c r="O1072" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1072" s="25"/>
+      <c r="Q1072" s="25"/>
+      <c r="R1072" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O29 O31:O79 O81:O204">

--- a/planilhaderotascc19.xlsx
+++ b/planilhaderotascc19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Robo-Baixa-Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_A83E597D702693C2E552E180EFAE55EF9C0ADDBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3159D2E9-D0C4-4925-A23B-40A64206405C}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_A83E597D702693C2E552E180EFAE55EF9C0ADDBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D829E117-D418-4616-88F7-B1B9CDCBCE2B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5606" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5726" uniqueCount="518">
   <si>
     <t>Data</t>
   </si>
@@ -1567,6 +1567,30 @@
   <si>
     <t>MZB CHOCOLATES LTDA</t>
   </si>
+  <si>
+    <t>47.735.028/0001-30</t>
+  </si>
+  <si>
+    <t>GB CHOCOLATES LTDA</t>
+  </si>
+  <si>
+    <t>51.560.917/0001-81</t>
+  </si>
+  <si>
+    <t>MB CHOCOLATES LTDA</t>
+  </si>
+  <si>
+    <t>05.287.975/0001-66</t>
+  </si>
+  <si>
+    <t>MARCIA REGINA ZAMBON BARALDI CHOCOL</t>
+  </si>
+  <si>
+    <t>10.345.781/0001-00</t>
+  </si>
+  <si>
+    <t>MARIA EDUARDA BARALDI - EPP</t>
+  </si>
 </sst>
 </file>
 
@@ -1735,9 +1759,9 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2748,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1072"/>
+  <dimension ref="A1:T1092"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1065" workbookViewId="0">
-      <selection activeCell="A1073" sqref="A1073"/>
+    <sheetView tabSelected="1" topLeftCell="A1085" workbookViewId="0">
+      <selection activeCell="A1093" sqref="A1093"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49692,914 +49716,1874 @@
       <c r="R1052" s="19"/>
     </row>
     <row r="1053" spans="1:18">
-      <c r="A1053" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1053" s="25" t="s">
+      <c r="A1053" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1053" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C1053" s="25" t="s">
+      <c r="C1053" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="D1053" s="25">
+      <c r="D1053" s="19">
         <v>197570</v>
       </c>
-      <c r="E1053" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1053" s="27">
+      <c r="E1053" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1053" s="21">
         <v>1469576</v>
       </c>
-      <c r="G1053" s="25" t="s">
+      <c r="G1053" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="H1053" s="25" t="s">
+      <c r="H1053" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="I1053" s="28">
+      <c r="I1053" s="22">
         <v>1605389</v>
       </c>
-      <c r="J1053" s="25">
+      <c r="J1053" s="19">
         <v>1</v>
       </c>
-      <c r="K1053" s="25">
+      <c r="K1053" s="19">
         <v>3.51</v>
       </c>
-      <c r="L1053" s="25">
+      <c r="L1053" s="19">
         <v>200.27</v>
       </c>
-      <c r="M1053" s="25"/>
-      <c r="N1053" s="25"/>
-      <c r="O1053" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1053" s="25"/>
-      <c r="Q1053" s="25"/>
-      <c r="R1053" s="25"/>
+      <c r="M1053" s="19"/>
+      <c r="N1053" s="19"/>
+      <c r="O1053" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1053" s="19"/>
+      <c r="Q1053" s="19"/>
+      <c r="R1053" s="19"/>
     </row>
     <row r="1054" spans="1:18">
-      <c r="A1054" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1054" s="25" t="s">
+      <c r="A1054" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1054" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C1054" s="25" t="s">
+      <c r="C1054" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="D1054" s="25">
+      <c r="D1054" s="19">
         <v>197570</v>
       </c>
-      <c r="E1054" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1054" s="27">
+      <c r="E1054" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1054" s="21">
         <v>1469577</v>
       </c>
-      <c r="G1054" s="25" t="s">
+      <c r="G1054" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="H1054" s="25" t="s">
+      <c r="H1054" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="I1054" s="28">
+      <c r="I1054" s="22">
         <v>1605389</v>
       </c>
-      <c r="J1054" s="25">
+      <c r="J1054" s="19">
         <v>1</v>
       </c>
-      <c r="K1054" s="25">
+      <c r="K1054" s="19">
         <v>2.25</v>
       </c>
-      <c r="L1054" s="25">
+      <c r="L1054" s="19">
         <v>208.31</v>
       </c>
-      <c r="M1054" s="25"/>
-      <c r="N1054" s="25"/>
-      <c r="O1054" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1054" s="25"/>
-      <c r="Q1054" s="25"/>
-      <c r="R1054" s="25"/>
+      <c r="M1054" s="19"/>
+      <c r="N1054" s="19"/>
+      <c r="O1054" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1054" s="19"/>
+      <c r="Q1054" s="19"/>
+      <c r="R1054" s="19"/>
     </row>
     <row r="1055" spans="1:18">
-      <c r="A1055" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1055" s="25" t="s">
+      <c r="A1055" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1055" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C1055" s="25" t="s">
+      <c r="C1055" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="D1055" s="25">
+      <c r="D1055" s="19">
         <v>197570</v>
       </c>
-      <c r="E1055" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1055" s="27">
+      <c r="E1055" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1055" s="21">
         <v>1469582</v>
       </c>
-      <c r="G1055" s="25" t="s">
+      <c r="G1055" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="H1055" s="25" t="s">
+      <c r="H1055" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="I1055" s="28">
+      <c r="I1055" s="22">
         <v>1605413</v>
       </c>
-      <c r="J1055" s="25">
+      <c r="J1055" s="19">
         <v>3</v>
       </c>
-      <c r="K1055" s="25">
+      <c r="K1055" s="19">
         <v>8.98</v>
       </c>
-      <c r="L1055" s="25">
+      <c r="L1055" s="19">
         <v>384.95</v>
       </c>
-      <c r="M1055" s="25"/>
-      <c r="N1055" s="25"/>
-      <c r="O1055" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1055" s="25"/>
-      <c r="Q1055" s="25"/>
-      <c r="R1055" s="25"/>
+      <c r="M1055" s="19"/>
+      <c r="N1055" s="19"/>
+      <c r="O1055" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1055" s="19"/>
+      <c r="Q1055" s="19"/>
+      <c r="R1055" s="19"/>
     </row>
     <row r="1056" spans="1:18">
-      <c r="A1056" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1056" s="25">
+      <c r="A1056" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1056" s="19">
         <v>77</v>
       </c>
-      <c r="C1056" s="25">
+      <c r="C1056" s="19">
         <v>782.01</v>
       </c>
-      <c r="D1056" s="30">
+      <c r="D1056" s="24">
         <v>46559.01</v>
       </c>
-      <c r="E1056" s="25"/>
-      <c r="F1056" s="25"/>
-      <c r="G1056" s="25"/>
-      <c r="H1056" s="25"/>
-      <c r="I1056" s="25"/>
-      <c r="J1056" s="25"/>
-      <c r="K1056" s="25"/>
-      <c r="L1056" s="25"/>
-      <c r="M1056" s="25"/>
-      <c r="N1056" s="25"/>
-      <c r="O1056" s="25"/>
-      <c r="P1056" s="25"/>
-      <c r="Q1056" s="25"/>
-      <c r="R1056" s="25"/>
+      <c r="E1056" s="19"/>
+      <c r="F1056" s="19"/>
+      <c r="G1056" s="19"/>
+      <c r="H1056" s="19"/>
+      <c r="I1056" s="19"/>
+      <c r="J1056" s="19"/>
+      <c r="K1056" s="19"/>
+      <c r="L1056" s="19"/>
+      <c r="M1056" s="19"/>
+      <c r="N1056" s="19"/>
+      <c r="O1056" s="19"/>
+      <c r="P1056" s="19"/>
+      <c r="Q1056" s="19"/>
+      <c r="R1056" s="19"/>
     </row>
     <row r="1057" spans="1:18">
-      <c r="A1057" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1057" s="25" t="s">
+      <c r="A1057" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1057" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C1057" s="25" t="s">
+      <c r="C1057" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D1057" s="25" t="s">
+      <c r="D1057" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="E1057" s="25"/>
-      <c r="F1057" s="25"/>
-      <c r="G1057" s="25"/>
-      <c r="H1057" s="25"/>
-      <c r="I1057" s="25"/>
-      <c r="J1057" s="25"/>
-      <c r="K1057" s="25"/>
-      <c r="L1057" s="25"/>
-      <c r="M1057" s="25"/>
-      <c r="N1057" s="25"/>
-      <c r="O1057" s="25"/>
-      <c r="P1057" s="25"/>
-      <c r="Q1057" s="25"/>
-      <c r="R1057" s="25"/>
+      <c r="E1057" s="19"/>
+      <c r="F1057" s="19"/>
+      <c r="G1057" s="19"/>
+      <c r="H1057" s="19"/>
+      <c r="I1057" s="19"/>
+      <c r="J1057" s="19"/>
+      <c r="K1057" s="19"/>
+      <c r="L1057" s="19"/>
+      <c r="M1057" s="19"/>
+      <c r="N1057" s="19"/>
+      <c r="O1057" s="19"/>
+      <c r="P1057" s="19"/>
+      <c r="Q1057" s="19"/>
+      <c r="R1057" s="19"/>
     </row>
     <row r="1058" spans="1:18">
-      <c r="A1058" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1058" s="25" t="s">
+      <c r="A1058" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1058" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1058" s="25" t="s">
+      <c r="C1058" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D1058" s="25" t="s">
+      <c r="D1058" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1058" s="25" t="s">
+      <c r="E1058" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1058" s="25" t="s">
+      <c r="F1058" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1058" s="25" t="s">
+      <c r="G1058" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1058" s="25" t="s">
+      <c r="H1058" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1058" s="25" t="s">
+      <c r="I1058" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1058" s="25" t="s">
+      <c r="J1058" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K1058" s="25" t="s">
+      <c r="K1058" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L1058" s="25" t="s">
+      <c r="L1058" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1058" s="25"/>
-      <c r="N1058" s="25"/>
-      <c r="O1058" s="25"/>
-      <c r="P1058" s="25"/>
-      <c r="Q1058" s="25"/>
-      <c r="R1058" s="25"/>
+      <c r="M1058" s="19"/>
+      <c r="N1058" s="19"/>
+      <c r="O1058" s="19"/>
+      <c r="P1058" s="19"/>
+      <c r="Q1058" s="19"/>
+      <c r="R1058" s="19"/>
     </row>
     <row r="1059" spans="1:18">
-      <c r="A1059" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1059" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1059" s="25" t="s">
+      <c r="A1059" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1059" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1059" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="D1059" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1059" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1059" s="27">
+      <c r="D1059" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1059" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1059" s="21">
         <v>1460456</v>
       </c>
-      <c r="G1059" s="25" t="s">
+      <c r="G1059" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="H1059" s="25" t="s">
+      <c r="H1059" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="I1059" s="28">
+      <c r="I1059" s="22">
         <v>1603758</v>
       </c>
-      <c r="J1059" s="25">
+      <c r="J1059" s="19">
         <v>16</v>
       </c>
-      <c r="K1059" s="25">
+      <c r="K1059" s="19">
         <v>23.02</v>
       </c>
-      <c r="L1059" s="30">
+      <c r="L1059" s="24">
         <v>1016.83</v>
       </c>
-      <c r="M1059" s="25" t="s">
+      <c r="M1059" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1059" s="31"/>
-      <c r="O1059" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1059" s="25"/>
-      <c r="Q1059" s="25"/>
-      <c r="R1059" s="25"/>
+      <c r="N1059" s="19"/>
+      <c r="O1059" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1059" s="19"/>
+      <c r="Q1059" s="19"/>
+      <c r="R1059" s="19"/>
     </row>
     <row r="1060" spans="1:18">
-      <c r="A1060" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1060" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1060" s="25" t="s">
+      <c r="A1060" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1060" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1060" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="D1060" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1060" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1060" s="27">
+      <c r="D1060" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1060" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1060" s="21">
         <v>1460457</v>
       </c>
-      <c r="G1060" s="25" t="s">
+      <c r="G1060" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="H1060" s="25" t="s">
+      <c r="H1060" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="I1060" s="28">
+      <c r="I1060" s="22">
         <v>1603758</v>
       </c>
-      <c r="J1060" s="25">
+      <c r="J1060" s="19">
         <v>4</v>
       </c>
-      <c r="K1060" s="25">
+      <c r="K1060" s="19">
         <v>17.920000000000002</v>
       </c>
-      <c r="L1060" s="30">
+      <c r="L1060" s="24">
         <v>1251.72</v>
       </c>
-      <c r="M1060" s="25" t="s">
+      <c r="M1060" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1060" s="31"/>
-      <c r="O1060" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1060" s="25"/>
-      <c r="Q1060" s="25"/>
-      <c r="R1060" s="25"/>
+      <c r="N1060" s="19"/>
+      <c r="O1060" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1060" s="19"/>
+      <c r="Q1060" s="19"/>
+      <c r="R1060" s="19"/>
     </row>
     <row r="1061" spans="1:18">
-      <c r="A1061" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1061" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1061" s="25" t="s">
+      <c r="A1061" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1061" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1061" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="D1061" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1061" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1061" s="27">
+      <c r="D1061" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1061" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1061" s="21">
         <v>1460458</v>
       </c>
-      <c r="G1061" s="25" t="s">
+      <c r="G1061" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="H1061" s="25" t="s">
+      <c r="H1061" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="I1061" s="28">
+      <c r="I1061" s="22">
         <v>1603758</v>
       </c>
-      <c r="J1061" s="25">
+      <c r="J1061" s="19">
         <v>1</v>
       </c>
-      <c r="K1061" s="25">
-        <v>2</v>
-      </c>
-      <c r="L1061" s="25">
+      <c r="K1061" s="19">
+        <v>2</v>
+      </c>
+      <c r="L1061" s="19">
         <v>94.62</v>
       </c>
-      <c r="M1061" s="25" t="s">
+      <c r="M1061" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1061" s="31"/>
-      <c r="O1061" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1061" s="25"/>
-      <c r="Q1061" s="25"/>
-      <c r="R1061" s="25"/>
+      <c r="N1061" s="19"/>
+      <c r="O1061" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1061" s="19"/>
+      <c r="Q1061" s="19"/>
+      <c r="R1061" s="19"/>
     </row>
     <row r="1062" spans="1:18">
-      <c r="A1062" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1062" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1062" s="25" t="s">
+      <c r="A1062" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1062" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1062" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="D1062" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1062" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1062" s="27">
+      <c r="D1062" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1062" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1062" s="21">
         <v>1460459</v>
       </c>
-      <c r="G1062" s="25" t="s">
+      <c r="G1062" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="H1062" s="25" t="s">
+      <c r="H1062" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="I1062" s="28">
+      <c r="I1062" s="22">
         <v>1603758</v>
       </c>
-      <c r="J1062" s="25">
+      <c r="J1062" s="19">
         <v>4</v>
       </c>
-      <c r="K1062" s="25">
+      <c r="K1062" s="19">
         <v>10.76</v>
       </c>
-      <c r="L1062" s="25">
+      <c r="L1062" s="19">
         <v>561.41</v>
       </c>
-      <c r="M1062" s="25" t="s">
+      <c r="M1062" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1062" s="31"/>
-      <c r="O1062" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1062" s="25"/>
-      <c r="Q1062" s="25"/>
-      <c r="R1062" s="25"/>
+      <c r="N1062" s="19"/>
+      <c r="O1062" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1062" s="19"/>
+      <c r="Q1062" s="19"/>
+      <c r="R1062" s="19"/>
     </row>
     <row r="1063" spans="1:18">
-      <c r="A1063" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1063" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1063" s="25" t="s">
+      <c r="A1063" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1063" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1063" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="D1063" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1063" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1063" s="27">
+      <c r="D1063" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1063" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1063" s="21">
         <v>1460463</v>
       </c>
-      <c r="G1063" s="25" t="s">
+      <c r="G1063" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="H1063" s="25" t="s">
+      <c r="H1063" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="I1063" s="28">
+      <c r="I1063" s="22">
         <v>1603755</v>
       </c>
-      <c r="J1063" s="25">
+      <c r="J1063" s="19">
         <v>8</v>
       </c>
-      <c r="K1063" s="25">
+      <c r="K1063" s="19">
         <v>11.51</v>
       </c>
-      <c r="L1063" s="25">
+      <c r="L1063" s="19">
         <v>508.43</v>
       </c>
-      <c r="M1063" s="25" t="s">
+      <c r="M1063" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1063" s="31"/>
-      <c r="O1063" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1063" s="25"/>
-      <c r="Q1063" s="25"/>
-      <c r="R1063" s="25"/>
+      <c r="N1063" s="19"/>
+      <c r="O1063" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1063" s="19"/>
+      <c r="Q1063" s="19"/>
+      <c r="R1063" s="19"/>
     </row>
     <row r="1064" spans="1:18">
-      <c r="A1064" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1064" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1064" s="25" t="s">
+      <c r="A1064" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1064" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1064" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="D1064" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1064" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1064" s="27">
+      <c r="D1064" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1064" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1064" s="21">
         <v>1460464</v>
       </c>
-      <c r="G1064" s="25" t="s">
+      <c r="G1064" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="H1064" s="25" t="s">
+      <c r="H1064" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="I1064" s="28">
+      <c r="I1064" s="22">
         <v>1603755</v>
       </c>
-      <c r="J1064" s="25">
+      <c r="J1064" s="19">
         <v>3</v>
       </c>
-      <c r="K1064" s="25">
+      <c r="K1064" s="19">
         <v>13.44</v>
       </c>
-      <c r="L1064" s="25">
+      <c r="L1064" s="19">
         <v>938.8</v>
       </c>
-      <c r="M1064" s="25" t="s">
+      <c r="M1064" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1064" s="31"/>
-      <c r="O1064" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1064" s="25"/>
-      <c r="Q1064" s="25"/>
-      <c r="R1064" s="25"/>
+      <c r="N1064" s="19"/>
+      <c r="O1064" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1064" s="19"/>
+      <c r="Q1064" s="19"/>
+      <c r="R1064" s="19"/>
     </row>
     <row r="1065" spans="1:18">
-      <c r="A1065" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1065" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1065" s="25" t="s">
+      <c r="A1065" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1065" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1065" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="D1065" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1065" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1065" s="27">
+      <c r="D1065" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1065" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1065" s="21">
         <v>1460465</v>
       </c>
-      <c r="G1065" s="25" t="s">
+      <c r="G1065" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="H1065" s="25" t="s">
+      <c r="H1065" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="I1065" s="28">
+      <c r="I1065" s="22">
         <v>1603755</v>
       </c>
-      <c r="J1065" s="25">
+      <c r="J1065" s="19">
         <v>3</v>
       </c>
-      <c r="K1065" s="25">
+      <c r="K1065" s="19">
         <v>7.79</v>
       </c>
-      <c r="L1065" s="25">
+      <c r="L1065" s="19">
         <v>404.13</v>
       </c>
-      <c r="M1065" s="25" t="s">
+      <c r="M1065" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1065" s="31"/>
-      <c r="O1065" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1065" s="25"/>
-      <c r="Q1065" s="25"/>
-      <c r="R1065" s="25"/>
+      <c r="N1065" s="19"/>
+      <c r="O1065" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1065" s="19"/>
+      <c r="Q1065" s="19"/>
+      <c r="R1065" s="19"/>
     </row>
     <row r="1066" spans="1:18">
-      <c r="A1066" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1066" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1066" s="25" t="s">
+      <c r="A1066" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1066" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1066" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="D1066" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1066" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1066" s="27">
+      <c r="D1066" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1066" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1066" s="21">
         <v>1460607</v>
       </c>
-      <c r="G1066" s="25" t="s">
+      <c r="G1066" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="H1066" s="25" t="s">
+      <c r="H1066" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="I1066" s="28">
+      <c r="I1066" s="22">
         <v>1603783</v>
       </c>
-      <c r="J1066" s="25">
+      <c r="J1066" s="19">
         <v>15</v>
       </c>
-      <c r="K1066" s="25">
+      <c r="K1066" s="19">
         <v>21.7</v>
       </c>
-      <c r="L1066" s="25">
+      <c r="L1066" s="19">
         <v>953.28</v>
       </c>
-      <c r="M1066" s="25" t="s">
+      <c r="M1066" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1066" s="31"/>
-      <c r="O1066" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1066" s="25"/>
-      <c r="Q1066" s="25"/>
-      <c r="R1066" s="25"/>
+      <c r="N1066" s="19"/>
+      <c r="O1066" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1066" s="19"/>
+      <c r="Q1066" s="19"/>
+      <c r="R1066" s="19"/>
     </row>
     <row r="1067" spans="1:18">
-      <c r="A1067" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1067" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1067" s="25" t="s">
+      <c r="A1067" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1067" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1067" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="D1067" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1067" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1067" s="27">
+      <c r="D1067" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1067" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1067" s="21">
         <v>1460608</v>
       </c>
-      <c r="G1067" s="25" t="s">
+      <c r="G1067" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="H1067" s="25" t="s">
+      <c r="H1067" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="I1067" s="28">
+      <c r="I1067" s="22">
         <v>1603783</v>
       </c>
-      <c r="J1067" s="25">
+      <c r="J1067" s="19">
         <v>4</v>
       </c>
-      <c r="K1067" s="25">
+      <c r="K1067" s="19">
         <v>17.920000000000002</v>
       </c>
-      <c r="L1067" s="30">
+      <c r="L1067" s="24">
         <v>1251.72</v>
       </c>
-      <c r="M1067" s="25" t="s">
+      <c r="M1067" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1067" s="31"/>
-      <c r="O1067" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1067" s="25"/>
-      <c r="Q1067" s="25"/>
-      <c r="R1067" s="25"/>
+      <c r="N1067" s="19"/>
+      <c r="O1067" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1067" s="19"/>
+      <c r="Q1067" s="19"/>
+      <c r="R1067" s="19"/>
     </row>
     <row r="1068" spans="1:18">
-      <c r="A1068" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1068" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1068" s="25" t="s">
+      <c r="A1068" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1068" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1068" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="D1068" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1068" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1068" s="27">
+      <c r="D1068" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1068" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1068" s="21">
         <v>1460609</v>
       </c>
-      <c r="G1068" s="25" t="s">
+      <c r="G1068" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="H1068" s="25" t="s">
+      <c r="H1068" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="I1068" s="28">
+      <c r="I1068" s="22">
         <v>1603783</v>
       </c>
-      <c r="J1068" s="25">
+      <c r="J1068" s="19">
         <v>3</v>
       </c>
-      <c r="K1068" s="25">
+      <c r="K1068" s="19">
         <v>7.79</v>
       </c>
-      <c r="L1068" s="25">
+      <c r="L1068" s="19">
         <v>404.13</v>
       </c>
-      <c r="M1068" s="25" t="s">
+      <c r="M1068" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1068" s="31"/>
-      <c r="O1068" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1068" s="25"/>
-      <c r="Q1068" s="25"/>
-      <c r="R1068" s="25"/>
+      <c r="N1068" s="19"/>
+      <c r="O1068" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1068" s="19"/>
+      <c r="Q1068" s="19"/>
+      <c r="R1068" s="19"/>
     </row>
     <row r="1069" spans="1:18">
-      <c r="A1069" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1069" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1069" s="25" t="s">
+      <c r="A1069" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1069" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1069" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="D1069" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1069" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1069" s="27">
+      <c r="D1069" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1069" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1069" s="21">
         <v>1460690</v>
       </c>
-      <c r="G1069" s="25" t="s">
+      <c r="G1069" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="H1069" s="25" t="s">
+      <c r="H1069" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="I1069" s="28">
+      <c r="I1069" s="22">
         <v>1603890</v>
       </c>
-      <c r="J1069" s="25">
+      <c r="J1069" s="19">
         <v>12</v>
       </c>
-      <c r="K1069" s="25">
+      <c r="K1069" s="19">
         <v>16.79</v>
       </c>
-      <c r="L1069" s="25">
+      <c r="L1069" s="19">
         <v>762.63</v>
       </c>
-      <c r="M1069" s="25" t="s">
+      <c r="M1069" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1069" s="31"/>
-      <c r="O1069" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1069" s="25"/>
-      <c r="Q1069" s="25"/>
-      <c r="R1069" s="25"/>
+      <c r="N1069" s="19"/>
+      <c r="O1069" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1069" s="19"/>
+      <c r="Q1069" s="19"/>
+      <c r="R1069" s="19"/>
     </row>
     <row r="1070" spans="1:18">
-      <c r="A1070" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1070" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1070" s="25" t="s">
+      <c r="A1070" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1070" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1070" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="D1070" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1070" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1070" s="27">
+      <c r="D1070" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1070" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1070" s="21">
         <v>1460691</v>
       </c>
-      <c r="G1070" s="25" t="s">
+      <c r="G1070" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="H1070" s="25" t="s">
+      <c r="H1070" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="I1070" s="28">
+      <c r="I1070" s="22">
         <v>1603890</v>
       </c>
-      <c r="J1070" s="25">
+      <c r="J1070" s="19">
         <v>1</v>
       </c>
-      <c r="K1070" s="25">
-        <v>2</v>
-      </c>
-      <c r="L1070" s="25">
+      <c r="K1070" s="19">
+        <v>2</v>
+      </c>
+      <c r="L1070" s="19">
         <v>94.62</v>
       </c>
-      <c r="M1070" s="25" t="s">
+      <c r="M1070" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1070" s="31"/>
-      <c r="O1070" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1070" s="25"/>
-      <c r="Q1070" s="25"/>
-      <c r="R1070" s="25"/>
+      <c r="N1070" s="19"/>
+      <c r="O1070" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1070" s="19"/>
+      <c r="Q1070" s="19"/>
+      <c r="R1070" s="19"/>
     </row>
     <row r="1071" spans="1:18">
-      <c r="A1071" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1071" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1071" s="25" t="s">
+      <c r="A1071" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1071" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1071" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="D1071" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1071" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1071" s="27">
+      <c r="D1071" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1071" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1071" s="21">
         <v>1460692</v>
       </c>
-      <c r="G1071" s="25" t="s">
+      <c r="G1071" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="H1071" s="25" t="s">
+      <c r="H1071" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="I1071" s="28">
+      <c r="I1071" s="22">
         <v>1603890</v>
       </c>
-      <c r="J1071" s="25">
+      <c r="J1071" s="19">
         <v>1</v>
       </c>
-      <c r="K1071" s="25">
+      <c r="K1071" s="19">
         <v>2.37</v>
       </c>
-      <c r="L1071" s="25">
+      <c r="L1071" s="19">
         <v>143.47999999999999</v>
       </c>
-      <c r="M1071" s="25" t="s">
+      <c r="M1071" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1071" s="31"/>
-      <c r="O1071" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1071" s="25"/>
-      <c r="Q1071" s="25"/>
-      <c r="R1071" s="25"/>
+      <c r="N1071" s="19"/>
+      <c r="O1071" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1071" s="19"/>
+      <c r="Q1071" s="19"/>
+      <c r="R1071" s="19"/>
     </row>
     <row r="1072" spans="1:18">
-      <c r="A1072" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1072" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1072" s="25" t="s">
+      <c r="A1072" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1072" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1072" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="D1072" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1072" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1072" s="27">
+      <c r="D1072" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1072" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1072" s="21">
         <v>1460693</v>
       </c>
-      <c r="G1072" s="25" t="s">
+      <c r="G1072" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="H1072" s="25" t="s">
+      <c r="H1072" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="I1072" s="28">
+      <c r="I1072" s="22">
         <v>1603890</v>
       </c>
-      <c r="J1072" s="25">
+      <c r="J1072" s="19">
         <v>3</v>
       </c>
-      <c r="K1072" s="25">
+      <c r="K1072" s="19">
         <v>7.79</v>
       </c>
-      <c r="L1072" s="25">
+      <c r="L1072" s="19">
         <v>404.13</v>
       </c>
-      <c r="M1072" s="25" t="s">
+      <c r="M1072" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1072" s="31"/>
-      <c r="O1072" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1072" s="25"/>
-      <c r="Q1072" s="25"/>
-      <c r="R1072" s="25"/>
+      <c r="N1072" s="19"/>
+      <c r="O1072" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1072" s="19"/>
+      <c r="Q1072" s="19"/>
+      <c r="R1072" s="19"/>
+    </row>
+    <row r="1073" spans="1:18">
+      <c r="A1073" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1073" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1073" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1073" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1073" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1073" s="27">
+        <v>1460872</v>
+      </c>
+      <c r="G1073" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="H1073" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1073" s="28">
+        <v>1603885</v>
+      </c>
+      <c r="J1073" s="25">
+        <v>8</v>
+      </c>
+      <c r="K1073" s="25">
+        <v>11.51</v>
+      </c>
+      <c r="L1073" s="25">
+        <v>508.43</v>
+      </c>
+      <c r="M1073" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1073" s="29"/>
+      <c r="O1073" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1073" s="25"/>
+      <c r="Q1073" s="25"/>
+      <c r="R1073" s="25"/>
+    </row>
+    <row r="1074" spans="1:18">
+      <c r="A1074" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1074" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1074" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1074" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1074" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1074" s="27">
+        <v>1460873</v>
+      </c>
+      <c r="G1074" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="H1074" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1074" s="28">
+        <v>1603885</v>
+      </c>
+      <c r="J1074" s="25">
+        <v>1</v>
+      </c>
+      <c r="K1074" s="25">
+        <v>2</v>
+      </c>
+      <c r="L1074" s="25">
+        <v>94.62</v>
+      </c>
+      <c r="M1074" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1074" s="29"/>
+      <c r="O1074" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1074" s="25"/>
+      <c r="Q1074" s="25"/>
+      <c r="R1074" s="25"/>
+    </row>
+    <row r="1075" spans="1:18">
+      <c r="A1075" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1075" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1075" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1075" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1075" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1075" s="27">
+        <v>1460874</v>
+      </c>
+      <c r="G1075" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="H1075" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1075" s="28">
+        <v>1603885</v>
+      </c>
+      <c r="J1075" s="25">
+        <v>1</v>
+      </c>
+      <c r="K1075" s="25">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L1075" s="25">
+        <v>154.96</v>
+      </c>
+      <c r="M1075" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1075" s="29"/>
+      <c r="O1075" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1075" s="25"/>
+      <c r="Q1075" s="25"/>
+      <c r="R1075" s="25"/>
+    </row>
+    <row r="1076" spans="1:18">
+      <c r="A1076" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1076" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1076" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1076" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1076" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1076" s="27">
+        <v>1460875</v>
+      </c>
+      <c r="G1076" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="H1076" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1076" s="28">
+        <v>1603885</v>
+      </c>
+      <c r="J1076" s="25">
+        <v>1</v>
+      </c>
+      <c r="K1076" s="25">
+        <v>2.97</v>
+      </c>
+      <c r="L1076" s="25">
+        <v>157.28</v>
+      </c>
+      <c r="M1076" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1076" s="29"/>
+      <c r="O1076" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1076" s="25"/>
+      <c r="Q1076" s="25"/>
+      <c r="R1076" s="25"/>
+    </row>
+    <row r="1077" spans="1:18">
+      <c r="A1077" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1077" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1077" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1077" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1077" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1077" s="27">
+        <v>1461016</v>
+      </c>
+      <c r="G1077" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="H1077" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1077" s="28">
+        <v>1603989</v>
+      </c>
+      <c r="J1077" s="25">
+        <v>6</v>
+      </c>
+      <c r="K1077" s="25">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="L1077" s="25">
+        <v>381.32</v>
+      </c>
+      <c r="M1077" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1077" s="29"/>
+      <c r="O1077" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1077" s="25"/>
+      <c r="Q1077" s="25"/>
+      <c r="R1077" s="25"/>
+    </row>
+    <row r="1078" spans="1:18">
+      <c r="A1078" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1078" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1078" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1078" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1078" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1078" s="27">
+        <v>1461017</v>
+      </c>
+      <c r="G1078" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="H1078" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1078" s="28">
+        <v>1603989</v>
+      </c>
+      <c r="J1078" s="25">
+        <v>3</v>
+      </c>
+      <c r="K1078" s="25">
+        <v>5.69</v>
+      </c>
+      <c r="L1078" s="25">
+        <v>268.47000000000003</v>
+      </c>
+      <c r="M1078" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1078" s="29"/>
+      <c r="O1078" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1078" s="25"/>
+      <c r="Q1078" s="25"/>
+      <c r="R1078" s="25"/>
+    </row>
+    <row r="1079" spans="1:18">
+      <c r="A1079" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1079" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1079" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1079" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1079" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1079" s="27">
+        <v>1461018</v>
+      </c>
+      <c r="G1079" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="H1079" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1079" s="28">
+        <v>1603989</v>
+      </c>
+      <c r="J1079" s="25">
+        <v>1</v>
+      </c>
+      <c r="K1079" s="25">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L1079" s="25">
+        <v>154.96</v>
+      </c>
+      <c r="M1079" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1079" s="29"/>
+      <c r="O1079" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1079" s="25"/>
+      <c r="Q1079" s="25"/>
+      <c r="R1079" s="25"/>
+    </row>
+    <row r="1080" spans="1:18">
+      <c r="A1080" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1080" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1080" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1080" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1080" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1080" s="27">
+        <v>1461019</v>
+      </c>
+      <c r="G1080" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="H1080" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1080" s="28">
+        <v>1603989</v>
+      </c>
+      <c r="J1080" s="25">
+        <v>1</v>
+      </c>
+      <c r="K1080" s="25">
+        <v>2.97</v>
+      </c>
+      <c r="L1080" s="25">
+        <v>157.28</v>
+      </c>
+      <c r="M1080" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1080" s="29"/>
+      <c r="O1080" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1080" s="25"/>
+      <c r="Q1080" s="25"/>
+      <c r="R1080" s="25"/>
+    </row>
+    <row r="1081" spans="1:18">
+      <c r="A1081" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1081" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1081" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1081" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1081" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1081" s="27">
+        <v>1461065</v>
+      </c>
+      <c r="G1081" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="H1081" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1081" s="28">
+        <v>1603780</v>
+      </c>
+      <c r="J1081" s="25">
+        <v>9</v>
+      </c>
+      <c r="K1081" s="25">
+        <v>13.07</v>
+      </c>
+      <c r="L1081" s="25">
+        <v>571.98</v>
+      </c>
+      <c r="M1081" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1081" s="29"/>
+      <c r="O1081" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1081" s="25"/>
+      <c r="Q1081" s="25"/>
+      <c r="R1081" s="25"/>
+    </row>
+    <row r="1082" spans="1:18">
+      <c r="A1082" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1082" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1082" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1082" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1082" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1082" s="27">
+        <v>1461066</v>
+      </c>
+      <c r="G1082" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="H1082" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1082" s="28">
+        <v>1603780</v>
+      </c>
+      <c r="J1082" s="25">
+        <v>6</v>
+      </c>
+      <c r="K1082" s="25">
+        <v>22.7</v>
+      </c>
+      <c r="L1082" s="31">
+        <v>1563.07</v>
+      </c>
+      <c r="M1082" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1082" s="29"/>
+      <c r="O1082" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1082" s="25"/>
+      <c r="Q1082" s="25"/>
+      <c r="R1082" s="25"/>
+    </row>
+    <row r="1083" spans="1:18">
+      <c r="A1083" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1083" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1083" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1083" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1083" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1083" s="27">
+        <v>1461067</v>
+      </c>
+      <c r="G1083" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="H1083" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1083" s="28">
+        <v>1603780</v>
+      </c>
+      <c r="J1083" s="25">
+        <v>1</v>
+      </c>
+      <c r="K1083" s="25">
+        <v>2</v>
+      </c>
+      <c r="L1083" s="25">
+        <v>94.62</v>
+      </c>
+      <c r="M1083" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1083" s="29"/>
+      <c r="O1083" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1083" s="25"/>
+      <c r="Q1083" s="25"/>
+      <c r="R1083" s="25"/>
+    </row>
+    <row r="1084" spans="1:18">
+      <c r="A1084" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1084" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1084" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1084" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1084" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1084" s="27">
+        <v>1461068</v>
+      </c>
+      <c r="G1084" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="H1084" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1084" s="28">
+        <v>1603780</v>
+      </c>
+      <c r="J1084" s="25">
+        <v>1</v>
+      </c>
+      <c r="K1084" s="25">
+        <v>2.97</v>
+      </c>
+      <c r="L1084" s="25">
+        <v>157.28</v>
+      </c>
+      <c r="M1084" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1084" s="29"/>
+      <c r="O1084" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1084" s="25"/>
+      <c r="Q1084" s="25"/>
+      <c r="R1084" s="25"/>
+    </row>
+    <row r="1085" spans="1:18">
+      <c r="A1085" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1085" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1085" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1085" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1085" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1085" s="27">
+        <v>1461106</v>
+      </c>
+      <c r="G1085" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1085" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1085" s="28">
+        <v>1603757</v>
+      </c>
+      <c r="J1085" s="25">
+        <v>28</v>
+      </c>
+      <c r="K1085" s="25">
+        <v>40.04</v>
+      </c>
+      <c r="L1085" s="31">
+        <v>1779.45</v>
+      </c>
+      <c r="M1085" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1085" s="29"/>
+      <c r="O1085" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1085" s="25"/>
+      <c r="Q1085" s="25"/>
+      <c r="R1085" s="25"/>
+    </row>
+    <row r="1086" spans="1:18">
+      <c r="A1086" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1086" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1086" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1086" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1086" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1086" s="27">
+        <v>1461107</v>
+      </c>
+      <c r="G1086" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1086" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1086" s="28">
+        <v>1603757</v>
+      </c>
+      <c r="J1086" s="25">
+        <v>9</v>
+      </c>
+      <c r="K1086" s="25">
+        <v>40.32</v>
+      </c>
+      <c r="L1086" s="31">
+        <v>2816.39</v>
+      </c>
+      <c r="M1086" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1086" s="29"/>
+      <c r="O1086" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1086" s="25"/>
+      <c r="Q1086" s="25"/>
+      <c r="R1086" s="25"/>
+    </row>
+    <row r="1087" spans="1:18">
+      <c r="A1087" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1087" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1087" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1087" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1087" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1087" s="27">
+        <v>1461108</v>
+      </c>
+      <c r="G1087" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1087" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1087" s="28">
+        <v>1603757</v>
+      </c>
+      <c r="J1087" s="25">
+        <v>3</v>
+      </c>
+      <c r="K1087" s="25">
+        <v>6</v>
+      </c>
+      <c r="L1087" s="25">
+        <v>283.86</v>
+      </c>
+      <c r="M1087" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1087" s="29"/>
+      <c r="O1087" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1087" s="25"/>
+      <c r="Q1087" s="25"/>
+      <c r="R1087" s="25"/>
+    </row>
+    <row r="1088" spans="1:18">
+      <c r="A1088" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1088" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1088" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1088" s="25">
+        <v>197402</v>
+      </c>
+      <c r="E1088" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1088" s="27">
+        <v>1461109</v>
+      </c>
+      <c r="G1088" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1088" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1088" s="28">
+        <v>1603757</v>
+      </c>
+      <c r="J1088" s="25">
+        <v>9</v>
+      </c>
+      <c r="K1088" s="25">
+        <v>22.23</v>
+      </c>
+      <c r="L1088" s="31">
+        <v>1144.73</v>
+      </c>
+      <c r="M1088" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1088" s="29"/>
+      <c r="O1088" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1088" s="25"/>
+      <c r="Q1088" s="25"/>
+      <c r="R1088" s="25"/>
+    </row>
+    <row r="1089" spans="1:18">
+      <c r="A1089" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1089" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1089" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1089" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E1089" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1089" s="27">
+        <v>1469093</v>
+      </c>
+      <c r="G1089" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="H1089" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1089" s="28">
+        <v>1605471</v>
+      </c>
+      <c r="J1089" s="25">
+        <v>5</v>
+      </c>
+      <c r="K1089" s="25">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="L1089" s="25">
+        <v>630.91999999999996</v>
+      </c>
+      <c r="M1089" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1089" s="29"/>
+      <c r="O1089" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1089" s="25"/>
+      <c r="Q1089" s="25"/>
+      <c r="R1089" s="25"/>
+    </row>
+    <row r="1090" spans="1:18">
+      <c r="A1090" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1090" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1090" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1090" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E1090" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1090" s="27">
+        <v>1469094</v>
+      </c>
+      <c r="G1090" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="H1090" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1090" s="28">
+        <v>1605471</v>
+      </c>
+      <c r="J1090" s="25">
+        <v>1</v>
+      </c>
+      <c r="K1090" s="25">
+        <v>2.25</v>
+      </c>
+      <c r="L1090" s="25">
+        <v>208.31</v>
+      </c>
+      <c r="M1090" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1090" s="29"/>
+      <c r="O1090" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1090" s="25"/>
+      <c r="Q1090" s="25"/>
+      <c r="R1090" s="25"/>
+    </row>
+    <row r="1091" spans="1:18">
+      <c r="A1091" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1091" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1091" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1091" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E1091" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1091" s="27">
+        <v>1469199</v>
+      </c>
+      <c r="G1091" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="H1091" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1091" s="28">
+        <v>1605576</v>
+      </c>
+      <c r="J1091" s="25">
+        <v>3</v>
+      </c>
+      <c r="K1091" s="25">
+        <v>5.61</v>
+      </c>
+      <c r="L1091" s="25">
+        <v>501.79</v>
+      </c>
+      <c r="M1091" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1091" s="29"/>
+      <c r="O1091" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1091" s="25"/>
+      <c r="Q1091" s="25"/>
+      <c r="R1091" s="25"/>
+    </row>
+    <row r="1092" spans="1:18">
+      <c r="A1092" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1092" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1092" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1092" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E1092" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1092" s="27">
+        <v>1469200</v>
+      </c>
+      <c r="G1092" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="H1092" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1092" s="28">
+        <v>1605576</v>
+      </c>
+      <c r="J1092" s="25">
+        <v>6</v>
+      </c>
+      <c r="K1092" s="25">
+        <v>18.3</v>
+      </c>
+      <c r="L1092" s="31">
+        <v>1167.74</v>
+      </c>
+      <c r="M1092" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1092" s="29"/>
+      <c r="O1092" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1092" s="25"/>
+      <c r="Q1092" s="25"/>
+      <c r="R1092" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O29 O31:O79 O81:O204">

--- a/planilhaderotascc19.xlsx
+++ b/planilhaderotascc19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Robo-Baixa-Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_A83E597D702693C2E552E180EFAE55EF9C0ADDBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D829E117-D418-4616-88F7-B1B9CDCBCE2B}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_A83E597D702693C2E552E180EFAE55EF9C0ADDBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1109DE4-F58D-4741-896C-6C9D9CEFF06C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5726" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5618" uniqueCount="512">
   <si>
     <t>Data</t>
   </si>
@@ -1573,24 +1573,6 @@
   <si>
     <t>GB CHOCOLATES LTDA</t>
   </si>
-  <si>
-    <t>51.560.917/0001-81</t>
-  </si>
-  <si>
-    <t>MB CHOCOLATES LTDA</t>
-  </si>
-  <si>
-    <t>05.287.975/0001-66</t>
-  </si>
-  <si>
-    <t>MARCIA REGINA ZAMBON BARALDI CHOCOL</t>
-  </si>
-  <si>
-    <t>10.345.781/0001-00</t>
-  </si>
-  <si>
-    <t>MARIA EDUARDA BARALDI - EPP</t>
-  </si>
 </sst>
 </file>
 
@@ -1693,7 +1675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1755,13 +1737,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2774,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1092"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1085" workbookViewId="0">
-      <selection activeCell="A1093" sqref="A1093"/>
+    <sheetView tabSelected="1" topLeftCell="A1072" workbookViewId="0">
+      <selection activeCell="A1092" sqref="A1075:O1092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50626,964 +50601,460 @@
       <c r="R1072" s="19"/>
     </row>
     <row r="1073" spans="1:18">
-      <c r="A1073" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1073" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1073" s="25" t="s">
+      <c r="A1073" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1073" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1073" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="D1073" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1073" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1073" s="27">
+      <c r="D1073" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1073" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1073" s="21">
         <v>1460872</v>
       </c>
-      <c r="G1073" s="25" t="s">
+      <c r="G1073" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="H1073" s="25" t="s">
+      <c r="H1073" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="I1073" s="28">
+      <c r="I1073" s="22">
         <v>1603885</v>
       </c>
-      <c r="J1073" s="25">
+      <c r="J1073" s="19">
         <v>8</v>
       </c>
-      <c r="K1073" s="25">
+      <c r="K1073" s="19">
         <v>11.51</v>
       </c>
-      <c r="L1073" s="25">
+      <c r="L1073" s="19">
         <v>508.43</v>
       </c>
-      <c r="M1073" s="25" t="s">
+      <c r="M1073" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1073" s="29"/>
-      <c r="O1073" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1073" s="25"/>
-      <c r="Q1073" s="25"/>
-      <c r="R1073" s="25"/>
+      <c r="N1073" s="19"/>
+      <c r="O1073" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1073" s="19"/>
+      <c r="Q1073" s="19"/>
+      <c r="R1073" s="19"/>
     </row>
     <row r="1074" spans="1:18">
-      <c r="A1074" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1074" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1074" s="25" t="s">
+      <c r="A1074" s="20">
+        <v>45447</v>
+      </c>
+      <c r="B1074" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1074" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="D1074" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1074" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1074" s="27">
+      <c r="D1074" s="19">
+        <v>197402</v>
+      </c>
+      <c r="E1074" s="19">
+        <v>2</v>
+      </c>
+      <c r="F1074" s="21">
         <v>1460873</v>
       </c>
-      <c r="G1074" s="25" t="s">
+      <c r="G1074" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="H1074" s="25" t="s">
+      <c r="H1074" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="I1074" s="28">
+      <c r="I1074" s="22">
         <v>1603885</v>
       </c>
-      <c r="J1074" s="25">
+      <c r="J1074" s="19">
         <v>1</v>
       </c>
-      <c r="K1074" s="25">
-        <v>2</v>
-      </c>
-      <c r="L1074" s="25">
+      <c r="K1074" s="19">
+        <v>2</v>
+      </c>
+      <c r="L1074" s="19">
         <v>94.62</v>
       </c>
-      <c r="M1074" s="25" t="s">
+      <c r="M1074" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="N1074" s="29"/>
-      <c r="O1074" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1074" s="25"/>
-      <c r="Q1074" s="25"/>
-      <c r="R1074" s="25"/>
+      <c r="N1074" s="19"/>
+      <c r="O1074" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1074" s="19"/>
+      <c r="Q1074" s="19"/>
+      <c r="R1074" s="19"/>
     </row>
     <row r="1075" spans="1:18">
-      <c r="A1075" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1075" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1075" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="D1075" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1075" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1075" s="27">
-        <v>1460874</v>
-      </c>
-      <c r="G1075" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="H1075" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1075" s="28">
-        <v>1603885</v>
-      </c>
-      <c r="J1075" s="25">
-        <v>1</v>
-      </c>
-      <c r="K1075" s="25">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="L1075" s="25">
-        <v>154.96</v>
-      </c>
-      <c r="M1075" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1075" s="29"/>
-      <c r="O1075" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1075" s="25"/>
-      <c r="Q1075" s="25"/>
-      <c r="R1075" s="25"/>
+      <c r="A1075" s="20"/>
+      <c r="B1075" s="19"/>
+      <c r="C1075" s="19"/>
+      <c r="D1075" s="19"/>
+      <c r="E1075" s="19"/>
+      <c r="F1075" s="21"/>
+      <c r="G1075" s="19"/>
+      <c r="H1075" s="19"/>
+      <c r="I1075" s="22"/>
+      <c r="J1075" s="19"/>
+      <c r="K1075" s="19"/>
+      <c r="L1075" s="19"/>
+      <c r="M1075" s="19"/>
+      <c r="N1075" s="19"/>
+      <c r="O1075" s="23"/>
+      <c r="P1075" s="19"/>
+      <c r="Q1075" s="19"/>
+      <c r="R1075" s="19"/>
     </row>
     <row r="1076" spans="1:18">
-      <c r="A1076" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1076" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1076" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="D1076" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1076" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1076" s="27">
-        <v>1460875</v>
-      </c>
-      <c r="G1076" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="H1076" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1076" s="28">
-        <v>1603885</v>
-      </c>
-      <c r="J1076" s="25">
-        <v>1</v>
-      </c>
-      <c r="K1076" s="25">
-        <v>2.97</v>
-      </c>
-      <c r="L1076" s="25">
-        <v>157.28</v>
-      </c>
-      <c r="M1076" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1076" s="29"/>
-      <c r="O1076" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1076" s="25"/>
-      <c r="Q1076" s="25"/>
-      <c r="R1076" s="25"/>
+      <c r="A1076" s="20"/>
+      <c r="B1076" s="19"/>
+      <c r="C1076" s="19"/>
+      <c r="D1076" s="19"/>
+      <c r="E1076" s="19"/>
+      <c r="F1076" s="21"/>
+      <c r="G1076" s="19"/>
+      <c r="H1076" s="19"/>
+      <c r="I1076" s="22"/>
+      <c r="J1076" s="19"/>
+      <c r="K1076" s="19"/>
+      <c r="L1076" s="19"/>
+      <c r="M1076" s="19"/>
+      <c r="N1076" s="19"/>
+      <c r="O1076" s="23"/>
+      <c r="P1076" s="19"/>
+      <c r="Q1076" s="19"/>
+      <c r="R1076" s="19"/>
     </row>
     <row r="1077" spans="1:18">
-      <c r="A1077" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1077" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1077" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1077" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1077" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1077" s="27">
-        <v>1461016</v>
-      </c>
-      <c r="G1077" s="25" t="s">
-        <v>513</v>
-      </c>
-      <c r="H1077" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1077" s="28">
-        <v>1603989</v>
-      </c>
-      <c r="J1077" s="25">
-        <v>6</v>
-      </c>
-      <c r="K1077" s="25">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="L1077" s="25">
-        <v>381.32</v>
-      </c>
-      <c r="M1077" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1077" s="29"/>
-      <c r="O1077" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1077" s="25"/>
-      <c r="Q1077" s="25"/>
-      <c r="R1077" s="25"/>
+      <c r="A1077" s="20"/>
+      <c r="B1077" s="19"/>
+      <c r="C1077" s="19"/>
+      <c r="D1077" s="19"/>
+      <c r="E1077" s="19"/>
+      <c r="F1077" s="21"/>
+      <c r="G1077" s="19"/>
+      <c r="H1077" s="19"/>
+      <c r="I1077" s="22"/>
+      <c r="J1077" s="19"/>
+      <c r="K1077" s="19"/>
+      <c r="L1077" s="19"/>
+      <c r="M1077" s="19"/>
+      <c r="N1077" s="19"/>
+      <c r="O1077" s="23"/>
+      <c r="P1077" s="19"/>
+      <c r="Q1077" s="19"/>
+      <c r="R1077" s="19"/>
     </row>
     <row r="1078" spans="1:18">
-      <c r="A1078" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1078" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1078" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1078" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1078" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1078" s="27">
-        <v>1461017</v>
-      </c>
-      <c r="G1078" s="25" t="s">
-        <v>513</v>
-      </c>
-      <c r="H1078" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1078" s="28">
-        <v>1603989</v>
-      </c>
-      <c r="J1078" s="25">
-        <v>3</v>
-      </c>
-      <c r="K1078" s="25">
-        <v>5.69</v>
-      </c>
-      <c r="L1078" s="25">
-        <v>268.47000000000003</v>
-      </c>
-      <c r="M1078" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1078" s="29"/>
-      <c r="O1078" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1078" s="25"/>
-      <c r="Q1078" s="25"/>
-      <c r="R1078" s="25"/>
+      <c r="A1078" s="20"/>
+      <c r="B1078" s="19"/>
+      <c r="C1078" s="19"/>
+      <c r="D1078" s="19"/>
+      <c r="E1078" s="19"/>
+      <c r="F1078" s="21"/>
+      <c r="G1078" s="19"/>
+      <c r="H1078" s="19"/>
+      <c r="I1078" s="22"/>
+      <c r="J1078" s="19"/>
+      <c r="K1078" s="19"/>
+      <c r="L1078" s="19"/>
+      <c r="M1078" s="19"/>
+      <c r="N1078" s="19"/>
+      <c r="O1078" s="23"/>
+      <c r="P1078" s="19"/>
+      <c r="Q1078" s="19"/>
+      <c r="R1078" s="19"/>
     </row>
     <row r="1079" spans="1:18">
-      <c r="A1079" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1079" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1079" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1079" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1079" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1079" s="27">
-        <v>1461018</v>
-      </c>
-      <c r="G1079" s="25" t="s">
-        <v>513</v>
-      </c>
-      <c r="H1079" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1079" s="28">
-        <v>1603989</v>
-      </c>
-      <c r="J1079" s="25">
-        <v>1</v>
-      </c>
-      <c r="K1079" s="25">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="L1079" s="25">
-        <v>154.96</v>
-      </c>
-      <c r="M1079" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1079" s="29"/>
-      <c r="O1079" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1079" s="25"/>
-      <c r="Q1079" s="25"/>
-      <c r="R1079" s="25"/>
+      <c r="A1079" s="20"/>
+      <c r="B1079" s="19"/>
+      <c r="C1079" s="19"/>
+      <c r="D1079" s="19"/>
+      <c r="E1079" s="19"/>
+      <c r="F1079" s="21"/>
+      <c r="G1079" s="19"/>
+      <c r="H1079" s="19"/>
+      <c r="I1079" s="22"/>
+      <c r="J1079" s="19"/>
+      <c r="K1079" s="19"/>
+      <c r="L1079" s="19"/>
+      <c r="M1079" s="19"/>
+      <c r="N1079" s="19"/>
+      <c r="O1079" s="23"/>
+      <c r="P1079" s="19"/>
+      <c r="Q1079" s="19"/>
+      <c r="R1079" s="19"/>
     </row>
     <row r="1080" spans="1:18">
-      <c r="A1080" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1080" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1080" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1080" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1080" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1080" s="27">
-        <v>1461019</v>
-      </c>
-      <c r="G1080" s="25" t="s">
-        <v>513</v>
-      </c>
-      <c r="H1080" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1080" s="28">
-        <v>1603989</v>
-      </c>
-      <c r="J1080" s="25">
-        <v>1</v>
-      </c>
-      <c r="K1080" s="25">
-        <v>2.97</v>
-      </c>
-      <c r="L1080" s="25">
-        <v>157.28</v>
-      </c>
-      <c r="M1080" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1080" s="29"/>
-      <c r="O1080" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1080" s="25"/>
-      <c r="Q1080" s="25"/>
-      <c r="R1080" s="25"/>
+      <c r="A1080" s="20"/>
+      <c r="B1080" s="19"/>
+      <c r="C1080" s="19"/>
+      <c r="D1080" s="19"/>
+      <c r="E1080" s="19"/>
+      <c r="F1080" s="21"/>
+      <c r="G1080" s="19"/>
+      <c r="H1080" s="19"/>
+      <c r="I1080" s="22"/>
+      <c r="J1080" s="19"/>
+      <c r="K1080" s="19"/>
+      <c r="L1080" s="19"/>
+      <c r="M1080" s="19"/>
+      <c r="N1080" s="19"/>
+      <c r="O1080" s="23"/>
+      <c r="P1080" s="19"/>
+      <c r="Q1080" s="19"/>
+      <c r="R1080" s="19"/>
     </row>
     <row r="1081" spans="1:18">
-      <c r="A1081" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1081" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1081" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="D1081" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1081" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1081" s="27">
-        <v>1461065</v>
-      </c>
-      <c r="G1081" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="H1081" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1081" s="28">
-        <v>1603780</v>
-      </c>
-      <c r="J1081" s="25">
-        <v>9</v>
-      </c>
-      <c r="K1081" s="25">
-        <v>13.07</v>
-      </c>
-      <c r="L1081" s="25">
-        <v>571.98</v>
-      </c>
-      <c r="M1081" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1081" s="29"/>
-      <c r="O1081" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1081" s="25"/>
-      <c r="Q1081" s="25"/>
-      <c r="R1081" s="25"/>
+      <c r="A1081" s="20"/>
+      <c r="B1081" s="19"/>
+      <c r="C1081" s="19"/>
+      <c r="D1081" s="19"/>
+      <c r="E1081" s="19"/>
+      <c r="F1081" s="21"/>
+      <c r="G1081" s="19"/>
+      <c r="H1081" s="19"/>
+      <c r="I1081" s="22"/>
+      <c r="J1081" s="19"/>
+      <c r="K1081" s="19"/>
+      <c r="L1081" s="19"/>
+      <c r="M1081" s="19"/>
+      <c r="N1081" s="19"/>
+      <c r="O1081" s="23"/>
+      <c r="P1081" s="19"/>
+      <c r="Q1081" s="19"/>
+      <c r="R1081" s="19"/>
     </row>
     <row r="1082" spans="1:18">
-      <c r="A1082" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1082" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1082" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="D1082" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1082" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1082" s="27">
-        <v>1461066</v>
-      </c>
-      <c r="G1082" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="H1082" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1082" s="28">
-        <v>1603780</v>
-      </c>
-      <c r="J1082" s="25">
-        <v>6</v>
-      </c>
-      <c r="K1082" s="25">
-        <v>22.7</v>
-      </c>
-      <c r="L1082" s="31">
-        <v>1563.07</v>
-      </c>
-      <c r="M1082" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1082" s="29"/>
-      <c r="O1082" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1082" s="25"/>
-      <c r="Q1082" s="25"/>
-      <c r="R1082" s="25"/>
+      <c r="A1082" s="20"/>
+      <c r="B1082" s="19"/>
+      <c r="C1082" s="19"/>
+      <c r="D1082" s="19"/>
+      <c r="E1082" s="19"/>
+      <c r="F1082" s="21"/>
+      <c r="G1082" s="19"/>
+      <c r="H1082" s="19"/>
+      <c r="I1082" s="22"/>
+      <c r="J1082" s="19"/>
+      <c r="K1082" s="19"/>
+      <c r="L1082" s="24"/>
+      <c r="M1082" s="19"/>
+      <c r="N1082" s="19"/>
+      <c r="O1082" s="23"/>
+      <c r="P1082" s="19"/>
+      <c r="Q1082" s="19"/>
+      <c r="R1082" s="19"/>
     </row>
     <row r="1083" spans="1:18">
-      <c r="A1083" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1083" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1083" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="D1083" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1083" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1083" s="27">
-        <v>1461067</v>
-      </c>
-      <c r="G1083" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="H1083" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1083" s="28">
-        <v>1603780</v>
-      </c>
-      <c r="J1083" s="25">
-        <v>1</v>
-      </c>
-      <c r="K1083" s="25">
-        <v>2</v>
-      </c>
-      <c r="L1083" s="25">
-        <v>94.62</v>
-      </c>
-      <c r="M1083" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1083" s="29"/>
-      <c r="O1083" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1083" s="25"/>
-      <c r="Q1083" s="25"/>
-      <c r="R1083" s="25"/>
+      <c r="A1083" s="20"/>
+      <c r="B1083" s="19"/>
+      <c r="C1083" s="19"/>
+      <c r="D1083" s="19"/>
+      <c r="E1083" s="19"/>
+      <c r="F1083" s="21"/>
+      <c r="G1083" s="19"/>
+      <c r="H1083" s="19"/>
+      <c r="I1083" s="22"/>
+      <c r="J1083" s="19"/>
+      <c r="K1083" s="19"/>
+      <c r="L1083" s="19"/>
+      <c r="M1083" s="19"/>
+      <c r="N1083" s="19"/>
+      <c r="O1083" s="23"/>
+      <c r="P1083" s="19"/>
+      <c r="Q1083" s="19"/>
+      <c r="R1083" s="19"/>
     </row>
     <row r="1084" spans="1:18">
-      <c r="A1084" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1084" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1084" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="D1084" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1084" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1084" s="27">
-        <v>1461068</v>
-      </c>
-      <c r="G1084" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="H1084" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1084" s="28">
-        <v>1603780</v>
-      </c>
-      <c r="J1084" s="25">
-        <v>1</v>
-      </c>
-      <c r="K1084" s="25">
-        <v>2.97</v>
-      </c>
-      <c r="L1084" s="25">
-        <v>157.28</v>
-      </c>
-      <c r="M1084" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1084" s="29"/>
-      <c r="O1084" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1084" s="25"/>
-      <c r="Q1084" s="25"/>
-      <c r="R1084" s="25"/>
+      <c r="A1084" s="20"/>
+      <c r="B1084" s="19"/>
+      <c r="C1084" s="19"/>
+      <c r="D1084" s="19"/>
+      <c r="E1084" s="19"/>
+      <c r="F1084" s="21"/>
+      <c r="G1084" s="19"/>
+      <c r="H1084" s="19"/>
+      <c r="I1084" s="22"/>
+      <c r="J1084" s="19"/>
+      <c r="K1084" s="19"/>
+      <c r="L1084" s="19"/>
+      <c r="M1084" s="19"/>
+      <c r="N1084" s="19"/>
+      <c r="O1084" s="23"/>
+      <c r="P1084" s="19"/>
+      <c r="Q1084" s="19"/>
+      <c r="R1084" s="19"/>
     </row>
     <row r="1085" spans="1:18">
-      <c r="A1085" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1085" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1085" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="D1085" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1085" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1085" s="27">
-        <v>1461106</v>
-      </c>
-      <c r="G1085" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1085" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1085" s="28">
-        <v>1603757</v>
-      </c>
-      <c r="J1085" s="25">
-        <v>28</v>
-      </c>
-      <c r="K1085" s="25">
-        <v>40.04</v>
-      </c>
-      <c r="L1085" s="31">
-        <v>1779.45</v>
-      </c>
-      <c r="M1085" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1085" s="29"/>
-      <c r="O1085" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1085" s="25"/>
-      <c r="Q1085" s="25"/>
-      <c r="R1085" s="25"/>
+      <c r="A1085" s="20"/>
+      <c r="B1085" s="19"/>
+      <c r="C1085" s="19"/>
+      <c r="D1085" s="19"/>
+      <c r="E1085" s="19"/>
+      <c r="F1085" s="21"/>
+      <c r="G1085" s="19"/>
+      <c r="H1085" s="19"/>
+      <c r="I1085" s="22"/>
+      <c r="J1085" s="19"/>
+      <c r="K1085" s="19"/>
+      <c r="L1085" s="24"/>
+      <c r="M1085" s="19"/>
+      <c r="N1085" s="19"/>
+      <c r="O1085" s="23"/>
+      <c r="P1085" s="19"/>
+      <c r="Q1085" s="19"/>
+      <c r="R1085" s="19"/>
     </row>
     <row r="1086" spans="1:18">
-      <c r="A1086" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1086" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1086" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="D1086" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1086" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1086" s="27">
-        <v>1461107</v>
-      </c>
-      <c r="G1086" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1086" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1086" s="28">
-        <v>1603757</v>
-      </c>
-      <c r="J1086" s="25">
-        <v>9</v>
-      </c>
-      <c r="K1086" s="25">
-        <v>40.32</v>
-      </c>
-      <c r="L1086" s="31">
-        <v>2816.39</v>
-      </c>
-      <c r="M1086" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1086" s="29"/>
-      <c r="O1086" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1086" s="25"/>
-      <c r="Q1086" s="25"/>
-      <c r="R1086" s="25"/>
+      <c r="A1086" s="20"/>
+      <c r="B1086" s="19"/>
+      <c r="C1086" s="19"/>
+      <c r="D1086" s="19"/>
+      <c r="E1086" s="19"/>
+      <c r="F1086" s="21"/>
+      <c r="G1086" s="19"/>
+      <c r="H1086" s="19"/>
+      <c r="I1086" s="22"/>
+      <c r="J1086" s="19"/>
+      <c r="K1086" s="19"/>
+      <c r="L1086" s="24"/>
+      <c r="M1086" s="19"/>
+      <c r="N1086" s="19"/>
+      <c r="O1086" s="23"/>
+      <c r="P1086" s="19"/>
+      <c r="Q1086" s="19"/>
+      <c r="R1086" s="19"/>
     </row>
     <row r="1087" spans="1:18">
-      <c r="A1087" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1087" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1087" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="D1087" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1087" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1087" s="27">
-        <v>1461108</v>
-      </c>
-      <c r="G1087" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1087" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1087" s="28">
-        <v>1603757</v>
-      </c>
-      <c r="J1087" s="25">
-        <v>3</v>
-      </c>
-      <c r="K1087" s="25">
-        <v>6</v>
-      </c>
-      <c r="L1087" s="25">
-        <v>283.86</v>
-      </c>
-      <c r="M1087" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1087" s="29"/>
-      <c r="O1087" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1087" s="25"/>
-      <c r="Q1087" s="25"/>
-      <c r="R1087" s="25"/>
+      <c r="A1087" s="20"/>
+      <c r="B1087" s="19"/>
+      <c r="C1087" s="19"/>
+      <c r="D1087" s="19"/>
+      <c r="E1087" s="19"/>
+      <c r="F1087" s="21"/>
+      <c r="G1087" s="19"/>
+      <c r="H1087" s="19"/>
+      <c r="I1087" s="22"/>
+      <c r="J1087" s="19"/>
+      <c r="K1087" s="19"/>
+      <c r="L1087" s="19"/>
+      <c r="M1087" s="19"/>
+      <c r="N1087" s="19"/>
+      <c r="O1087" s="23"/>
+      <c r="P1087" s="19"/>
+      <c r="Q1087" s="19"/>
+      <c r="R1087" s="19"/>
     </row>
     <row r="1088" spans="1:18">
-      <c r="A1088" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1088" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1088" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="D1088" s="25">
-        <v>197402</v>
-      </c>
-      <c r="E1088" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1088" s="27">
-        <v>1461109</v>
-      </c>
-      <c r="G1088" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1088" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1088" s="28">
-        <v>1603757</v>
-      </c>
-      <c r="J1088" s="25">
-        <v>9</v>
-      </c>
-      <c r="K1088" s="25">
-        <v>22.23</v>
-      </c>
-      <c r="L1088" s="31">
-        <v>1144.73</v>
-      </c>
-      <c r="M1088" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1088" s="29"/>
-      <c r="O1088" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1088" s="25"/>
-      <c r="Q1088" s="25"/>
-      <c r="R1088" s="25"/>
+      <c r="A1088" s="20"/>
+      <c r="B1088" s="19"/>
+      <c r="C1088" s="19"/>
+      <c r="D1088" s="19"/>
+      <c r="E1088" s="19"/>
+      <c r="F1088" s="21"/>
+      <c r="G1088" s="19"/>
+      <c r="H1088" s="19"/>
+      <c r="I1088" s="22"/>
+      <c r="J1088" s="19"/>
+      <c r="K1088" s="19"/>
+      <c r="L1088" s="24"/>
+      <c r="M1088" s="19"/>
+      <c r="N1088" s="19"/>
+      <c r="O1088" s="23"/>
+      <c r="P1088" s="19"/>
+      <c r="Q1088" s="19"/>
+      <c r="R1088" s="19"/>
     </row>
     <row r="1089" spans="1:18">
-      <c r="A1089" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1089" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C1089" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="D1089" s="25">
-        <v>197570</v>
-      </c>
-      <c r="E1089" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1089" s="27">
-        <v>1469093</v>
-      </c>
-      <c r="G1089" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="H1089" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1089" s="28">
-        <v>1605471</v>
-      </c>
-      <c r="J1089" s="25">
-        <v>5</v>
-      </c>
-      <c r="K1089" s="25">
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="L1089" s="25">
-        <v>630.91999999999996</v>
-      </c>
-      <c r="M1089" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1089" s="29"/>
-      <c r="O1089" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1089" s="25"/>
-      <c r="Q1089" s="25"/>
-      <c r="R1089" s="25"/>
+      <c r="A1089" s="20"/>
+      <c r="B1089" s="19"/>
+      <c r="C1089" s="19"/>
+      <c r="D1089" s="19"/>
+      <c r="E1089" s="19"/>
+      <c r="F1089" s="21"/>
+      <c r="G1089" s="19"/>
+      <c r="H1089" s="19"/>
+      <c r="I1089" s="22"/>
+      <c r="J1089" s="19"/>
+      <c r="K1089" s="19"/>
+      <c r="L1089" s="19"/>
+      <c r="M1089" s="19"/>
+      <c r="N1089" s="19"/>
+      <c r="O1089" s="23"/>
+      <c r="P1089" s="19"/>
+      <c r="Q1089" s="19"/>
+      <c r="R1089" s="19"/>
     </row>
     <row r="1090" spans="1:18">
-      <c r="A1090" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1090" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C1090" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="D1090" s="25">
-        <v>197570</v>
-      </c>
-      <c r="E1090" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1090" s="27">
-        <v>1469094</v>
-      </c>
-      <c r="G1090" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="H1090" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1090" s="28">
-        <v>1605471</v>
-      </c>
-      <c r="J1090" s="25">
-        <v>1</v>
-      </c>
-      <c r="K1090" s="25">
-        <v>2.25</v>
-      </c>
-      <c r="L1090" s="25">
-        <v>208.31</v>
-      </c>
-      <c r="M1090" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1090" s="29"/>
-      <c r="O1090" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1090" s="25"/>
-      <c r="Q1090" s="25"/>
-      <c r="R1090" s="25"/>
+      <c r="A1090" s="20"/>
+      <c r="B1090" s="19"/>
+      <c r="C1090" s="19"/>
+      <c r="D1090" s="19"/>
+      <c r="E1090" s="19"/>
+      <c r="F1090" s="21"/>
+      <c r="G1090" s="19"/>
+      <c r="H1090" s="19"/>
+      <c r="I1090" s="22"/>
+      <c r="J1090" s="19"/>
+      <c r="K1090" s="19"/>
+      <c r="L1090" s="19"/>
+      <c r="M1090" s="19"/>
+      <c r="N1090" s="19"/>
+      <c r="O1090" s="23"/>
+      <c r="P1090" s="19"/>
+      <c r="Q1090" s="19"/>
+      <c r="R1090" s="19"/>
     </row>
     <row r="1091" spans="1:18">
-      <c r="A1091" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1091" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C1091" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1091" s="25">
-        <v>197570</v>
-      </c>
-      <c r="E1091" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1091" s="27">
-        <v>1469199</v>
-      </c>
-      <c r="G1091" s="25" t="s">
-        <v>513</v>
-      </c>
-      <c r="H1091" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1091" s="28">
-        <v>1605576</v>
-      </c>
-      <c r="J1091" s="25">
-        <v>3</v>
-      </c>
-      <c r="K1091" s="25">
-        <v>5.61</v>
-      </c>
-      <c r="L1091" s="25">
-        <v>501.79</v>
-      </c>
-      <c r="M1091" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1091" s="29"/>
-      <c r="O1091" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1091" s="25"/>
-      <c r="Q1091" s="25"/>
-      <c r="R1091" s="25"/>
+      <c r="A1091" s="20"/>
+      <c r="B1091" s="19"/>
+      <c r="C1091" s="19"/>
+      <c r="D1091" s="19"/>
+      <c r="E1091" s="19"/>
+      <c r="F1091" s="21"/>
+      <c r="G1091" s="19"/>
+      <c r="H1091" s="19"/>
+      <c r="I1091" s="22"/>
+      <c r="J1091" s="19"/>
+      <c r="K1091" s="19"/>
+      <c r="L1091" s="19"/>
+      <c r="M1091" s="19"/>
+      <c r="N1091" s="19"/>
+      <c r="O1091" s="23"/>
+      <c r="P1091" s="19"/>
+      <c r="Q1091" s="19"/>
+      <c r="R1091" s="19"/>
     </row>
     <row r="1092" spans="1:18">
-      <c r="A1092" s="26">
-        <v>45447</v>
-      </c>
-      <c r="B1092" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C1092" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1092" s="25">
-        <v>197570</v>
-      </c>
-      <c r="E1092" s="25">
-        <v>2</v>
-      </c>
-      <c r="F1092" s="27">
-        <v>1469200</v>
-      </c>
-      <c r="G1092" s="25" t="s">
-        <v>513</v>
-      </c>
-      <c r="H1092" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1092" s="28">
-        <v>1605576</v>
-      </c>
-      <c r="J1092" s="25">
-        <v>6</v>
-      </c>
-      <c r="K1092" s="25">
-        <v>18.3</v>
-      </c>
-      <c r="L1092" s="31">
-        <v>1167.74</v>
-      </c>
-      <c r="M1092" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1092" s="29"/>
-      <c r="O1092" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1092" s="25"/>
-      <c r="Q1092" s="25"/>
-      <c r="R1092" s="25"/>
+      <c r="A1092" s="20"/>
+      <c r="B1092" s="19"/>
+      <c r="C1092" s="19"/>
+      <c r="D1092" s="19"/>
+      <c r="E1092" s="19"/>
+      <c r="F1092" s="21"/>
+      <c r="G1092" s="19"/>
+      <c r="H1092" s="19"/>
+      <c r="I1092" s="22"/>
+      <c r="J1092" s="19"/>
+      <c r="K1092" s="19"/>
+      <c r="L1092" s="24"/>
+      <c r="M1092" s="19"/>
+      <c r="N1092" s="19"/>
+      <c r="O1092" s="23"/>
+      <c r="P1092" s="19"/>
+      <c r="Q1092" s="19"/>
+      <c r="R1092" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O29 O31:O79 O81:O204">

--- a/planilhaderotascc19.xlsx
+++ b/planilhaderotascc19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Robo-Baixa-Entregas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_A83E597D702693C2E552E180EFAE55EF9C0ADDBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1109DE4-F58D-4741-896C-6C9D9CEFF06C}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_A83E597D702693C2E552E180EFAE55EF9C0ADDBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73BA2864-C0D4-44F5-857C-769536EF2D47}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5618" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5624" uniqueCount="514">
   <si>
     <t>Data</t>
   </si>
@@ -1573,6 +1573,12 @@
   <si>
     <t>GB CHOCOLATES LTDA</t>
   </si>
+  <si>
+    <t>51.560.917/0001-81</t>
+  </si>
+  <si>
+    <t>MB CHOCOLATES LTDA</t>
+  </si>
 </sst>
 </file>
 
@@ -1675,7 +1681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1737,6 +1743,12 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -50697,24 +50709,52 @@
       <c r="R1074" s="19"/>
     </row>
     <row r="1075" spans="1:18">
-      <c r="A1075" s="20"/>
-      <c r="B1075" s="19"/>
-      <c r="C1075" s="19"/>
-      <c r="D1075" s="19"/>
-      <c r="E1075" s="19"/>
-      <c r="F1075" s="21"/>
-      <c r="G1075" s="19"/>
-      <c r="H1075" s="19"/>
-      <c r="I1075" s="22"/>
-      <c r="J1075" s="19"/>
-      <c r="K1075" s="19"/>
-      <c r="L1075" s="19"/>
-      <c r="M1075" s="19"/>
-      <c r="N1075" s="19"/>
-      <c r="O1075" s="23"/>
-      <c r="P1075" s="19"/>
-      <c r="Q1075" s="19"/>
-      <c r="R1075" s="19"/>
+      <c r="A1075" s="26">
+        <v>45447</v>
+      </c>
+      <c r="B1075" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1075" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1075" s="25">
+        <v>197570</v>
+      </c>
+      <c r="E1075" s="25">
+        <v>2</v>
+      </c>
+      <c r="F1075" s="27">
+        <v>1469201</v>
+      </c>
+      <c r="G1075" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="H1075" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1075" s="28">
+        <v>1605576</v>
+      </c>
+      <c r="J1075" s="25">
+        <v>1</v>
+      </c>
+      <c r="K1075" s="25">
+        <v>2.25</v>
+      </c>
+      <c r="L1075" s="25">
+        <v>208.31</v>
+      </c>
+      <c r="M1075" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1075" s="29"/>
+      <c r="O1075" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1075" s="25"/>
+      <c r="Q1075" s="25"/>
+      <c r="R1075" s="25"/>
     </row>
     <row r="1076" spans="1:18">
       <c r="A1076" s="20"/>
